--- a/tests/Feature/config/mortgage_tenpercent.xlsx
+++ b/tests/Feature/config/mortgage_tenpercent.xlsx
@@ -198,7 +198,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 6430766 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 6430766 * 1Mortgage payed 1 years faster due to extraDownpayments</t>
   </si>
   <si>
     <t xml:space="preserve"> Asset rule: Using current amount: 7073843 * 1</t>

--- a/tests/Feature/config/mortgage_tenpercent.xlsx
+++ b/tests/Feature/config/mortgage_tenpercent.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>private</t>
   </si>
@@ -226,48 +226,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Asset rule: Using current amount: 18347728 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 20182501 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 22200751 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 24420826 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 26862909 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 29549200 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 32504120 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 35754532 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 39329985 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 43262984 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 47589282 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 52348210 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 57583031 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 63341334 * 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 69675467 * 1</t>
   </si>
   <si>
     <t>ExtraDownpayment</t>
@@ -715,7 +673,7 @@
   <dimension ref="A1:AM80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A52" sqref="A52:AM52"/>
+      <selection activeCell="A38" sqref="A38:AM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -750,8 +708,8 @@
     <col min="28" max="28" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="29" max="29" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="31" max="31" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="32" max="32" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="33" max="33" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="34" max="34" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="35" max="35" width="12.854" bestFit="true" customWidth="true" style="0"/>
@@ -3727,1309 +3685,639 @@
       <c r="AM37"/>
     </row>
     <row r="38" spans="1:39">
-      <c r="A38">
+      <c r="A38" s="15">
         <v>2043</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="5">
         <v>48</v>
       </c>
-      <c r="C38" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D38" s="2"/>
+      <c r="C38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="16"/>
       <c r="E38" s="5">
         <v>0.0</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-      <c r="L38" s="1">
-        <v>0</v>
-      </c>
-      <c r="M38" s="1">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1">
-        <v>0</v>
-      </c>
-      <c r="O38" s="2"/>
-      <c r="P38" s="6">
+      <c r="F38" s="16"/>
+      <c r="G38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+      <c r="J38" s="16"/>
+      <c r="K38" s="5">
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0</v>
+      </c>
+      <c r="O38" s="16"/>
+      <c r="P38" s="5">
         <v>60547503.0</v>
       </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="1">
+      <c r="Q38" s="16"/>
+      <c r="R38" s="5">
         <v>60547503.0</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38" s="5">
         <v>9000000.0</v>
       </c>
-      <c r="T38" s="1">
+      <c r="T38" s="5">
         <v>10720663.0</v>
       </c>
-      <c r="U38" s="6">
+      <c r="U38" s="5">
         <v>15136875.75</v>
       </c>
-      <c r="V38" s="2"/>
-      <c r="W38" s="1">
+      <c r="V38" s="16"/>
+      <c r="W38" s="5">
         <v>134368.7575</v>
       </c>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="1">
+      <c r="X38" s="16"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="5">
         <v>-221218.5138</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AF38" s="5">
         <v>-8458764.3164</v>
       </c>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="2"/>
-      <c r="AM38"/>
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AI38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AJ38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="16"/>
+      <c r="AM38" s="15"/>
     </row>
     <row r="39" spans="1:39">
-      <c r="A39">
-        <v>2044</v>
-      </c>
-      <c r="B39" s="1">
-        <v>49</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G39" s="1"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
+      <c r="I39" s="1"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1">
-        <v>0</v>
-      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="6">
-        <v>66602253.0</v>
-      </c>
+      <c r="P39" s="1"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="1">
-        <v>66602253.0</v>
-      </c>
-      <c r="S39" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T39" s="1">
-        <v>10720663.0</v>
-      </c>
-      <c r="U39" s="6">
-        <v>16650563.25</v>
-      </c>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
       <c r="V39" s="2"/>
-      <c r="W39" s="1">
-        <v>149505.6325</v>
-      </c>
+      <c r="W39" s="1"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="1"/>
-      <c r="AB39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
       <c r="AD39" s="2"/>
-      <c r="AE39" s="1">
-        <v>-249070.3638</v>
-      </c>
-      <c r="AF39" s="1">
-        <v>-8707834.6802</v>
-      </c>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
       <c r="AG39" s="2"/>
-      <c r="AH39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="2"/>
-      <c r="AM39"/>
     </row>
     <row r="40" spans="1:39">
-      <c r="A40" s="10">
-        <v>2045</v>
-      </c>
-      <c r="B40" s="11">
-        <v>50</v>
-      </c>
-      <c r="C40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="E40" s="11"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="G40" s="11"/>
       <c r="H40" s="12"/>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
+      <c r="I40" s="11"/>
       <c r="J40" s="12"/>
-      <c r="K40" s="11">
-        <v>0</v>
-      </c>
-      <c r="L40" s="11">
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-      <c r="N40" s="11">
-        <v>0</v>
-      </c>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="11">
-        <v>73262478.0</v>
-      </c>
+      <c r="P40" s="11"/>
       <c r="Q40" s="12"/>
-      <c r="R40" s="11">
-        <v>73262478.0</v>
-      </c>
-      <c r="S40" s="11">
-        <v>9000000.0</v>
-      </c>
-      <c r="T40" s="11">
-        <v>10720663.0</v>
-      </c>
-      <c r="U40" s="11">
-        <v>18315619.5</v>
-      </c>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
       <c r="V40" s="12"/>
-      <c r="W40" s="11">
-        <v>166156.195</v>
-      </c>
+      <c r="W40" s="11"/>
       <c r="X40" s="12"/>
       <c r="Y40" s="11"/>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11"/>
-      <c r="AB40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="11">
-        <v>0</v>
-      </c>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
       <c r="AD40" s="12"/>
-      <c r="AE40" s="11">
-        <v>-279707.3988</v>
-      </c>
-      <c r="AF40" s="11">
-        <v>-8987542.079</v>
-      </c>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
       <c r="AG40" s="12"/>
-      <c r="AH40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AI40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AJ40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
       <c r="AK40" s="11"/>
       <c r="AL40" s="12"/>
       <c r="AM40" s="10"/>
     </row>
     <row r="41" spans="1:39">
-      <c r="A41">
-        <v>2046</v>
-      </c>
-      <c r="B41" s="1">
-        <v>51</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
+      <c r="I41" s="1"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-      <c r="L41" s="1">
-        <v>0</v>
-      </c>
-      <c r="M41" s="1">
-        <v>0</v>
-      </c>
-      <c r="N41" s="1">
-        <v>0</v>
-      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="6">
-        <v>80588727.0</v>
-      </c>
+      <c r="P41" s="1"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="1">
-        <v>80588727.0</v>
-      </c>
-      <c r="S41" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T41" s="1">
-        <v>10720663.0</v>
-      </c>
-      <c r="U41" s="6">
-        <v>20147181.75</v>
-      </c>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
       <c r="V41" s="2"/>
-      <c r="W41" s="1">
-        <v>184471.8175</v>
-      </c>
+      <c r="W41" s="1"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1"/>
-      <c r="AB41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
       <c r="AD41" s="2"/>
-      <c r="AE41" s="1">
-        <v>-313408.1442</v>
-      </c>
-      <c r="AF41" s="1">
-        <v>-9300950.2232</v>
-      </c>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
       <c r="AG41" s="2"/>
-      <c r="AH41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
       <c r="AL41" s="2"/>
-      <c r="AM41"/>
     </row>
     <row r="42" spans="1:39">
-      <c r="A42">
-        <v>2047</v>
-      </c>
-      <c r="B42" s="1">
-        <v>52</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
+      <c r="I42" s="1"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="1">
-        <v>0</v>
-      </c>
-      <c r="L42" s="1">
-        <v>0</v>
-      </c>
-      <c r="M42" s="1">
-        <v>0</v>
-      </c>
-      <c r="N42" s="1">
-        <v>0</v>
-      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="6">
-        <v>88647600.0</v>
-      </c>
+      <c r="P42" s="1"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="1">
-        <v>88647600.0</v>
-      </c>
-      <c r="S42" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T42" s="1">
-        <v>10720663.0</v>
-      </c>
-      <c r="U42" s="6">
-        <v>22161900.0</v>
-      </c>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
       <c r="V42" s="2"/>
-      <c r="W42" s="1">
-        <v>204619.0</v>
-      </c>
+      <c r="W42" s="1"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1"/>
-      <c r="AB42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
       <c r="AD42" s="2"/>
-      <c r="AE42" s="1">
-        <v>-350478.96</v>
-      </c>
-      <c r="AF42" s="1">
-        <v>-9651429.1832</v>
-      </c>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
       <c r="AG42" s="2"/>
-      <c r="AH42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="2"/>
-      <c r="AM42"/>
     </row>
     <row r="43" spans="1:39">
-      <c r="A43">
-        <v>2048</v>
-      </c>
-      <c r="B43" s="1">
-        <v>53</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G43" s="1"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="1">
-        <v>0</v>
-      </c>
+      <c r="I43" s="1"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="1">
-        <v>0</v>
-      </c>
-      <c r="L43" s="1">
-        <v>0</v>
-      </c>
-      <c r="M43" s="1">
-        <v>0</v>
-      </c>
-      <c r="N43" s="1">
-        <v>0</v>
-      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="6">
-        <v>97512360.0</v>
-      </c>
+      <c r="P43" s="1"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="1">
-        <v>97512360.0</v>
-      </c>
-      <c r="S43" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T43" s="1">
-        <v>10720663.0</v>
-      </c>
-      <c r="U43" s="6">
-        <v>24378090.0</v>
-      </c>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
       <c r="V43" s="2"/>
-      <c r="W43" s="1">
-        <v>226780.9</v>
-      </c>
+      <c r="W43" s="1"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1"/>
-      <c r="AB43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
       <c r="AD43" s="2"/>
-      <c r="AE43" s="1">
-        <v>-391256.856</v>
-      </c>
-      <c r="AF43" s="1">
-        <v>-10042686.0392</v>
-      </c>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
       <c r="AG43" s="2"/>
-      <c r="AH43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
       <c r="AL43" s="2"/>
-      <c r="AM43"/>
     </row>
     <row r="44" spans="1:39">
-      <c r="A44">
-        <v>2049</v>
-      </c>
-      <c r="B44" s="1">
-        <v>54</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G44" s="1"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
+      <c r="I44" s="1"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1">
-        <v>0</v>
-      </c>
-      <c r="M44" s="1">
-        <v>0</v>
-      </c>
-      <c r="N44" s="1">
-        <v>0</v>
-      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="6">
-        <v>107263596.0</v>
-      </c>
+      <c r="P44" s="1"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="1">
-        <v>107263596.0</v>
-      </c>
-      <c r="S44" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T44" s="1">
-        <v>10720663.0</v>
-      </c>
-      <c r="U44" s="6">
-        <v>26815899.0</v>
-      </c>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
       <c r="V44" s="2"/>
-      <c r="W44" s="1">
-        <v>251158.99</v>
-      </c>
+      <c r="W44" s="1"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1"/>
-      <c r="AB44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
       <c r="AD44" s="2"/>
-      <c r="AE44" s="1">
-        <v>-436112.5416</v>
-      </c>
-      <c r="AF44" s="1">
-        <v>-10478798.5808</v>
-      </c>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
       <c r="AG44" s="2"/>
-      <c r="AH44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="2"/>
-      <c r="AM44"/>
     </row>
     <row r="45" spans="1:39">
-      <c r="A45">
-        <v>2050</v>
-      </c>
-      <c r="B45" s="1">
-        <v>55</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G45" s="1"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="1">
-        <v>0</v>
-      </c>
+      <c r="I45" s="1"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="1">
-        <v>0</v>
-      </c>
-      <c r="L45" s="1">
-        <v>0</v>
-      </c>
-      <c r="M45" s="1">
-        <v>0</v>
-      </c>
-      <c r="N45" s="1">
-        <v>0</v>
-      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="6">
-        <v>117989955.0</v>
-      </c>
+      <c r="P45" s="1"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="1">
-        <v>117989955.0</v>
-      </c>
-      <c r="S45" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T45" s="1">
-        <v>10720663.0</v>
-      </c>
-      <c r="U45" s="6">
-        <v>29497488.75</v>
-      </c>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
       <c r="V45" s="2"/>
-      <c r="W45" s="1">
-        <v>277974.8875</v>
-      </c>
+      <c r="W45" s="1"/>
       <c r="X45" s="2"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1"/>
-      <c r="AB45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
       <c r="AD45" s="2"/>
-      <c r="AE45" s="1">
-        <v>-485453.793</v>
-      </c>
-      <c r="AF45" s="1">
-        <v>-10964252.3738</v>
-      </c>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
       <c r="AG45" s="2"/>
-      <c r="AH45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
       <c r="AL45" s="2"/>
-      <c r="AM45"/>
     </row>
     <row r="46" spans="1:39">
-      <c r="A46">
-        <v>2051</v>
-      </c>
-      <c r="B46" s="1">
-        <v>56</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G46" s="1"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
+      <c r="I46" s="1"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="1">
-        <v>0</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0</v>
-      </c>
-      <c r="M46" s="1">
-        <v>0</v>
-      </c>
-      <c r="N46" s="1">
-        <v>0</v>
-      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="6">
-        <v>129788952.0</v>
-      </c>
+      <c r="P46" s="1"/>
       <c r="Q46" s="2"/>
-      <c r="R46" s="1">
-        <v>129788952.0</v>
-      </c>
-      <c r="S46" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T46" s="1">
-        <v>10720663.0</v>
-      </c>
-      <c r="U46" s="6">
-        <v>32447238.0</v>
-      </c>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
       <c r="V46" s="2"/>
-      <c r="W46" s="1">
-        <v>307472.38</v>
-      </c>
+      <c r="W46" s="1"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1"/>
-      <c r="AB46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
       <c r="AD46" s="2"/>
-      <c r="AE46" s="1">
-        <v>-539729.1792</v>
-      </c>
-      <c r="AF46" s="1">
-        <v>-11503981.553</v>
-      </c>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
       <c r="AG46" s="2"/>
-      <c r="AH46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="2"/>
-      <c r="AM46"/>
     </row>
     <row r="47" spans="1:39">
-      <c r="A47">
-        <v>2052</v>
-      </c>
-      <c r="B47" s="1">
-        <v>57</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G47" s="1"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
+      <c r="I47" s="1"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="1">
-        <v>0</v>
-      </c>
-      <c r="L47" s="1">
-        <v>0</v>
-      </c>
-      <c r="M47" s="1">
-        <v>0</v>
-      </c>
-      <c r="N47" s="1">
-        <v>0</v>
-      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="6">
-        <v>142767846.0</v>
-      </c>
+      <c r="P47" s="1"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="1">
-        <v>142767846.0</v>
-      </c>
-      <c r="S47" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T47" s="1">
-        <v>10720663.0</v>
-      </c>
-      <c r="U47" s="6">
-        <v>35691961.5</v>
-      </c>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
       <c r="V47" s="2"/>
-      <c r="W47" s="1">
-        <v>339919.615</v>
-      </c>
+      <c r="W47" s="1"/>
       <c r="X47" s="2"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1"/>
-      <c r="AB47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
       <c r="AD47" s="2"/>
-      <c r="AE47" s="1">
-        <v>-599432.0916</v>
-      </c>
-      <c r="AF47" s="1">
-        <v>-12103413.6446</v>
-      </c>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
       <c r="AG47" s="2"/>
-      <c r="AH47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="2"/>
-      <c r="AM47"/>
     </row>
     <row r="48" spans="1:39">
-      <c r="A48">
-        <v>2053</v>
-      </c>
-      <c r="B48" s="1">
-        <v>58</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="1">
-        <v>0</v>
-      </c>
+      <c r="I48" s="1"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="1">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1">
-        <v>0</v>
-      </c>
-      <c r="M48" s="1">
-        <v>0</v>
-      </c>
-      <c r="N48" s="1">
-        <v>0</v>
-      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="6">
-        <v>157044630.0</v>
-      </c>
+      <c r="P48" s="1"/>
       <c r="Q48" s="2"/>
-      <c r="R48" s="1">
-        <v>157044630.0</v>
-      </c>
-      <c r="S48" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T48" s="1">
-        <v>10720663.0</v>
-      </c>
-      <c r="U48" s="6">
-        <v>39261157.5</v>
-      </c>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
       <c r="V48" s="2"/>
-      <c r="W48" s="1">
-        <v>375611.575</v>
-      </c>
+      <c r="W48" s="1"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1"/>
-      <c r="AB48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
       <c r="AD48" s="2"/>
-      <c r="AE48" s="1">
-        <v>-665105.298</v>
-      </c>
-      <c r="AF48" s="1">
-        <v>-12768518.9426</v>
-      </c>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
       <c r="AG48" s="2"/>
-      <c r="AH48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="2"/>
-      <c r="AM48"/>
     </row>
     <row r="49" spans="1:39">
-      <c r="A49">
-        <v>2054</v>
-      </c>
-      <c r="B49" s="1">
-        <v>59</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G49" s="1"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="1">
-        <v>0</v>
-      </c>
+      <c r="I49" s="1"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="1">
-        <v>0</v>
-      </c>
-      <c r="L49" s="1">
-        <v>0</v>
-      </c>
-      <c r="M49" s="1">
-        <v>0</v>
-      </c>
-      <c r="N49" s="1">
-        <v>0</v>
-      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="6">
-        <v>172749093.0</v>
-      </c>
+      <c r="P49" s="1"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="1">
-        <v>172749093.0</v>
-      </c>
-      <c r="S49" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T49" s="1">
-        <v>10720663.0</v>
-      </c>
-      <c r="U49" s="6">
-        <v>43187273.25</v>
-      </c>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
       <c r="V49" s="2"/>
-      <c r="W49" s="1">
-        <v>414872.7325</v>
-      </c>
+      <c r="W49" s="1"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1"/>
-      <c r="AB49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
       <c r="AD49" s="2"/>
-      <c r="AE49" s="1">
-        <v>-737345.8278</v>
-      </c>
-      <c r="AF49" s="1">
-        <v>-13505864.7704</v>
-      </c>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
       <c r="AG49" s="2"/>
-      <c r="AH49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="2"/>
-      <c r="AM49"/>
     </row>
     <row r="50" spans="1:39">
-      <c r="A50">
-        <v>2055</v>
-      </c>
-      <c r="B50" s="1">
-        <v>60</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G50" s="1"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="1">
-        <v>0</v>
-      </c>
+      <c r="I50" s="1"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="1">
-        <v>0</v>
-      </c>
-      <c r="L50" s="1">
-        <v>0</v>
-      </c>
-      <c r="M50" s="1">
-        <v>0</v>
-      </c>
-      <c r="N50" s="1">
-        <v>0</v>
-      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="6">
-        <v>190024002.0</v>
-      </c>
+      <c r="P50" s="1"/>
       <c r="Q50" s="2"/>
-      <c r="R50" s="1">
-        <v>190024002.0</v>
-      </c>
-      <c r="S50" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T50" s="1">
-        <v>10720663.0</v>
-      </c>
-      <c r="U50" s="6">
-        <v>47506000.5</v>
-      </c>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
       <c r="V50" s="2"/>
-      <c r="W50" s="1">
-        <v>458060.005</v>
-      </c>
+      <c r="W50" s="1"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1"/>
-      <c r="AB50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
       <c r="AD50" s="2"/>
-      <c r="AE50" s="1">
-        <v>-816810.4092</v>
-      </c>
-      <c r="AF50" s="1">
-        <v>-14322675.1796</v>
-      </c>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
       <c r="AG50" s="2"/>
-      <c r="AH50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="2"/>
-      <c r="AM50"/>
     </row>
     <row r="51" spans="1:39">
-      <c r="A51">
-        <v>2056</v>
-      </c>
-      <c r="B51" s="1">
-        <v>61</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G51" s="1"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="1">
-        <v>0</v>
-      </c>
+      <c r="I51" s="1"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="1">
-        <v>0</v>
-      </c>
-      <c r="L51" s="1">
-        <v>0</v>
-      </c>
-      <c r="M51" s="1">
-        <v>0</v>
-      </c>
-      <c r="N51" s="1">
-        <v>0</v>
-      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="6">
-        <v>209026401.0</v>
-      </c>
+      <c r="P51" s="1"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="1">
-        <v>209026401.0</v>
-      </c>
-      <c r="S51" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T51" s="1">
-        <v>10720663.0</v>
-      </c>
-      <c r="U51" s="6">
-        <v>52256600.25</v>
-      </c>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
       <c r="V51" s="2"/>
-      <c r="W51" s="1">
-        <v>505566.0025</v>
-      </c>
+      <c r="W51" s="1"/>
       <c r="X51" s="2"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1"/>
-      <c r="AB51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
       <c r="AD51" s="2"/>
-      <c r="AE51" s="1">
-        <v>-904221.4446</v>
-      </c>
-      <c r="AF51" s="1">
-        <v>-15226896.6242</v>
-      </c>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
       <c r="AG51" s="2"/>
-      <c r="AH51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="2"/>
-      <c r="AM51"/>
     </row>
     <row r="52" spans="1:39">
-      <c r="A52" s="15">
-        <v>2057</v>
-      </c>
-      <c r="B52" s="5">
-        <v>62</v>
-      </c>
-      <c r="C52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="5">
-        <v>0</v>
-      </c>
-      <c r="J52" s="16"/>
-      <c r="K52" s="5">
-        <v>0</v>
-      </c>
-      <c r="L52" s="5">
-        <v>0</v>
-      </c>
-      <c r="M52" s="5">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5">
-        <v>0</v>
-      </c>
-      <c r="O52" s="16"/>
-      <c r="P52" s="5">
-        <v>229929042.0</v>
-      </c>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="5">
-        <v>229929042.0</v>
-      </c>
-      <c r="S52" s="5">
-        <v>9000000.0</v>
-      </c>
-      <c r="T52" s="5">
-        <v>10720663.0</v>
-      </c>
-      <c r="U52" s="5">
-        <v>57482260.5</v>
-      </c>
-      <c r="V52" s="16"/>
-      <c r="W52" s="5">
-        <v>557822.605</v>
-      </c>
-      <c r="X52" s="16"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="16"/>
-      <c r="AA52" s="5"/>
-      <c r="AB52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="16"/>
-      <c r="AE52" s="5">
-        <v>-1000373.5932</v>
-      </c>
-      <c r="AF52" s="5">
-        <v>-16227270.2174</v>
-      </c>
-      <c r="AG52" s="16"/>
-      <c r="AH52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AI52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AJ52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AK52" s="5"/>
-      <c r="AL52" s="16"/>
-      <c r="AM52" s="15"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="2"/>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="3"/>
@@ -6151,7 +5439,7 @@
   <dimension ref="A1:AM80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A52" sqref="A52:AM52"/>
+      <selection activeCell="A38" sqref="A38:AM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6178,7 +5466,7 @@
     <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -9319,114 +8607,103 @@
       </c>
     </row>
     <row r="38" spans="1:39">
-      <c r="A38">
+      <c r="A38" s="15">
         <v>2043</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="5">
         <v>48</v>
       </c>
-      <c r="C38" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D38" s="2"/>
+      <c r="C38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="16"/>
       <c r="E38" s="5">
         <v>0.0</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="6">
+      <c r="F38" s="16"/>
+      <c r="G38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="5">
         <v>20182501.0</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="Q38" s="16">
         <v>0.1</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38" s="5">
         <v>20182501.0</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38" s="5">
         <v>3000000.0</v>
       </c>
-      <c r="T38" s="1">
+      <c r="T38" s="5">
         <v>4078480.0</v>
       </c>
-      <c r="U38" s="6">
+      <c r="U38" s="5">
         <v>5045625.25</v>
       </c>
-      <c r="V38" s="2">
+      <c r="V38" s="16">
         <v>0.25</v>
       </c>
-      <c r="W38" s="1">
+      <c r="W38" s="5">
         <v>33456.2525</v>
       </c>
-      <c r="X38" s="2">
+      <c r="X38" s="16">
         <v>0.01</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="Y38" s="5">
         <v>40283.2521</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="Z38" s="16">
         <v>0.003</v>
       </c>
-      <c r="AA38" s="1">
+      <c r="AA38" s="5">
         <v>20182501.0</v>
       </c>
-      <c r="AB38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="1">
+      <c r="AB38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="5">
         <v>-73739.5046</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AF38" s="5">
         <v>-3261768.4388</v>
       </c>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="2"/>
-      <c r="AM38" t="s">
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AI38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AJ38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="16"/>
+      <c r="AM38" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:39">
-      <c r="A39">
-        <v>2044</v>
-      </c>
-      <c r="B39" s="1">
-        <v>49</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G39" s="1"/>
       <c r="H39" s="2"/>
       <c r="I39" s="1"/>
       <c r="J39" s="2"/>
@@ -9435,89 +8712,38 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="6">
-        <v>22200751.0</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R39" s="1">
-        <v>22200751.0</v>
-      </c>
-      <c r="S39" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T39" s="1">
-        <v>4078480.0</v>
-      </c>
-      <c r="U39" s="6">
-        <v>5550187.75</v>
-      </c>
-      <c r="V39" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W39" s="1">
-        <v>38501.8775</v>
-      </c>
-      <c r="X39" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>44521.5771</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>22200751.0</v>
-      </c>
-      <c r="AB39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="1">
-        <v>0</v>
-      </c>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
       <c r="AD39" s="2"/>
-      <c r="AE39" s="1">
-        <v>-83023.4546</v>
-      </c>
-      <c r="AF39" s="1">
-        <v>-3344791.8934</v>
-      </c>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
       <c r="AG39" s="2"/>
-      <c r="AH39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="2"/>
-      <c r="AM39" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="40" spans="1:39">
-      <c r="A40" s="10">
-        <v>2045</v>
-      </c>
-      <c r="B40" s="11">
-        <v>50</v>
-      </c>
-      <c r="C40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="E40" s="11"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="G40" s="11"/>
       <c r="H40" s="12"/>
       <c r="I40" s="11"/>
       <c r="J40" s="12"/>
@@ -9526,89 +8752,38 @@
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="11">
-        <v>24420826.0</v>
-      </c>
-      <c r="Q40" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="R40" s="11">
-        <v>24420826.0</v>
-      </c>
-      <c r="S40" s="11">
-        <v>3000000.0</v>
-      </c>
-      <c r="T40" s="11">
-        <v>4078480.0</v>
-      </c>
-      <c r="U40" s="11">
-        <v>6105206.5</v>
-      </c>
-      <c r="V40" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="W40" s="11">
-        <v>44052.065</v>
-      </c>
-      <c r="X40" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Y40" s="11">
-        <v>49183.7346</v>
-      </c>
-      <c r="Z40" s="12">
-        <v>0.003</v>
-      </c>
-      <c r="AA40" s="11">
-        <v>24420826.0</v>
-      </c>
-      <c r="AB40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="11">
-        <v>0</v>
-      </c>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
       <c r="AD40" s="12"/>
-      <c r="AE40" s="11">
-        <v>-93235.7996</v>
-      </c>
-      <c r="AF40" s="11">
-        <v>-3438027.693</v>
-      </c>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
       <c r="AG40" s="12"/>
-      <c r="AH40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AI40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AJ40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
       <c r="AK40" s="11"/>
       <c r="AL40" s="12"/>
-      <c r="AM40" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="AM40" s="10"/>
     </row>
     <row r="41" spans="1:39">
-      <c r="A41">
-        <v>2046</v>
-      </c>
-      <c r="B41" s="1">
-        <v>51</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
       <c r="J41" s="2"/>
@@ -9617,89 +8792,37 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="6">
-        <v>26862909.0</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R41" s="1">
-        <v>26862909.0</v>
-      </c>
-      <c r="S41" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T41" s="1">
-        <v>4078480.0</v>
-      </c>
-      <c r="U41" s="6">
-        <v>6715727.25</v>
-      </c>
-      <c r="V41" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W41" s="1">
-        <v>50157.2725</v>
-      </c>
-      <c r="X41" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y41" s="1">
-        <v>54312.1089</v>
-      </c>
-      <c r="Z41" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA41" s="1">
-        <v>26862909.0</v>
-      </c>
-      <c r="AB41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>0</v>
-      </c>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
       <c r="AD41" s="2"/>
-      <c r="AE41" s="1">
-        <v>-104469.3814</v>
-      </c>
-      <c r="AF41" s="1">
-        <v>-3542497.0744</v>
-      </c>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
       <c r="AG41" s="2"/>
-      <c r="AH41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
       <c r="AL41" s="2"/>
-      <c r="AM41" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="42" spans="1:39">
-      <c r="A42">
-        <v>2047</v>
-      </c>
-      <c r="B42" s="1">
-        <v>52</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="2"/>
       <c r="I42" s="1"/>
       <c r="J42" s="2"/>
@@ -9708,89 +8831,37 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="6">
-        <v>29549200.0</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R42" s="1">
-        <v>29549200.0</v>
-      </c>
-      <c r="S42" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T42" s="1">
-        <v>4078480.0</v>
-      </c>
-      <c r="U42" s="6">
-        <v>7387300.0</v>
-      </c>
-      <c r="V42" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W42" s="1">
-        <v>56873.0</v>
-      </c>
-      <c r="X42" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y42" s="1">
-        <v>59953.32</v>
-      </c>
-      <c r="Z42" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA42" s="1">
-        <v>29549200.0</v>
-      </c>
-      <c r="AB42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="1">
-        <v>0</v>
-      </c>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
       <c r="AD42" s="2"/>
-      <c r="AE42" s="1">
-        <v>-116826.32</v>
-      </c>
-      <c r="AF42" s="1">
-        <v>-3659323.3944</v>
-      </c>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
       <c r="AG42" s="2"/>
-      <c r="AH42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="2"/>
-      <c r="AM42" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="43" spans="1:39">
-      <c r="A43">
-        <v>2048</v>
-      </c>
-      <c r="B43" s="1">
-        <v>53</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G43" s="1"/>
       <c r="H43" s="2"/>
       <c r="I43" s="1"/>
       <c r="J43" s="2"/>
@@ -9799,89 +8870,37 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="6">
-        <v>32504120.0</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R43" s="1">
-        <v>32504120.0</v>
-      </c>
-      <c r="S43" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T43" s="1">
-        <v>4078480.0</v>
-      </c>
-      <c r="U43" s="6">
-        <v>8126030.0</v>
-      </c>
-      <c r="V43" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W43" s="1">
-        <v>64260.3</v>
-      </c>
-      <c r="X43" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y43" s="1">
-        <v>66158.652</v>
-      </c>
-      <c r="Z43" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>32504120.0</v>
-      </c>
-      <c r="AB43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>0</v>
-      </c>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
       <c r="AD43" s="2"/>
-      <c r="AE43" s="1">
-        <v>-130418.952</v>
-      </c>
-      <c r="AF43" s="1">
-        <v>-3789742.3464</v>
-      </c>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
       <c r="AG43" s="2"/>
-      <c r="AH43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
       <c r="AL43" s="2"/>
-      <c r="AM43" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="44" spans="1:39">
-      <c r="A44">
-        <v>2049</v>
-      </c>
-      <c r="B44" s="1">
-        <v>54</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G44" s="1"/>
       <c r="H44" s="2"/>
       <c r="I44" s="1"/>
       <c r="J44" s="2"/>
@@ -9890,89 +8909,37 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="6">
-        <v>35754532.0</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R44" s="1">
-        <v>35754532.0</v>
-      </c>
-      <c r="S44" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T44" s="1">
-        <v>4078480.0</v>
-      </c>
-      <c r="U44" s="6">
-        <v>8938633.0</v>
-      </c>
-      <c r="V44" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W44" s="1">
-        <v>72386.33</v>
-      </c>
-      <c r="X44" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y44" s="1">
-        <v>72984.5172</v>
-      </c>
-      <c r="Z44" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA44" s="1">
-        <v>35754532.0</v>
-      </c>
-      <c r="AB44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="1">
-        <v>0</v>
-      </c>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
       <c r="AD44" s="2"/>
-      <c r="AE44" s="1">
-        <v>-145370.8472</v>
-      </c>
-      <c r="AF44" s="1">
-        <v>-3935113.1936</v>
-      </c>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
       <c r="AG44" s="2"/>
-      <c r="AH44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="2"/>
-      <c r="AM44" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="45" spans="1:39">
-      <c r="A45">
-        <v>2050</v>
-      </c>
-      <c r="B45" s="1">
-        <v>55</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G45" s="1"/>
       <c r="H45" s="2"/>
       <c r="I45" s="1"/>
       <c r="J45" s="2"/>
@@ -9981,89 +8948,37 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="6">
-        <v>39329985.0</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R45" s="1">
-        <v>39329985.0</v>
-      </c>
-      <c r="S45" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T45" s="1">
-        <v>4078480.0</v>
-      </c>
-      <c r="U45" s="6">
-        <v>9832496.25</v>
-      </c>
-      <c r="V45" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W45" s="1">
-        <v>81324.9625</v>
-      </c>
-      <c r="X45" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y45" s="1">
-        <v>80492.9685</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA45" s="1">
-        <v>39329985.0</v>
-      </c>
-      <c r="AB45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="1">
-        <v>0</v>
-      </c>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
       <c r="AD45" s="2"/>
-      <c r="AE45" s="1">
-        <v>-161817.931</v>
-      </c>
-      <c r="AF45" s="1">
-        <v>-4096931.1246</v>
-      </c>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
       <c r="AG45" s="2"/>
-      <c r="AH45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
       <c r="AL45" s="2"/>
-      <c r="AM45" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="46" spans="1:39">
-      <c r="A46">
-        <v>2051</v>
-      </c>
-      <c r="B46" s="1">
-        <v>56</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G46" s="1"/>
       <c r="H46" s="2"/>
       <c r="I46" s="1"/>
       <c r="J46" s="2"/>
@@ -10072,89 +8987,37 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="6">
-        <v>43262984.0</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R46" s="1">
-        <v>43262984.0</v>
-      </c>
-      <c r="S46" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T46" s="1">
-        <v>4078480.0</v>
-      </c>
-      <c r="U46" s="6">
-        <v>10815746.0</v>
-      </c>
-      <c r="V46" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W46" s="1">
-        <v>91157.46</v>
-      </c>
-      <c r="X46" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y46" s="1">
-        <v>88752.2664</v>
-      </c>
-      <c r="Z46" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA46" s="1">
-        <v>43262984.0</v>
-      </c>
-      <c r="AB46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="1">
-        <v>0</v>
-      </c>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
       <c r="AD46" s="2"/>
-      <c r="AE46" s="1">
-        <v>-179909.7264</v>
-      </c>
-      <c r="AF46" s="1">
-        <v>-4276840.851</v>
-      </c>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
       <c r="AG46" s="2"/>
-      <c r="AH46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="2"/>
-      <c r="AM46" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="47" spans="1:39">
-      <c r="A47">
-        <v>2052</v>
-      </c>
-      <c r="B47" s="1">
-        <v>57</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G47" s="1"/>
       <c r="H47" s="2"/>
       <c r="I47" s="1"/>
       <c r="J47" s="2"/>
@@ -10163,89 +9026,37 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="6">
-        <v>47589282.0</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R47" s="1">
-        <v>47589282.0</v>
-      </c>
-      <c r="S47" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T47" s="1">
-        <v>4078480.0</v>
-      </c>
-      <c r="U47" s="6">
-        <v>11897320.5</v>
-      </c>
-      <c r="V47" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W47" s="1">
-        <v>101973.205</v>
-      </c>
-      <c r="X47" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y47" s="1">
-        <v>97837.4922</v>
-      </c>
-      <c r="Z47" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA47" s="1">
-        <v>47589282.0</v>
-      </c>
-      <c r="AB47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="1">
-        <v>0</v>
-      </c>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
       <c r="AD47" s="2"/>
-      <c r="AE47" s="1">
-        <v>-199810.6972</v>
-      </c>
-      <c r="AF47" s="1">
-        <v>-4476651.5482</v>
-      </c>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
       <c r="AG47" s="2"/>
-      <c r="AH47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="2"/>
-      <c r="AM47" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="48" spans="1:39">
-      <c r="A48">
-        <v>2053</v>
-      </c>
-      <c r="B48" s="1">
-        <v>58</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="2"/>
       <c r="I48" s="1"/>
       <c r="J48" s="2"/>
@@ -10254,89 +9065,37 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="6">
-        <v>52348210.0</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R48" s="1">
-        <v>52348210.0</v>
-      </c>
-      <c r="S48" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T48" s="1">
-        <v>4078480.0</v>
-      </c>
-      <c r="U48" s="6">
-        <v>13087052.5</v>
-      </c>
-      <c r="V48" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W48" s="1">
-        <v>113870.525</v>
-      </c>
-      <c r="X48" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y48" s="1">
-        <v>107831.241</v>
-      </c>
-      <c r="Z48" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA48" s="1">
-        <v>52348210.0</v>
-      </c>
-      <c r="AB48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="1">
-        <v>0</v>
-      </c>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
       <c r="AD48" s="2"/>
-      <c r="AE48" s="1">
-        <v>-221701.766</v>
-      </c>
-      <c r="AF48" s="1">
-        <v>-4698353.3142</v>
-      </c>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
       <c r="AG48" s="2"/>
-      <c r="AH48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="2"/>
-      <c r="AM48" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="49" spans="1:39">
-      <c r="A49">
-        <v>2054</v>
-      </c>
-      <c r="B49" s="1">
-        <v>59</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G49" s="1"/>
       <c r="H49" s="2"/>
       <c r="I49" s="1"/>
       <c r="J49" s="2"/>
@@ -10345,89 +9104,37 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="6">
-        <v>57583031.0</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R49" s="1">
-        <v>57583031.0</v>
-      </c>
-      <c r="S49" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T49" s="1">
-        <v>4078480.0</v>
-      </c>
-      <c r="U49" s="6">
-        <v>14395757.75</v>
-      </c>
-      <c r="V49" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W49" s="1">
-        <v>126957.5775</v>
-      </c>
-      <c r="X49" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y49" s="1">
-        <v>118824.3651</v>
-      </c>
-      <c r="Z49" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA49" s="1">
-        <v>57583031.0</v>
-      </c>
-      <c r="AB49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="1">
-        <v>0</v>
-      </c>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
       <c r="AD49" s="2"/>
-      <c r="AE49" s="1">
-        <v>-245781.9426</v>
-      </c>
-      <c r="AF49" s="1">
-        <v>-4944135.2568</v>
-      </c>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
       <c r="AG49" s="2"/>
-      <c r="AH49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="2"/>
-      <c r="AM49" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="50" spans="1:39">
-      <c r="A50">
-        <v>2055</v>
-      </c>
-      <c r="B50" s="1">
-        <v>60</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G50" s="1"/>
       <c r="H50" s="2"/>
       <c r="I50" s="1"/>
       <c r="J50" s="2"/>
@@ -10436,89 +9143,37 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="6">
-        <v>63341334.0</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R50" s="1">
-        <v>63341334.0</v>
-      </c>
-      <c r="S50" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T50" s="1">
-        <v>4078480.0</v>
-      </c>
-      <c r="U50" s="6">
-        <v>15835333.5</v>
-      </c>
-      <c r="V50" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W50" s="1">
-        <v>141353.335</v>
-      </c>
-      <c r="X50" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y50" s="1">
-        <v>130916.8014</v>
-      </c>
-      <c r="Z50" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA50" s="1">
-        <v>63341334.0</v>
-      </c>
-      <c r="AB50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="1">
-        <v>0</v>
-      </c>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
       <c r="AD50" s="2"/>
-      <c r="AE50" s="1">
-        <v>-272270.1364</v>
-      </c>
-      <c r="AF50" s="1">
-        <v>-5216405.3932</v>
-      </c>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
       <c r="AG50" s="2"/>
-      <c r="AH50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="2"/>
-      <c r="AM50" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="51" spans="1:39">
-      <c r="A51">
-        <v>2056</v>
-      </c>
-      <c r="B51" s="1">
-        <v>61</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G51" s="1"/>
       <c r="H51" s="2"/>
       <c r="I51" s="1"/>
       <c r="J51" s="2"/>
@@ -10527,161 +9182,68 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="6">
-        <v>69675467.0</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R51" s="1">
-        <v>69675467.0</v>
-      </c>
-      <c r="S51" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T51" s="1">
-        <v>4078480.0</v>
-      </c>
-      <c r="U51" s="6">
-        <v>17418866.75</v>
-      </c>
-      <c r="V51" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W51" s="1">
-        <v>157188.6675</v>
-      </c>
-      <c r="X51" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y51" s="1">
-        <v>144218.4807</v>
-      </c>
-      <c r="Z51" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA51" s="1">
-        <v>69675467.0</v>
-      </c>
-      <c r="AB51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="1">
-        <v>0</v>
-      </c>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
       <c r="AD51" s="2"/>
-      <c r="AE51" s="1">
-        <v>-301407.1482</v>
-      </c>
-      <c r="AF51" s="1">
-        <v>-5517812.5414</v>
-      </c>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
       <c r="AG51" s="2"/>
-      <c r="AH51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="2"/>
-      <c r="AM51" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="52" spans="1:39">
-      <c r="A52" s="15">
-        <v>2057</v>
-      </c>
-      <c r="B52" s="5">
-        <v>62</v>
-      </c>
-      <c r="C52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="5">
-        <v>76643014.0</v>
-      </c>
-      <c r="Q52" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="R52" s="5">
-        <v>76643014.0</v>
-      </c>
-      <c r="S52" s="5">
-        <v>3000000.0</v>
-      </c>
-      <c r="T52" s="5">
-        <v>4078480.0</v>
-      </c>
-      <c r="U52" s="5">
-        <v>19160753.5</v>
-      </c>
-      <c r="V52" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="W52" s="5">
-        <v>174607.535</v>
-      </c>
-      <c r="X52" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="Y52" s="5">
-        <v>158850.3294</v>
-      </c>
-      <c r="Z52" s="16">
-        <v>0.003</v>
-      </c>
-      <c r="AA52" s="5">
-        <v>76643014.0</v>
-      </c>
-      <c r="AB52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="16"/>
-      <c r="AE52" s="5">
-        <v>-333457.8644</v>
-      </c>
-      <c r="AF52" s="5">
-        <v>-5851270.4058</v>
-      </c>
-      <c r="AG52" s="16"/>
-      <c r="AH52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AI52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AJ52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AK52" s="5"/>
-      <c r="AL52" s="16"/>
-      <c r="AM52" s="15" t="s">
-        <v>82</v>
-      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="2"/>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="3"/>
@@ -11803,7 +10365,7 @@
   <dimension ref="A1:AM80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A52" sqref="A52:AM52"/>
+      <selection activeCell="A38" sqref="A38:AM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11830,7 +10392,7 @@
     <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -11848,7 +10410,7 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:39">
@@ -11856,7 +10418,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -11880,7 +10442,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -13132,7 +11694,7 @@
         <v>0.95</v>
       </c>
       <c r="AM18" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:39">
@@ -13235,7 +11797,7 @@
       <c r="AK19" s="8"/>
       <c r="AL19" s="9"/>
       <c r="AM19" s="7" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:39">
@@ -13338,7 +11900,7 @@
       <c r="AK20" s="1"/>
       <c r="AL20" s="2"/>
       <c r="AM20" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:39">
@@ -13441,7 +12003,7 @@
       <c r="AK21" s="1"/>
       <c r="AL21" s="2"/>
       <c r="AM21" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:39">
@@ -13544,7 +12106,7 @@
       <c r="AK22" s="1"/>
       <c r="AL22" s="2"/>
       <c r="AM22" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:39">
@@ -13647,7 +12209,7 @@
       <c r="AK23" s="1"/>
       <c r="AL23" s="2"/>
       <c r="AM23" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:39">
@@ -13750,7 +12312,7 @@
       <c r="AK24" s="1"/>
       <c r="AL24" s="2"/>
       <c r="AM24" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:39">
@@ -13853,7 +12415,7 @@
       <c r="AK25" s="1"/>
       <c r="AL25" s="2"/>
       <c r="AM25" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:39">
@@ -13956,7 +12518,7 @@
       <c r="AK26" s="1"/>
       <c r="AL26" s="2"/>
       <c r="AM26" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:39">
@@ -14047,7 +12609,7 @@
       <c r="AK27" s="1"/>
       <c r="AL27" s="2"/>
       <c r="AM27" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:39">
@@ -14961,114 +13523,103 @@
       </c>
     </row>
     <row r="38" spans="1:39">
-      <c r="A38">
+      <c r="A38" s="15">
         <v>2043</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="5">
         <v>48</v>
       </c>
-      <c r="C38" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D38" s="2"/>
+      <c r="C38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="16"/>
       <c r="E38" s="5">
         <v>0.0</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="6">
+      <c r="F38" s="16"/>
+      <c r="G38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="5">
         <v>20182501.0</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="Q38" s="16">
         <v>0.1</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38" s="5">
         <v>20182501.0</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38" s="5">
         <v>3000000.0</v>
       </c>
-      <c r="T38" s="1">
+      <c r="T38" s="5">
         <v>2945121.0</v>
       </c>
-      <c r="U38" s="6">
+      <c r="U38" s="5">
         <v>5045625.25</v>
       </c>
-      <c r="V38" s="2">
+      <c r="V38" s="16">
         <v>0.25</v>
       </c>
-      <c r="W38" s="1">
+      <c r="W38" s="5">
         <v>33456.2525</v>
       </c>
-      <c r="X38" s="2">
+      <c r="X38" s="16">
         <v>0.01</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="Y38" s="5">
         <v>40283.2521</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="Z38" s="16">
         <v>0.003</v>
       </c>
-      <c r="AA38" s="1">
+      <c r="AA38" s="5">
         <v>20182501.0</v>
       </c>
-      <c r="AB38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="1">
+      <c r="AB38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="5">
         <v>-73739.5046</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AF38" s="5">
         <v>-2222527.4388</v>
       </c>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="2"/>
-      <c r="AM38" t="s">
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AI38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AJ38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="16"/>
+      <c r="AM38" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:39">
-      <c r="A39">
-        <v>2044</v>
-      </c>
-      <c r="B39" s="1">
-        <v>49</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G39" s="1"/>
       <c r="H39" s="2"/>
       <c r="I39" s="1"/>
       <c r="J39" s="2"/>
@@ -15077,89 +13628,38 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="6">
-        <v>22200751.0</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R39" s="1">
-        <v>22200751.0</v>
-      </c>
-      <c r="S39" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T39" s="1">
-        <v>2945121.0</v>
-      </c>
-      <c r="U39" s="6">
-        <v>5550187.75</v>
-      </c>
-      <c r="V39" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W39" s="1">
-        <v>38501.8775</v>
-      </c>
-      <c r="X39" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>44521.5771</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>22200751.0</v>
-      </c>
-      <c r="AB39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="1">
-        <v>0</v>
-      </c>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
       <c r="AD39" s="2"/>
-      <c r="AE39" s="1">
-        <v>-83023.4546</v>
-      </c>
-      <c r="AF39" s="1">
-        <v>-2305550.8934</v>
-      </c>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
       <c r="AG39" s="2"/>
-      <c r="AH39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="2"/>
-      <c r="AM39" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="40" spans="1:39">
-      <c r="A40" s="10">
-        <v>2045</v>
-      </c>
-      <c r="B40" s="11">
-        <v>50</v>
-      </c>
-      <c r="C40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="E40" s="11"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="G40" s="11"/>
       <c r="H40" s="12"/>
       <c r="I40" s="11"/>
       <c r="J40" s="12"/>
@@ -15168,89 +13668,38 @@
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="11">
-        <v>24420826.0</v>
-      </c>
-      <c r="Q40" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="R40" s="11">
-        <v>24420826.0</v>
-      </c>
-      <c r="S40" s="11">
-        <v>3000000.0</v>
-      </c>
-      <c r="T40" s="11">
-        <v>2945121.0</v>
-      </c>
-      <c r="U40" s="11">
-        <v>6105206.5</v>
-      </c>
-      <c r="V40" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="W40" s="11">
-        <v>44052.065</v>
-      </c>
-      <c r="X40" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Y40" s="11">
-        <v>49183.7346</v>
-      </c>
-      <c r="Z40" s="12">
-        <v>0.003</v>
-      </c>
-      <c r="AA40" s="11">
-        <v>24420826.0</v>
-      </c>
-      <c r="AB40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="11">
-        <v>0</v>
-      </c>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
       <c r="AD40" s="12"/>
-      <c r="AE40" s="11">
-        <v>-93235.7996</v>
-      </c>
-      <c r="AF40" s="11">
-        <v>-2398786.693</v>
-      </c>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
       <c r="AG40" s="12"/>
-      <c r="AH40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AI40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AJ40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
       <c r="AK40" s="11"/>
       <c r="AL40" s="12"/>
-      <c r="AM40" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="AM40" s="10"/>
     </row>
     <row r="41" spans="1:39">
-      <c r="A41">
-        <v>2046</v>
-      </c>
-      <c r="B41" s="1">
-        <v>51</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
       <c r="J41" s="2"/>
@@ -15259,89 +13708,37 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="6">
-        <v>26862909.0</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R41" s="1">
-        <v>26862909.0</v>
-      </c>
-      <c r="S41" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T41" s="1">
-        <v>2945121.0</v>
-      </c>
-      <c r="U41" s="6">
-        <v>6715727.25</v>
-      </c>
-      <c r="V41" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W41" s="1">
-        <v>50157.2725</v>
-      </c>
-      <c r="X41" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y41" s="1">
-        <v>54312.1089</v>
-      </c>
-      <c r="Z41" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA41" s="1">
-        <v>26862909.0</v>
-      </c>
-      <c r="AB41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>0</v>
-      </c>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
       <c r="AD41" s="2"/>
-      <c r="AE41" s="1">
-        <v>-104469.3814</v>
-      </c>
-      <c r="AF41" s="1">
-        <v>-2503256.0744</v>
-      </c>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
       <c r="AG41" s="2"/>
-      <c r="AH41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
       <c r="AL41" s="2"/>
-      <c r="AM41" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="42" spans="1:39">
-      <c r="A42">
-        <v>2047</v>
-      </c>
-      <c r="B42" s="1">
-        <v>52</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="2"/>
       <c r="I42" s="1"/>
       <c r="J42" s="2"/>
@@ -15350,89 +13747,37 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="6">
-        <v>29549200.0</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R42" s="1">
-        <v>29549200.0</v>
-      </c>
-      <c r="S42" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T42" s="1">
-        <v>2945121.0</v>
-      </c>
-      <c r="U42" s="6">
-        <v>7387300.0</v>
-      </c>
-      <c r="V42" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W42" s="1">
-        <v>56873.0</v>
-      </c>
-      <c r="X42" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y42" s="1">
-        <v>59953.32</v>
-      </c>
-      <c r="Z42" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA42" s="1">
-        <v>29549200.0</v>
-      </c>
-      <c r="AB42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="1">
-        <v>0</v>
-      </c>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
       <c r="AD42" s="2"/>
-      <c r="AE42" s="1">
-        <v>-116826.32</v>
-      </c>
-      <c r="AF42" s="1">
-        <v>-2620082.3944</v>
-      </c>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
       <c r="AG42" s="2"/>
-      <c r="AH42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="2"/>
-      <c r="AM42" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="43" spans="1:39">
-      <c r="A43">
-        <v>2048</v>
-      </c>
-      <c r="B43" s="1">
-        <v>53</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G43" s="1"/>
       <c r="H43" s="2"/>
       <c r="I43" s="1"/>
       <c r="J43" s="2"/>
@@ -15441,89 +13786,37 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="6">
-        <v>32504120.0</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R43" s="1">
-        <v>32504120.0</v>
-      </c>
-      <c r="S43" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T43" s="1">
-        <v>2945121.0</v>
-      </c>
-      <c r="U43" s="6">
-        <v>8126030.0</v>
-      </c>
-      <c r="V43" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W43" s="1">
-        <v>64260.3</v>
-      </c>
-      <c r="X43" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y43" s="1">
-        <v>66158.652</v>
-      </c>
-      <c r="Z43" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>32504120.0</v>
-      </c>
-      <c r="AB43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>0</v>
-      </c>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
       <c r="AD43" s="2"/>
-      <c r="AE43" s="1">
-        <v>-130418.952</v>
-      </c>
-      <c r="AF43" s="1">
-        <v>-2750501.3464</v>
-      </c>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
       <c r="AG43" s="2"/>
-      <c r="AH43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
       <c r="AL43" s="2"/>
-      <c r="AM43" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="44" spans="1:39">
-      <c r="A44">
-        <v>2049</v>
-      </c>
-      <c r="B44" s="1">
-        <v>54</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G44" s="1"/>
       <c r="H44" s="2"/>
       <c r="I44" s="1"/>
       <c r="J44" s="2"/>
@@ -15532,89 +13825,37 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="6">
-        <v>35754532.0</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R44" s="1">
-        <v>35754532.0</v>
-      </c>
-      <c r="S44" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T44" s="1">
-        <v>2945121.0</v>
-      </c>
-      <c r="U44" s="6">
-        <v>8938633.0</v>
-      </c>
-      <c r="V44" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W44" s="1">
-        <v>72386.33</v>
-      </c>
-      <c r="X44" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y44" s="1">
-        <v>72984.5172</v>
-      </c>
-      <c r="Z44" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA44" s="1">
-        <v>35754532.0</v>
-      </c>
-      <c r="AB44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="1">
-        <v>0</v>
-      </c>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
       <c r="AD44" s="2"/>
-      <c r="AE44" s="1">
-        <v>-145370.8472</v>
-      </c>
-      <c r="AF44" s="1">
-        <v>-2895872.1936</v>
-      </c>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
       <c r="AG44" s="2"/>
-      <c r="AH44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="2"/>
-      <c r="AM44" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="45" spans="1:39">
-      <c r="A45">
-        <v>2050</v>
-      </c>
-      <c r="B45" s="1">
-        <v>55</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G45" s="1"/>
       <c r="H45" s="2"/>
       <c r="I45" s="1"/>
       <c r="J45" s="2"/>
@@ -15623,89 +13864,37 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="6">
-        <v>39329985.0</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R45" s="1">
-        <v>39329985.0</v>
-      </c>
-      <c r="S45" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T45" s="1">
-        <v>2945121.0</v>
-      </c>
-      <c r="U45" s="6">
-        <v>9832496.25</v>
-      </c>
-      <c r="V45" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W45" s="1">
-        <v>81324.9625</v>
-      </c>
-      <c r="X45" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y45" s="1">
-        <v>80492.9685</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA45" s="1">
-        <v>39329985.0</v>
-      </c>
-      <c r="AB45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="1">
-        <v>0</v>
-      </c>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
       <c r="AD45" s="2"/>
-      <c r="AE45" s="1">
-        <v>-161817.931</v>
-      </c>
-      <c r="AF45" s="1">
-        <v>-3057690.1246</v>
-      </c>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
       <c r="AG45" s="2"/>
-      <c r="AH45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
       <c r="AL45" s="2"/>
-      <c r="AM45" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="46" spans="1:39">
-      <c r="A46">
-        <v>2051</v>
-      </c>
-      <c r="B46" s="1">
-        <v>56</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G46" s="1"/>
       <c r="H46" s="2"/>
       <c r="I46" s="1"/>
       <c r="J46" s="2"/>
@@ -15714,89 +13903,37 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="6">
-        <v>43262984.0</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R46" s="1">
-        <v>43262984.0</v>
-      </c>
-      <c r="S46" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T46" s="1">
-        <v>2945121.0</v>
-      </c>
-      <c r="U46" s="6">
-        <v>10815746.0</v>
-      </c>
-      <c r="V46" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W46" s="1">
-        <v>91157.46</v>
-      </c>
-      <c r="X46" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y46" s="1">
-        <v>88752.2664</v>
-      </c>
-      <c r="Z46" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA46" s="1">
-        <v>43262984.0</v>
-      </c>
-      <c r="AB46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="1">
-        <v>0</v>
-      </c>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
       <c r="AD46" s="2"/>
-      <c r="AE46" s="1">
-        <v>-179909.7264</v>
-      </c>
-      <c r="AF46" s="1">
-        <v>-3237599.851</v>
-      </c>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
       <c r="AG46" s="2"/>
-      <c r="AH46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="2"/>
-      <c r="AM46" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="47" spans="1:39">
-      <c r="A47">
-        <v>2052</v>
-      </c>
-      <c r="B47" s="1">
-        <v>57</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G47" s="1"/>
       <c r="H47" s="2"/>
       <c r="I47" s="1"/>
       <c r="J47" s="2"/>
@@ -15805,89 +13942,37 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="6">
-        <v>47589282.0</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R47" s="1">
-        <v>47589282.0</v>
-      </c>
-      <c r="S47" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T47" s="1">
-        <v>2945121.0</v>
-      </c>
-      <c r="U47" s="6">
-        <v>11897320.5</v>
-      </c>
-      <c r="V47" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W47" s="1">
-        <v>101973.205</v>
-      </c>
-      <c r="X47" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y47" s="1">
-        <v>97837.4922</v>
-      </c>
-      <c r="Z47" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA47" s="1">
-        <v>47589282.0</v>
-      </c>
-      <c r="AB47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="1">
-        <v>0</v>
-      </c>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
       <c r="AD47" s="2"/>
-      <c r="AE47" s="1">
-        <v>-199810.6972</v>
-      </c>
-      <c r="AF47" s="1">
-        <v>-3437410.5482</v>
-      </c>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
       <c r="AG47" s="2"/>
-      <c r="AH47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="2"/>
-      <c r="AM47" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="48" spans="1:39">
-      <c r="A48">
-        <v>2053</v>
-      </c>
-      <c r="B48" s="1">
-        <v>58</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="2"/>
       <c r="I48" s="1"/>
       <c r="J48" s="2"/>
@@ -15896,89 +13981,37 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="6">
-        <v>52348210.0</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R48" s="1">
-        <v>52348210.0</v>
-      </c>
-      <c r="S48" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T48" s="1">
-        <v>2945121.0</v>
-      </c>
-      <c r="U48" s="6">
-        <v>13087052.5</v>
-      </c>
-      <c r="V48" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W48" s="1">
-        <v>113870.525</v>
-      </c>
-      <c r="X48" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y48" s="1">
-        <v>107831.241</v>
-      </c>
-      <c r="Z48" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA48" s="1">
-        <v>52348210.0</v>
-      </c>
-      <c r="AB48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="1">
-        <v>0</v>
-      </c>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
       <c r="AD48" s="2"/>
-      <c r="AE48" s="1">
-        <v>-221701.766</v>
-      </c>
-      <c r="AF48" s="1">
-        <v>-3659112.3142</v>
-      </c>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
       <c r="AG48" s="2"/>
-      <c r="AH48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="2"/>
-      <c r="AM48" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="49" spans="1:39">
-      <c r="A49">
-        <v>2054</v>
-      </c>
-      <c r="B49" s="1">
-        <v>59</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G49" s="1"/>
       <c r="H49" s="2"/>
       <c r="I49" s="1"/>
       <c r="J49" s="2"/>
@@ -15987,89 +14020,37 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="6">
-        <v>57583031.0</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R49" s="1">
-        <v>57583031.0</v>
-      </c>
-      <c r="S49" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T49" s="1">
-        <v>2945121.0</v>
-      </c>
-      <c r="U49" s="6">
-        <v>14395757.75</v>
-      </c>
-      <c r="V49" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W49" s="1">
-        <v>126957.5775</v>
-      </c>
-      <c r="X49" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y49" s="1">
-        <v>118824.3651</v>
-      </c>
-      <c r="Z49" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA49" s="1">
-        <v>57583031.0</v>
-      </c>
-      <c r="AB49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="1">
-        <v>0</v>
-      </c>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
       <c r="AD49" s="2"/>
-      <c r="AE49" s="1">
-        <v>-245781.9426</v>
-      </c>
-      <c r="AF49" s="1">
-        <v>-3904894.2568</v>
-      </c>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
       <c r="AG49" s="2"/>
-      <c r="AH49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="2"/>
-      <c r="AM49" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="50" spans="1:39">
-      <c r="A50">
-        <v>2055</v>
-      </c>
-      <c r="B50" s="1">
-        <v>60</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G50" s="1"/>
       <c r="H50" s="2"/>
       <c r="I50" s="1"/>
       <c r="J50" s="2"/>
@@ -16078,89 +14059,37 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="6">
-        <v>63341334.0</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R50" s="1">
-        <v>63341334.0</v>
-      </c>
-      <c r="S50" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T50" s="1">
-        <v>2945121.0</v>
-      </c>
-      <c r="U50" s="6">
-        <v>15835333.5</v>
-      </c>
-      <c r="V50" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W50" s="1">
-        <v>141353.335</v>
-      </c>
-      <c r="X50" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y50" s="1">
-        <v>130916.8014</v>
-      </c>
-      <c r="Z50" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA50" s="1">
-        <v>63341334.0</v>
-      </c>
-      <c r="AB50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="1">
-        <v>0</v>
-      </c>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
       <c r="AD50" s="2"/>
-      <c r="AE50" s="1">
-        <v>-272270.1364</v>
-      </c>
-      <c r="AF50" s="1">
-        <v>-4177164.3932</v>
-      </c>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
       <c r="AG50" s="2"/>
-      <c r="AH50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="2"/>
-      <c r="AM50" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="51" spans="1:39">
-      <c r="A51">
-        <v>2056</v>
-      </c>
-      <c r="B51" s="1">
-        <v>61</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G51" s="1"/>
       <c r="H51" s="2"/>
       <c r="I51" s="1"/>
       <c r="J51" s="2"/>
@@ -16169,161 +14098,68 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="6">
-        <v>69675467.0</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R51" s="1">
-        <v>69675467.0</v>
-      </c>
-      <c r="S51" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T51" s="1">
-        <v>2945121.0</v>
-      </c>
-      <c r="U51" s="6">
-        <v>17418866.75</v>
-      </c>
-      <c r="V51" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W51" s="1">
-        <v>157188.6675</v>
-      </c>
-      <c r="X51" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y51" s="1">
-        <v>144218.4807</v>
-      </c>
-      <c r="Z51" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA51" s="1">
-        <v>69675467.0</v>
-      </c>
-      <c r="AB51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="1">
-        <v>0</v>
-      </c>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
       <c r="AD51" s="2"/>
-      <c r="AE51" s="1">
-        <v>-301407.1482</v>
-      </c>
-      <c r="AF51" s="1">
-        <v>-4478571.5414</v>
-      </c>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
       <c r="AG51" s="2"/>
-      <c r="AH51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="2"/>
-      <c r="AM51" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="52" spans="1:39">
-      <c r="A52" s="15">
-        <v>2057</v>
-      </c>
-      <c r="B52" s="5">
-        <v>62</v>
-      </c>
-      <c r="C52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="5">
-        <v>76643014.0</v>
-      </c>
-      <c r="Q52" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="R52" s="5">
-        <v>76643014.0</v>
-      </c>
-      <c r="S52" s="5">
-        <v>3000000.0</v>
-      </c>
-      <c r="T52" s="5">
-        <v>2945121.0</v>
-      </c>
-      <c r="U52" s="5">
-        <v>19160753.5</v>
-      </c>
-      <c r="V52" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="W52" s="5">
-        <v>174607.535</v>
-      </c>
-      <c r="X52" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="Y52" s="5">
-        <v>158850.3294</v>
-      </c>
-      <c r="Z52" s="16">
-        <v>0.003</v>
-      </c>
-      <c r="AA52" s="5">
-        <v>76643014.0</v>
-      </c>
-      <c r="AB52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="16"/>
-      <c r="AE52" s="5">
-        <v>-333457.8644</v>
-      </c>
-      <c r="AF52" s="5">
-        <v>-4812029.4058</v>
-      </c>
-      <c r="AG52" s="16"/>
-      <c r="AH52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AI52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AJ52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AK52" s="5"/>
-      <c r="AL52" s="16"/>
-      <c r="AM52" s="15" t="s">
-        <v>82</v>
-      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="2"/>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="3"/>
@@ -17445,7 +15281,7 @@
   <dimension ref="A1:AM80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A52" sqref="A52:AM52"/>
+      <selection activeCell="A38" sqref="A38:AM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17472,7 +15308,7 @@
     <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -17490,7 +15326,7 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:39">
@@ -17498,7 +15334,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -17522,7 +15358,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -20613,114 +18449,103 @@
       </c>
     </row>
     <row r="38" spans="1:39">
-      <c r="A38">
+      <c r="A38" s="15">
         <v>2043</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="5">
         <v>48</v>
       </c>
-      <c r="C38" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D38" s="2"/>
+      <c r="C38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="16"/>
       <c r="E38" s="5">
         <v>0.0</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="6">
+      <c r="F38" s="16"/>
+      <c r="G38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="5">
         <v>20182501.0</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="Q38" s="16">
         <v>0.1</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38" s="5">
         <v>20182501.0</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38" s="5">
         <v>3000000.0</v>
       </c>
-      <c r="T38" s="1">
+      <c r="T38" s="5">
         <v>3697062.0</v>
       </c>
-      <c r="U38" s="6">
+      <c r="U38" s="5">
         <v>5045625.25</v>
       </c>
-      <c r="V38" s="2">
+      <c r="V38" s="16">
         <v>0.25</v>
       </c>
-      <c r="W38" s="1">
+      <c r="W38" s="5">
         <v>33456.2525</v>
       </c>
-      <c r="X38" s="2">
+      <c r="X38" s="16">
         <v>0.01</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="Y38" s="5">
         <v>40283.2521</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="Z38" s="16">
         <v>0.003</v>
       </c>
-      <c r="AA38" s="1">
+      <c r="AA38" s="5">
         <v>20182501.0</v>
       </c>
-      <c r="AB38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="1">
+      <c r="AB38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="5">
         <v>-73739.5046</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AF38" s="5">
         <v>-2974468.4388</v>
       </c>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="2"/>
-      <c r="AM38" t="s">
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AI38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AJ38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="16"/>
+      <c r="AM38" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:39">
-      <c r="A39">
-        <v>2044</v>
-      </c>
-      <c r="B39" s="1">
-        <v>49</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G39" s="1"/>
       <c r="H39" s="2"/>
       <c r="I39" s="1"/>
       <c r="J39" s="2"/>
@@ -20729,89 +18554,38 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="6">
-        <v>22200751.0</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R39" s="1">
-        <v>22200751.0</v>
-      </c>
-      <c r="S39" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T39" s="1">
-        <v>3697062.0</v>
-      </c>
-      <c r="U39" s="6">
-        <v>5550187.75</v>
-      </c>
-      <c r="V39" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W39" s="1">
-        <v>38501.8775</v>
-      </c>
-      <c r="X39" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>44521.5771</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>22200751.0</v>
-      </c>
-      <c r="AB39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="1">
-        <v>0</v>
-      </c>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
       <c r="AD39" s="2"/>
-      <c r="AE39" s="1">
-        <v>-83023.4546</v>
-      </c>
-      <c r="AF39" s="1">
-        <v>-3057491.8934</v>
-      </c>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
       <c r="AG39" s="2"/>
-      <c r="AH39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="2"/>
-      <c r="AM39" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="40" spans="1:39">
-      <c r="A40" s="10">
-        <v>2045</v>
-      </c>
-      <c r="B40" s="11">
-        <v>50</v>
-      </c>
-      <c r="C40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="E40" s="11"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="G40" s="11"/>
       <c r="H40" s="12"/>
       <c r="I40" s="11"/>
       <c r="J40" s="12"/>
@@ -20820,89 +18594,38 @@
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="11">
-        <v>24420826.0</v>
-      </c>
-      <c r="Q40" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="R40" s="11">
-        <v>24420826.0</v>
-      </c>
-      <c r="S40" s="11">
-        <v>3000000.0</v>
-      </c>
-      <c r="T40" s="11">
-        <v>3697062.0</v>
-      </c>
-      <c r="U40" s="11">
-        <v>6105206.5</v>
-      </c>
-      <c r="V40" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="W40" s="11">
-        <v>44052.065</v>
-      </c>
-      <c r="X40" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Y40" s="11">
-        <v>49183.7346</v>
-      </c>
-      <c r="Z40" s="12">
-        <v>0.003</v>
-      </c>
-      <c r="AA40" s="11">
-        <v>24420826.0</v>
-      </c>
-      <c r="AB40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="11">
-        <v>0</v>
-      </c>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
       <c r="AD40" s="12"/>
-      <c r="AE40" s="11">
-        <v>-93235.7996</v>
-      </c>
-      <c r="AF40" s="11">
-        <v>-3150727.693</v>
-      </c>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
       <c r="AG40" s="12"/>
-      <c r="AH40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AI40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AJ40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
       <c r="AK40" s="11"/>
       <c r="AL40" s="12"/>
-      <c r="AM40" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="AM40" s="10"/>
     </row>
     <row r="41" spans="1:39">
-      <c r="A41">
-        <v>2046</v>
-      </c>
-      <c r="B41" s="1">
-        <v>51</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
       <c r="J41" s="2"/>
@@ -20911,89 +18634,37 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="6">
-        <v>26862909.0</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R41" s="1">
-        <v>26862909.0</v>
-      </c>
-      <c r="S41" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T41" s="1">
-        <v>3697062.0</v>
-      </c>
-      <c r="U41" s="6">
-        <v>6715727.25</v>
-      </c>
-      <c r="V41" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W41" s="1">
-        <v>50157.2725</v>
-      </c>
-      <c r="X41" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y41" s="1">
-        <v>54312.1089</v>
-      </c>
-      <c r="Z41" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA41" s="1">
-        <v>26862909.0</v>
-      </c>
-      <c r="AB41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>0</v>
-      </c>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
       <c r="AD41" s="2"/>
-      <c r="AE41" s="1">
-        <v>-104469.3814</v>
-      </c>
-      <c r="AF41" s="1">
-        <v>-3255197.0744</v>
-      </c>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
       <c r="AG41" s="2"/>
-      <c r="AH41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
       <c r="AL41" s="2"/>
-      <c r="AM41" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="42" spans="1:39">
-      <c r="A42">
-        <v>2047</v>
-      </c>
-      <c r="B42" s="1">
-        <v>52</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="2"/>
       <c r="I42" s="1"/>
       <c r="J42" s="2"/>
@@ -21002,89 +18673,37 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="6">
-        <v>29549200.0</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R42" s="1">
-        <v>29549200.0</v>
-      </c>
-      <c r="S42" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T42" s="1">
-        <v>3697062.0</v>
-      </c>
-      <c r="U42" s="6">
-        <v>7387300.0</v>
-      </c>
-      <c r="V42" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W42" s="1">
-        <v>56873.0</v>
-      </c>
-      <c r="X42" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y42" s="1">
-        <v>59953.32</v>
-      </c>
-      <c r="Z42" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA42" s="1">
-        <v>29549200.0</v>
-      </c>
-      <c r="AB42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="1">
-        <v>0</v>
-      </c>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
       <c r="AD42" s="2"/>
-      <c r="AE42" s="1">
-        <v>-116826.32</v>
-      </c>
-      <c r="AF42" s="1">
-        <v>-3372023.3944</v>
-      </c>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
       <c r="AG42" s="2"/>
-      <c r="AH42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="2"/>
-      <c r="AM42" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="43" spans="1:39">
-      <c r="A43">
-        <v>2048</v>
-      </c>
-      <c r="B43" s="1">
-        <v>53</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G43" s="1"/>
       <c r="H43" s="2"/>
       <c r="I43" s="1"/>
       <c r="J43" s="2"/>
@@ -21093,89 +18712,37 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="6">
-        <v>32504120.0</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R43" s="1">
-        <v>32504120.0</v>
-      </c>
-      <c r="S43" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T43" s="1">
-        <v>3697062.0</v>
-      </c>
-      <c r="U43" s="6">
-        <v>8126030.0</v>
-      </c>
-      <c r="V43" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W43" s="1">
-        <v>64260.3</v>
-      </c>
-      <c r="X43" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y43" s="1">
-        <v>66158.652</v>
-      </c>
-      <c r="Z43" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>32504120.0</v>
-      </c>
-      <c r="AB43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>0</v>
-      </c>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
       <c r="AD43" s="2"/>
-      <c r="AE43" s="1">
-        <v>-130418.952</v>
-      </c>
-      <c r="AF43" s="1">
-        <v>-3502442.3464</v>
-      </c>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
       <c r="AG43" s="2"/>
-      <c r="AH43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
       <c r="AL43" s="2"/>
-      <c r="AM43" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="44" spans="1:39">
-      <c r="A44">
-        <v>2049</v>
-      </c>
-      <c r="B44" s="1">
-        <v>54</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G44" s="1"/>
       <c r="H44" s="2"/>
       <c r="I44" s="1"/>
       <c r="J44" s="2"/>
@@ -21184,89 +18751,37 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="6">
-        <v>35754532.0</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R44" s="1">
-        <v>35754532.0</v>
-      </c>
-      <c r="S44" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T44" s="1">
-        <v>3697062.0</v>
-      </c>
-      <c r="U44" s="6">
-        <v>8938633.0</v>
-      </c>
-      <c r="V44" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W44" s="1">
-        <v>72386.33</v>
-      </c>
-      <c r="X44" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y44" s="1">
-        <v>72984.5172</v>
-      </c>
-      <c r="Z44" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA44" s="1">
-        <v>35754532.0</v>
-      </c>
-      <c r="AB44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="1">
-        <v>0</v>
-      </c>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
       <c r="AD44" s="2"/>
-      <c r="AE44" s="1">
-        <v>-145370.8472</v>
-      </c>
-      <c r="AF44" s="1">
-        <v>-3647813.1936</v>
-      </c>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
       <c r="AG44" s="2"/>
-      <c r="AH44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="2"/>
-      <c r="AM44" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="45" spans="1:39">
-      <c r="A45">
-        <v>2050</v>
-      </c>
-      <c r="B45" s="1">
-        <v>55</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G45" s="1"/>
       <c r="H45" s="2"/>
       <c r="I45" s="1"/>
       <c r="J45" s="2"/>
@@ -21275,89 +18790,37 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="6">
-        <v>39329985.0</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R45" s="1">
-        <v>39329985.0</v>
-      </c>
-      <c r="S45" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T45" s="1">
-        <v>3697062.0</v>
-      </c>
-      <c r="U45" s="6">
-        <v>9832496.25</v>
-      </c>
-      <c r="V45" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W45" s="1">
-        <v>81324.9625</v>
-      </c>
-      <c r="X45" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y45" s="1">
-        <v>80492.9685</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA45" s="1">
-        <v>39329985.0</v>
-      </c>
-      <c r="AB45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="1">
-        <v>0</v>
-      </c>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
       <c r="AD45" s="2"/>
-      <c r="AE45" s="1">
-        <v>-161817.931</v>
-      </c>
-      <c r="AF45" s="1">
-        <v>-3809631.1246</v>
-      </c>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
       <c r="AG45" s="2"/>
-      <c r="AH45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
       <c r="AL45" s="2"/>
-      <c r="AM45" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="46" spans="1:39">
-      <c r="A46">
-        <v>2051</v>
-      </c>
-      <c r="B46" s="1">
-        <v>56</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G46" s="1"/>
       <c r="H46" s="2"/>
       <c r="I46" s="1"/>
       <c r="J46" s="2"/>
@@ -21366,89 +18829,37 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="6">
-        <v>43262984.0</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R46" s="1">
-        <v>43262984.0</v>
-      </c>
-      <c r="S46" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T46" s="1">
-        <v>3697062.0</v>
-      </c>
-      <c r="U46" s="6">
-        <v>10815746.0</v>
-      </c>
-      <c r="V46" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W46" s="1">
-        <v>91157.46</v>
-      </c>
-      <c r="X46" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y46" s="1">
-        <v>88752.2664</v>
-      </c>
-      <c r="Z46" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA46" s="1">
-        <v>43262984.0</v>
-      </c>
-      <c r="AB46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="1">
-        <v>0</v>
-      </c>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
       <c r="AD46" s="2"/>
-      <c r="AE46" s="1">
-        <v>-179909.7264</v>
-      </c>
-      <c r="AF46" s="1">
-        <v>-3989540.851</v>
-      </c>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
       <c r="AG46" s="2"/>
-      <c r="AH46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="2"/>
-      <c r="AM46" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="47" spans="1:39">
-      <c r="A47">
-        <v>2052</v>
-      </c>
-      <c r="B47" s="1">
-        <v>57</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G47" s="1"/>
       <c r="H47" s="2"/>
       <c r="I47" s="1"/>
       <c r="J47" s="2"/>
@@ -21457,89 +18868,37 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="6">
-        <v>47589282.0</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R47" s="1">
-        <v>47589282.0</v>
-      </c>
-      <c r="S47" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T47" s="1">
-        <v>3697062.0</v>
-      </c>
-      <c r="U47" s="6">
-        <v>11897320.5</v>
-      </c>
-      <c r="V47" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W47" s="1">
-        <v>101973.205</v>
-      </c>
-      <c r="X47" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y47" s="1">
-        <v>97837.4922</v>
-      </c>
-      <c r="Z47" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA47" s="1">
-        <v>47589282.0</v>
-      </c>
-      <c r="AB47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="1">
-        <v>0</v>
-      </c>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
       <c r="AD47" s="2"/>
-      <c r="AE47" s="1">
-        <v>-199810.6972</v>
-      </c>
-      <c r="AF47" s="1">
-        <v>-4189351.5482</v>
-      </c>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
       <c r="AG47" s="2"/>
-      <c r="AH47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="2"/>
-      <c r="AM47" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="48" spans="1:39">
-      <c r="A48">
-        <v>2053</v>
-      </c>
-      <c r="B48" s="1">
-        <v>58</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="2"/>
       <c r="I48" s="1"/>
       <c r="J48" s="2"/>
@@ -21548,89 +18907,37 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="6">
-        <v>52348210.0</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R48" s="1">
-        <v>52348210.0</v>
-      </c>
-      <c r="S48" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T48" s="1">
-        <v>3697062.0</v>
-      </c>
-      <c r="U48" s="6">
-        <v>13087052.5</v>
-      </c>
-      <c r="V48" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W48" s="1">
-        <v>113870.525</v>
-      </c>
-      <c r="X48" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y48" s="1">
-        <v>107831.241</v>
-      </c>
-      <c r="Z48" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA48" s="1">
-        <v>52348210.0</v>
-      </c>
-      <c r="AB48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="1">
-        <v>0</v>
-      </c>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
       <c r="AD48" s="2"/>
-      <c r="AE48" s="1">
-        <v>-221701.766</v>
-      </c>
-      <c r="AF48" s="1">
-        <v>-4411053.3142</v>
-      </c>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
       <c r="AG48" s="2"/>
-      <c r="AH48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="2"/>
-      <c r="AM48" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="49" spans="1:39">
-      <c r="A49">
-        <v>2054</v>
-      </c>
-      <c r="B49" s="1">
-        <v>59</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G49" s="1"/>
       <c r="H49" s="2"/>
       <c r="I49" s="1"/>
       <c r="J49" s="2"/>
@@ -21639,89 +18946,37 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="6">
-        <v>57583031.0</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R49" s="1">
-        <v>57583031.0</v>
-      </c>
-      <c r="S49" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T49" s="1">
-        <v>3697062.0</v>
-      </c>
-      <c r="U49" s="6">
-        <v>14395757.75</v>
-      </c>
-      <c r="V49" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W49" s="1">
-        <v>126957.5775</v>
-      </c>
-      <c r="X49" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y49" s="1">
-        <v>118824.3651</v>
-      </c>
-      <c r="Z49" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA49" s="1">
-        <v>57583031.0</v>
-      </c>
-      <c r="AB49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="1">
-        <v>0</v>
-      </c>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
       <c r="AD49" s="2"/>
-      <c r="AE49" s="1">
-        <v>-245781.9426</v>
-      </c>
-      <c r="AF49" s="1">
-        <v>-4656835.2568</v>
-      </c>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
       <c r="AG49" s="2"/>
-      <c r="AH49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="2"/>
-      <c r="AM49" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="50" spans="1:39">
-      <c r="A50">
-        <v>2055</v>
-      </c>
-      <c r="B50" s="1">
-        <v>60</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G50" s="1"/>
       <c r="H50" s="2"/>
       <c r="I50" s="1"/>
       <c r="J50" s="2"/>
@@ -21730,89 +18985,37 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="6">
-        <v>63341334.0</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R50" s="1">
-        <v>63341334.0</v>
-      </c>
-      <c r="S50" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T50" s="1">
-        <v>3697062.0</v>
-      </c>
-      <c r="U50" s="6">
-        <v>15835333.5</v>
-      </c>
-      <c r="V50" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W50" s="1">
-        <v>141353.335</v>
-      </c>
-      <c r="X50" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y50" s="1">
-        <v>130916.8014</v>
-      </c>
-      <c r="Z50" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA50" s="1">
-        <v>63341334.0</v>
-      </c>
-      <c r="AB50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="1">
-        <v>0</v>
-      </c>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
       <c r="AD50" s="2"/>
-      <c r="AE50" s="1">
-        <v>-272270.1364</v>
-      </c>
-      <c r="AF50" s="1">
-        <v>-4929105.3932</v>
-      </c>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
       <c r="AG50" s="2"/>
-      <c r="AH50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="2"/>
-      <c r="AM50" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="51" spans="1:39">
-      <c r="A51">
-        <v>2056</v>
-      </c>
-      <c r="B51" s="1">
-        <v>61</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G51" s="1"/>
       <c r="H51" s="2"/>
       <c r="I51" s="1"/>
       <c r="J51" s="2"/>
@@ -21821,161 +19024,68 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="6">
-        <v>69675467.0</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R51" s="1">
-        <v>69675467.0</v>
-      </c>
-      <c r="S51" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T51" s="1">
-        <v>3697062.0</v>
-      </c>
-      <c r="U51" s="6">
-        <v>17418866.75</v>
-      </c>
-      <c r="V51" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W51" s="1">
-        <v>157188.6675</v>
-      </c>
-      <c r="X51" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y51" s="1">
-        <v>144218.4807</v>
-      </c>
-      <c r="Z51" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA51" s="1">
-        <v>69675467.0</v>
-      </c>
-      <c r="AB51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="1">
-        <v>0</v>
-      </c>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
       <c r="AD51" s="2"/>
-      <c r="AE51" s="1">
-        <v>-301407.1482</v>
-      </c>
-      <c r="AF51" s="1">
-        <v>-5230512.5414</v>
-      </c>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
       <c r="AG51" s="2"/>
-      <c r="AH51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="2"/>
-      <c r="AM51" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="52" spans="1:39">
-      <c r="A52" s="15">
-        <v>2057</v>
-      </c>
-      <c r="B52" s="5">
-        <v>62</v>
-      </c>
-      <c r="C52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="5">
-        <v>76643014.0</v>
-      </c>
-      <c r="Q52" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="R52" s="5">
-        <v>76643014.0</v>
-      </c>
-      <c r="S52" s="5">
-        <v>3000000.0</v>
-      </c>
-      <c r="T52" s="5">
-        <v>3697062.0</v>
-      </c>
-      <c r="U52" s="5">
-        <v>19160753.5</v>
-      </c>
-      <c r="V52" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="W52" s="5">
-        <v>174607.535</v>
-      </c>
-      <c r="X52" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="Y52" s="5">
-        <v>158850.3294</v>
-      </c>
-      <c r="Z52" s="16">
-        <v>0.003</v>
-      </c>
-      <c r="AA52" s="5">
-        <v>76643014.0</v>
-      </c>
-      <c r="AB52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="16"/>
-      <c r="AE52" s="5">
-        <v>-333457.8644</v>
-      </c>
-      <c r="AF52" s="5">
-        <v>-5563970.4058</v>
-      </c>
-      <c r="AG52" s="16"/>
-      <c r="AH52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AI52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AJ52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AK52" s="5"/>
-      <c r="AL52" s="16"/>
-      <c r="AM52" s="15" t="s">
-        <v>82</v>
-      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="2"/>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="3"/>
@@ -23094,7 +20204,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -23107,7 +20217,7 @@
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -23398,160 +20508,6 @@
         <v>100.0</v>
       </c>
       <c r="C38">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>2044</v>
-      </c>
-      <c r="B39">
-        <v>100.0</v>
-      </c>
-      <c r="C39">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>2045</v>
-      </c>
-      <c r="B40">
-        <v>100.0</v>
-      </c>
-      <c r="C40">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>2046</v>
-      </c>
-      <c r="B41">
-        <v>100.0</v>
-      </c>
-      <c r="C41">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>2047</v>
-      </c>
-      <c r="B42">
-        <v>100.0</v>
-      </c>
-      <c r="C42">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>2048</v>
-      </c>
-      <c r="B43">
-        <v>100.0</v>
-      </c>
-      <c r="C43">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>2049</v>
-      </c>
-      <c r="B44">
-        <v>100.0</v>
-      </c>
-      <c r="C44">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>2050</v>
-      </c>
-      <c r="B45">
-        <v>100.0</v>
-      </c>
-      <c r="C45">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>2051</v>
-      </c>
-      <c r="B46">
-        <v>100.0</v>
-      </c>
-      <c r="C46">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
-        <v>2052</v>
-      </c>
-      <c r="B47">
-        <v>100.0</v>
-      </c>
-      <c r="C47">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <v>2053</v>
-      </c>
-      <c r="B48">
-        <v>100.0</v>
-      </c>
-      <c r="C48">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <v>2054</v>
-      </c>
-      <c r="B49">
-        <v>100.0</v>
-      </c>
-      <c r="C49">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
-        <v>2055</v>
-      </c>
-      <c r="B50">
-        <v>100.0</v>
-      </c>
-      <c r="C50">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
-        <v>2056</v>
-      </c>
-      <c r="B51">
-        <v>100.0</v>
-      </c>
-      <c r="C51">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
-        <v>2057</v>
-      </c>
-      <c r="B52">
-        <v>100.0</v>
-      </c>
-      <c r="C52">
         <v>100.0</v>
       </c>
     </row>

--- a/tests/Feature/config/mortgage_tenpercent.xlsx
+++ b/tests/Feature/config/mortgage_tenpercent.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="4" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="private" sheetId="1" r:id="rId4"/>
     <sheet name="InterestOnly5years" sheetId="2" r:id="rId5"/>
-    <sheet name="ExtraDownpayment" sheetId="3" r:id="rId6"/>
-    <sheet name="Normal" sheetId="4" r:id="rId7"/>
-    <sheet name="Statistics" sheetId="5" r:id="rId8"/>
+    <sheet name="Normal" sheetId="3" r:id="rId6"/>
+    <sheet name="Statistics" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -19,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>private</t>
   </si>
@@ -168,111 +167,85 @@
     <t>Paying only interest for the first 5 years, then paying interest and principal for the remaining years</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 3000000 * 1</t>
+    <t xml:space="preserve">Income Asset rule: Using current amount: 3000000 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 3300000 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 3000000 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 3630000 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 3300000 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 3993000 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 3630000 * 1 extraDownpaymentAmount 4350 from house1.2027.cashflow.afterTaxAmount </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 4392300 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 3993000 * 1 extraDownpaymentAmount 61624 from house1.2028.cashflow.afterTaxAmount </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 4831530 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 4392300 * 1 extraDownpaymentAmount 139621 from house1.2029.cashflow.afterTaxAmount </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 5314683 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 4831530 * 1 extraDownpaymentAmount 142203 from house1.2030.cashflow.afterTaxAmount </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 5846151 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 5314683 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 6430766 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 5846151 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 7073843 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 6430766 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 7781227 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 7073843 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 8559350 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 7781227 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 9415285 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 8559350 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 10356814 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 9415285 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 11392495 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 10356814 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 12531745 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 11392495 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 13784920 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 12531745 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 15163412 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 13784920 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 16679753 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 15163412 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 18347728 * 1</t>
-  </si>
-  <si>
-    <t>ExtraDownpayment</t>
-  </si>
-  <si>
-    <t>Paying interest and principal + 60 000 ekstra downpayment for all the years</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 3000000 * 1 extraDownpaymentAmount: 60000
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 3300000 * 1 extraDownpaymentAmount: 60000
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 3630000 * 1 extraDownpaymentAmount: 60000
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 3993000 * 1 extraDownpaymentAmount: 60000
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 4392300 * 1 extraDownpaymentAmount: 60000
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 4831530 * 1 extraDownpaymentAmount: 60000
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 5314683 * 1 extraDownpaymentAmount: 60000
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 5846151 * 1 extraDownpaymentAmount: 60000
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 6430766 * 1Mortgage payed 1 years faster due to extraDownpayments</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 16679753 * 1 </t>
   </si>
   <si>
     <t>Normal</t>
   </si>
   <si>
     <t>Paying interest and principal for all the years</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 3630000 * 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 3993000 * 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 4392300 * 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 4831530 * 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 18347728 * 1 </t>
   </si>
   <si>
     <t>total</t>
@@ -680,7 +653,7 @@
   <cols>
     <col min="1" max="1" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -700,7 +673,7 @@
     <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -710,7 +683,7 @@
     <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="31" max="31" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="32" max="32" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="33" max="33" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="34" max="34" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="35" max="35" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="36" max="36" width="17.567" bestFit="true" customWidth="true" style="0"/>
@@ -2074,49 +2047,49 @@
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="1">
-        <v>638236.0</v>
+        <v>244118.0</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="1">
-        <v>450000.0</v>
+        <v>150000.0</v>
       </c>
       <c r="L18" s="1">
-        <v>248236.0</v>
+        <v>94118.0</v>
       </c>
       <c r="M18" s="1">
-        <v>4251764.0</v>
+        <v>1405882.0</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>33000.0</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="6">
-        <v>9000000.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>4748236.0</v>
+        <v>1594118.0</v>
       </c>
       <c r="S18" s="1">
-        <v>9000000.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="T18" s="1">
-        <v>4500000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U18" s="6">
-        <v>2250000.0</v>
+        <v>750000.0</v>
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="1">
-        <v>5500.0</v>
+        <v>0.0</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="1">
-        <v>12600.0</v>
+        <v>4200.0</v>
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="1">
-        <v>9000000.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="AB18" s="1">
         <v>0</v>
@@ -2130,20 +2103,20 @@
       </c>
       <c r="AF18" s="2"/>
       <c r="AG18" s="1">
-        <v>-650836.0</v>
+        <v>-248318.0</v>
       </c>
       <c r="AH18" s="1">
-        <v>-650836.0</v>
+        <v>-248318.0</v>
       </c>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="1">
-        <v>-638236.0</v>
+        <v>-244118.0</v>
       </c>
       <c r="AK18" s="1">
-        <v>-3191180.0</v>
+        <v>-1220590.0</v>
       </c>
       <c r="AL18" s="1">
-        <v>8550000.0</v>
+        <v>2850000.0</v>
       </c>
       <c r="AM18" s="1"/>
       <c r="AN18" s="2"/>
@@ -2157,7 +2130,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="8">
-        <v>0</v>
+        <v>191400.0</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="8">
@@ -2169,49 +2142,49 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="8">
-        <v>627818.0</v>
+        <v>488236.0</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="8">
-        <v>425176.0</v>
+        <v>290588.0</v>
       </c>
       <c r="L19" s="8">
-        <v>262641.0</v>
+        <v>197648.0</v>
       </c>
       <c r="M19" s="8">
-        <v>3989122.0</v>
+        <v>2708234.0</v>
       </c>
       <c r="N19" s="8">
-        <v>0</v>
+        <v>63929.36</v>
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="8">
-        <v>9900000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="Q19" s="9"/>
       <c r="R19" s="8">
-        <v>5910878.0</v>
+        <v>3591766.0</v>
       </c>
       <c r="S19" s="8">
-        <v>9000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="T19" s="8">
-        <v>5127818.0</v>
+        <v>3244118.0</v>
       </c>
       <c r="U19" s="8">
-        <v>2475000.0</v>
+        <v>1575000.0</v>
       </c>
       <c r="V19" s="9"/>
       <c r="W19" s="8">
-        <v>7750.0</v>
+        <v>0.0</v>
       </c>
       <c r="X19" s="9"/>
       <c r="Y19" s="8">
-        <v>14490.0</v>
+        <v>9030.0</v>
       </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="8">
-        <v>9900000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="AB19" s="8">
         <v>0</v>
@@ -2225,20 +2198,20 @@
       </c>
       <c r="AF19" s="9"/>
       <c r="AG19" s="8">
-        <v>-642308.0</v>
+        <v>-248948.0</v>
       </c>
       <c r="AH19" s="8">
-        <v>-1293144.0</v>
+        <v>-497266.0</v>
       </c>
       <c r="AI19" s="9"/>
       <c r="AJ19" s="8">
-        <v>-627818.0</v>
+        <v>-296836.0</v>
       </c>
       <c r="AK19" s="8">
-        <v>-3139090.0</v>
+        <v>-1484180.0</v>
       </c>
       <c r="AL19" s="8">
-        <v>-425176.0</v>
+        <v>2709412.0</v>
       </c>
       <c r="AM19" s="8"/>
       <c r="AN19" s="9"/>
@@ -2252,7 +2225,7 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>0</v>
+        <v>210540.0</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
@@ -2264,49 +2237,49 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="1">
-        <v>616571.0</v>
+        <v>488236.0</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="1">
-        <v>398912.0</v>
+        <v>270823.0</v>
       </c>
       <c r="L20" s="1">
-        <v>277659.0</v>
+        <v>217413.0</v>
       </c>
       <c r="M20" s="1">
-        <v>3711463.0</v>
+        <v>2490821.0</v>
       </c>
       <c r="N20" s="1">
-        <v>0</v>
+        <v>59581.06</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="6">
-        <v>10890000.0</v>
+        <v>6930000.0</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>7178537.0</v>
+        <v>4439179.0</v>
       </c>
       <c r="S20" s="1">
-        <v>9000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="T20" s="1">
-        <v>5744389.0</v>
+        <v>3732354.0</v>
       </c>
       <c r="U20" s="6">
-        <v>2722500.0</v>
+        <v>1732500.0</v>
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="1">
-        <v>10225.0</v>
+        <v>325.0</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="1">
-        <v>16569.0</v>
+        <v>10353.0</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>10890000.0</v>
+        <v>6930000.0</v>
       </c>
       <c r="AB20" s="1">
         <v>0</v>
@@ -2320,20 +2293,20 @@
       </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="1">
-        <v>-633140.0</v>
+        <v>-249641.0</v>
       </c>
       <c r="AH20" s="1">
-        <v>-1926284.0</v>
+        <v>-746907.0</v>
       </c>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="1">
-        <v>-616571.0</v>
+        <v>-277696.0</v>
       </c>
       <c r="AK20" s="1">
-        <v>-3082855.0</v>
+        <v>-1388480.0</v>
       </c>
       <c r="AL20" s="1">
-        <v>-398912.0</v>
+        <v>-270823.0</v>
       </c>
       <c r="AM20" s="1"/>
       <c r="AN20" s="2"/>
@@ -2347,7 +2320,7 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>231594.0</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
@@ -2359,49 +2332,49 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="1">
-        <v>604247.0</v>
+        <v>488236.0</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="1">
-        <v>371146.0</v>
+        <v>249082.0</v>
       </c>
       <c r="L21" s="1">
-        <v>293100.0</v>
+        <v>239154.0</v>
       </c>
       <c r="M21" s="1">
-        <v>3418363.0</v>
+        <v>2251667.0</v>
       </c>
       <c r="N21" s="1">
-        <v>0</v>
+        <v>54798.04</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="6">
-        <v>11979000.0</v>
+        <v>7623000.0</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>8560637.0</v>
+        <v>5371333.0</v>
       </c>
       <c r="S21" s="1">
-        <v>9000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="T21" s="1">
-        <v>6348636.0</v>
+        <v>4220590.0</v>
       </c>
       <c r="U21" s="6">
-        <v>2994750.0</v>
+        <v>1905750.0</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="1">
-        <v>12947.5</v>
+        <v>2057.5</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="1">
-        <v>18855.9</v>
+        <v>11808.3</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>11979000.0</v>
+        <v>7623000.0</v>
       </c>
       <c r="AB21" s="1">
         <v>0</v>
@@ -2415,20 +2388,20 @@
       </c>
       <c r="AF21" s="2"/>
       <c r="AG21" s="1">
-        <v>-623102.9</v>
+        <v>-250403.3</v>
       </c>
       <c r="AH21" s="1">
-        <v>-2549386.9</v>
+        <v>-997310.3</v>
       </c>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="1">
-        <v>-604247.0</v>
+        <v>-256642.0</v>
       </c>
       <c r="AK21" s="1">
-        <v>-3021235.0</v>
+        <v>-1283210.0</v>
       </c>
       <c r="AL21" s="1">
-        <v>-371146.0</v>
+        <v>-249082.0</v>
       </c>
       <c r="AM21" s="1"/>
       <c r="AN21" s="2"/>
@@ -2442,7 +2415,7 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>254753.4</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
@@ -2454,49 +2427,49 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="1">
-        <v>590470.0</v>
+        <v>488236.0</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="1">
-        <v>341837.0</v>
+        <v>225167.0</v>
       </c>
       <c r="L22" s="1">
-        <v>308634.0</v>
+        <v>263069.0</v>
       </c>
       <c r="M22" s="1">
-        <v>3109729.0</v>
+        <v>1988598.0</v>
       </c>
       <c r="N22" s="1">
-        <v>0</v>
+        <v>49536.74</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="6">
-        <v>13176900.0</v>
+        <v>8385300.0</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>10067171.0</v>
+        <v>6396702.0</v>
       </c>
       <c r="S22" s="1">
-        <v>9000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="T22" s="1">
-        <v>6939106.0</v>
+        <v>4708826.0</v>
       </c>
       <c r="U22" s="6">
-        <v>3294225.0</v>
+        <v>2096325.0</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="1">
-        <v>15942.25</v>
+        <v>3963.25</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="1">
-        <v>21371.49</v>
+        <v>13409.13</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>13176900.0</v>
+        <v>8385300.0</v>
       </c>
       <c r="AB22" s="1">
         <v>0</v>
@@ -2510,20 +2483,20 @@
       </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="1">
-        <v>-611841.49</v>
+        <v>-251241.83</v>
       </c>
       <c r="AH22" s="1">
-        <v>-3161228.39</v>
+        <v>-1248552.13</v>
       </c>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="1">
-        <v>-590470.0</v>
+        <v>-233482.6</v>
       </c>
       <c r="AK22" s="1">
-        <v>-2952350.0</v>
+        <v>-1167413.0</v>
       </c>
       <c r="AL22" s="1">
-        <v>-341837.0</v>
+        <v>-225167.0</v>
       </c>
       <c r="AM22" s="1"/>
       <c r="AN22" s="2"/>
@@ -2537,7 +2510,7 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>280228.3</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
@@ -2549,49 +2522,49 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="1">
-        <v>820338.0</v>
+        <v>455598.0</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="1">
-        <v>310973.0</v>
+        <v>184645.0</v>
       </c>
       <c r="L23" s="1">
-        <v>569365.0</v>
+        <v>270953.0</v>
       </c>
       <c r="M23" s="1">
-        <v>2540364.0</v>
+        <v>1575497.0</v>
       </c>
       <c r="N23" s="1">
-        <v>0</v>
+        <v>40621.9</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="6">
-        <v>14494590.0</v>
+        <v>9223830.0</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>11954226.0</v>
+        <v>7648333.0</v>
       </c>
       <c r="S23" s="1">
-        <v>9000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="T23" s="1">
-        <v>7759444.0</v>
+        <v>5164424.0</v>
       </c>
       <c r="U23" s="6">
-        <v>3623647.5</v>
+        <v>2305957.5</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="1">
-        <v>19236.475</v>
+        <v>6059.575</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="1">
-        <v>24138.639</v>
+        <v>15170.043</v>
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>14494590.0</v>
+        <v>9223830.0</v>
       </c>
       <c r="AB23" s="1">
         <v>0</v>
@@ -2605,20 +2578,20 @@
       </c>
       <c r="AF23" s="2"/>
       <c r="AG23" s="1">
-        <v>-844476.639</v>
+        <v>-252164.213</v>
       </c>
       <c r="AH23" s="1">
-        <v>-4005705.029</v>
+        <v>-1500716.343</v>
       </c>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="1">
-        <v>-820338.0</v>
+        <v>-175369.7</v>
       </c>
       <c r="AK23" s="1">
-        <v>-4101690.0</v>
+        <v>-876848.5</v>
       </c>
       <c r="AL23" s="1">
-        <v>-310973.0</v>
+        <v>-184645.0</v>
       </c>
       <c r="AM23" s="1"/>
       <c r="AN23" s="2"/>
@@ -2632,7 +2605,7 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
+        <v>308250.8</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
@@ -2644,49 +2617,49 @@
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="1">
-        <v>801410.0</v>
+        <v>404702.0</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="1">
-        <v>254036.0</v>
+        <v>138256.0</v>
       </c>
       <c r="L24" s="1">
-        <v>607374.0</v>
+        <v>266446.0</v>
       </c>
       <c r="M24" s="1">
-        <v>1932990.0</v>
+        <v>1116115.0</v>
       </c>
       <c r="N24" s="1">
-        <v>0</v>
+        <v>30416.32</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
-        <v>15944049.0</v>
+        <v>10146213.0</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>14011059.0</v>
+        <v>9030098.0</v>
       </c>
       <c r="S24" s="1">
-        <v>9000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="T24" s="1">
-        <v>8560854.0</v>
+        <v>5569126.0</v>
       </c>
       <c r="U24" s="6">
-        <v>3986012.25</v>
+        <v>2536553.25</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="1">
-        <v>22860.1225</v>
+        <v>8365.5325</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="1">
-        <v>27182.5029</v>
+        <v>17107.0473</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>15944049.0</v>
+        <v>10146213.0</v>
       </c>
       <c r="AB24" s="1">
         <v>0</v>
@@ -2700,20 +2673,20 @@
       </c>
       <c r="AF24" s="2"/>
       <c r="AG24" s="1">
-        <v>-828592.5029</v>
+        <v>-253178.8343</v>
       </c>
       <c r="AH24" s="1">
-        <v>-4834297.5319</v>
+        <v>-1753895.1773</v>
       </c>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="1">
-        <v>-801410.0</v>
+        <v>-96451.2</v>
       </c>
       <c r="AK24" s="1">
-        <v>-4007050.0</v>
+        <v>-482256.0</v>
       </c>
       <c r="AL24" s="1">
-        <v>-254036.0</v>
+        <v>-138256.0</v>
       </c>
       <c r="AM24" s="1"/>
       <c r="AN24" s="2"/>
@@ -2727,7 +2700,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>0</v>
+        <v>339076.1</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
@@ -2739,49 +2712,49 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="1">
-        <v>777283.0</v>
+        <v>326054.0</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="1">
-        <v>193300.0</v>
+        <v>86682.0</v>
       </c>
       <c r="L25" s="1">
-        <v>643985.0</v>
+        <v>239374.0</v>
       </c>
       <c r="M25" s="1">
-        <v>1289005.0</v>
+        <v>627439.0</v>
       </c>
       <c r="N25" s="1">
-        <v>0</v>
+        <v>19070.04</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
-        <v>17538453.0</v>
+        <v>11160834.0</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>16249448.0</v>
+        <v>10533395.0</v>
       </c>
       <c r="S25" s="1">
-        <v>9000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="T25" s="1">
-        <v>9338137.0</v>
+        <v>5895180.0</v>
       </c>
       <c r="U25" s="6">
-        <v>4384613.25</v>
+        <v>2790208.5</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="1">
-        <v>26846.1325</v>
+        <v>10902.085</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="1">
-        <v>30530.7513</v>
+        <v>19237.7514</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>17538453.0</v>
+        <v>11160834.0</v>
       </c>
       <c r="AB25" s="1">
         <v>0</v>
@@ -2795,20 +2768,20 @@
       </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="1">
-        <v>-807813.7513</v>
+        <v>-148418.9171</v>
       </c>
       <c r="AH25" s="1">
-        <v>-5642111.2832</v>
+        <v>-1902314.0944</v>
       </c>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="1">
-        <v>-777283.0</v>
+        <v>13022.1</v>
       </c>
       <c r="AK25" s="1">
-        <v>-3886415.0</v>
+        <v>65110.5</v>
       </c>
       <c r="AL25" s="1">
-        <v>-193300.0</v>
+        <v>-86682.0</v>
       </c>
       <c r="AM25" s="1"/>
       <c r="AN25" s="2"/>
@@ -2822,7 +2795,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>0</v>
+        <v>372983.6</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
@@ -2834,49 +2807,49 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="1">
-        <v>742712.0</v>
+        <v>244118.0</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="1">
-        <v>128901.0</v>
+        <v>42368.0</v>
       </c>
       <c r="L26" s="1">
-        <v>673812.0</v>
+        <v>201750.0</v>
       </c>
       <c r="M26" s="1">
-        <v>615193.0</v>
+        <v>221926.0</v>
       </c>
       <c r="N26" s="1">
-        <v>0</v>
+        <v>9320.96</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
-        <v>19292298.0</v>
+        <v>12276917.0</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>18677105.0</v>
+        <v>12054991.0</v>
       </c>
       <c r="S26" s="1">
-        <v>9000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="T26" s="1">
-        <v>10080849.0</v>
+        <v>6139298.0</v>
       </c>
       <c r="U26" s="6">
-        <v>4823074.5</v>
+        <v>3069229.25</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="1">
-        <v>31230.745</v>
+        <v>13692.2925</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="1">
-        <v>34213.8258</v>
+        <v>21581.5257</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>19292298.0</v>
+        <v>12276917.0</v>
       </c>
       <c r="AB26" s="1">
         <v>0</v>
@@ -2890,20 +2863,20 @@
       </c>
       <c r="AF26" s="2"/>
       <c r="AG26" s="1">
-        <v>-776925.8258</v>
+        <v>107284.3914</v>
       </c>
       <c r="AH26" s="1">
-        <v>-6419037.109</v>
+        <v>-1795029.703</v>
       </c>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="1">
-        <v>-742712.0</v>
+        <v>128865.6</v>
       </c>
       <c r="AK26" s="1">
-        <v>-3713560.0</v>
+        <v>644328.0</v>
       </c>
       <c r="AL26" s="1">
-        <v>-128901.0</v>
+        <v>-42368.0</v>
       </c>
       <c r="AM26" s="1"/>
       <c r="AN26" s="2"/>
@@ -2917,7 +2890,7 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>0</v>
+        <v>410282.4</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
@@ -2929,49 +2902,49 @@
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="1">
-        <v>639814.0</v>
+        <v>244118.0</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="1">
-        <v>58165.0</v>
+        <v>22193.0</v>
       </c>
       <c r="L27" s="1">
-        <v>581650.0</v>
+        <v>221926.0</v>
       </c>
       <c r="M27" s="1">
         <v>0.0</v>
       </c>
       <c r="N27" s="1">
-        <v>0</v>
+        <v>4882.46</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
-        <v>21221529.0</v>
+        <v>13504609.0</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>21221529.0</v>
+        <v>13504609.0</v>
       </c>
       <c r="S27" s="1">
-        <v>9000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="T27" s="1">
-        <v>10720663.0</v>
+        <v>6383416.0</v>
       </c>
       <c r="U27" s="6">
-        <v>5305382.25</v>
+        <v>3376152.25</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="1">
-        <v>36053.8225</v>
+        <v>16761.5225</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="1">
-        <v>38265.2109</v>
+        <v>24159.6789</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>21221529.0</v>
+        <v>13504609.0</v>
       </c>
       <c r="AB27" s="1">
         <v>0</v>
@@ -2985,20 +2958,20 @@
       </c>
       <c r="AF27" s="2"/>
       <c r="AG27" s="1">
-        <v>-680133.0334</v>
+        <v>141320.3222</v>
       </c>
       <c r="AH27" s="1">
-        <v>-7099170.1424</v>
+        <v>-1653709.3808</v>
       </c>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="1">
-        <v>-639814.0</v>
+        <v>166164.4</v>
       </c>
       <c r="AK27" s="1">
-        <v>-3199070.0</v>
+        <v>830822.0</v>
       </c>
       <c r="AL27" s="1">
-        <v>-58165.0</v>
+        <v>-22193.0</v>
       </c>
       <c r="AM27" s="1"/>
       <c r="AN27" s="2"/>
@@ -3012,7 +2985,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>0</v>
+        <v>451310.2</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
@@ -3041,32 +3014,32 @@
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
-        <v>23343681.0</v>
+        <v>14855070.0</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>23343681.0</v>
+        <v>14855070.0</v>
       </c>
       <c r="S28" s="1">
-        <v>9000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="T28" s="1">
-        <v>10720663.0</v>
+        <v>6383416.0</v>
       </c>
       <c r="U28" s="6">
-        <v>5835920.25</v>
+        <v>3713767.5</v>
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="1">
-        <v>41359.2025</v>
+        <v>20137.675</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="1">
-        <v>42721.7301</v>
+        <v>26995.647</v>
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>23343681.0</v>
+        <v>14855070.0</v>
       </c>
       <c r="AB28" s="1">
         <v>0</v>
@@ -3080,17 +3053,17 @@
       </c>
       <c r="AF28" s="2"/>
       <c r="AG28" s="1">
-        <v>-50080.9326</v>
+        <v>421177.3558</v>
       </c>
       <c r="AH28" s="1">
-        <v>-7149251.075</v>
+        <v>-1232532.025</v>
       </c>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="1">
-        <v>0</v>
+        <v>451310.2</v>
       </c>
       <c r="AK28" s="1">
-        <v>0</v>
+        <v>2256551.0</v>
       </c>
       <c r="AL28" s="1">
         <v>0.0</v>
@@ -3107,7 +3080,7 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>0</v>
+        <v>496441.0</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
@@ -3136,32 +3109,32 @@
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="6">
-        <v>25678050.0</v>
+        <v>16340577.0</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
-        <v>25678050.0</v>
+        <v>16340577.0</v>
       </c>
       <c r="S29" s="1">
-        <v>9000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="T29" s="1">
-        <v>10720663.0</v>
+        <v>6383416.0</v>
       </c>
       <c r="U29" s="6">
-        <v>6419512.5</v>
+        <v>4085144.25</v>
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="1">
-        <v>47195.125</v>
+        <v>23851.4425</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="1">
-        <v>47623.905</v>
+        <v>30115.2117</v>
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>25678050.0</v>
+        <v>16340577.0</v>
       </c>
       <c r="AB29" s="1">
         <v>0</v>
@@ -3175,17 +3148,17 @@
       </c>
       <c r="AF29" s="2"/>
       <c r="AG29" s="1">
-        <v>-60819.03</v>
+        <v>459473.99</v>
       </c>
       <c r="AH29" s="1">
-        <v>-7210070.105</v>
+        <v>-773058.035</v>
       </c>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="1">
-        <v>0</v>
+        <v>496441.0</v>
       </c>
       <c r="AK29" s="1">
-        <v>0</v>
+        <v>2482205.0</v>
       </c>
       <c r="AL29" s="1">
         <v>0.0</v>
@@ -3202,7 +3175,7 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>0</v>
+        <v>546085.1</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
@@ -3231,32 +3204,32 @@
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="6">
-        <v>28245855.0</v>
+        <v>17974635.0</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
-        <v>28245855.0</v>
+        <v>17974635.0</v>
       </c>
       <c r="S30" s="1">
-        <v>9000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="T30" s="1">
-        <v>10720663.0</v>
+        <v>6383416.0</v>
       </c>
       <c r="U30" s="6">
-        <v>7061463.75</v>
+        <v>4493658.75</v>
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="1">
-        <v>53614.6375</v>
+        <v>27936.5875</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="1">
-        <v>53016.2955</v>
+        <v>33546.7335</v>
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>28245855.0</v>
+        <v>17974635.0</v>
       </c>
       <c r="AB30" s="1">
         <v>0</v>
@@ -3270,17 +3243,17 @@
       </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="1">
-        <v>-72630.933</v>
+        <v>501601.689</v>
       </c>
       <c r="AH30" s="1">
-        <v>-7282701.038</v>
+        <v>-271456.346</v>
       </c>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="1">
-        <v>0</v>
+        <v>546085.1</v>
       </c>
       <c r="AK30" s="1">
-        <v>0</v>
+        <v>2730425.5</v>
       </c>
       <c r="AL30" s="1">
         <v>0.0</v>
@@ -3297,7 +3270,7 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>0</v>
+        <v>600693.5</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
@@ -3326,32 +3299,32 @@
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="6">
-        <v>31070442.0</v>
+        <v>19772099.0</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
-        <v>31070442.0</v>
+        <v>19772099.0</v>
       </c>
       <c r="S31" s="1">
-        <v>9000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="T31" s="1">
-        <v>10720663.0</v>
+        <v>6383416.0</v>
       </c>
       <c r="U31" s="6">
-        <v>7767610.5</v>
+        <v>4943024.75</v>
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="1">
-        <v>60676.105</v>
+        <v>32430.2475</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="1">
-        <v>58947.9282</v>
+        <v>37321.4079</v>
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>31070442.0</v>
+        <v>19772099.0</v>
       </c>
       <c r="AB31" s="1">
         <v>0</v>
@@ -3365,17 +3338,17 @@
       </c>
       <c r="AF31" s="2"/>
       <c r="AG31" s="1">
-        <v>-85624.0332</v>
+        <v>547941.6556</v>
       </c>
       <c r="AH31" s="1">
-        <v>-7368325.0712</v>
+        <v>276485.3096</v>
       </c>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="1">
-        <v>0</v>
+        <v>600693.5</v>
       </c>
       <c r="AK31" s="1">
-        <v>0</v>
+        <v>3003467.5</v>
       </c>
       <c r="AL31" s="1">
         <v>0.0</v>
@@ -3392,7 +3365,7 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>0</v>
+        <v>660763.4</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
@@ -3421,32 +3394,32 @@
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="6">
-        <v>34177485.0</v>
+        <v>21749309.0</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
-        <v>34177485.0</v>
+        <v>21749309.0</v>
       </c>
       <c r="S32" s="1">
-        <v>9000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="T32" s="1">
-        <v>10720663.0</v>
+        <v>6383416.0</v>
       </c>
       <c r="U32" s="6">
-        <v>8544371.25</v>
+        <v>5437327.25</v>
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="1">
-        <v>68443.7125</v>
+        <v>37373.2725</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="1">
-        <v>65472.7185</v>
+        <v>41473.5489</v>
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>34177485.0</v>
+        <v>21749309.0</v>
       </c>
       <c r="AB32" s="1">
         <v>0</v>
@@ -3460,17 +3433,17 @@
       </c>
       <c r="AF32" s="2"/>
       <c r="AG32" s="1">
-        <v>-99916.431</v>
+        <v>598916.523</v>
       </c>
       <c r="AH32" s="1">
-        <v>-7468241.5022</v>
+        <v>875401.8326</v>
       </c>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="1">
-        <v>0</v>
+        <v>660763.4</v>
       </c>
       <c r="AK32" s="1">
-        <v>0</v>
+        <v>3303817.0</v>
       </c>
       <c r="AL32" s="1">
         <v>0.0</v>
@@ -3487,7 +3460,7 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>0</v>
+        <v>726839.3</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
@@ -3516,32 +3489,32 @@
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="6">
-        <v>37595235.0</v>
+        <v>23924240.0</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
-        <v>37595235.0</v>
+        <v>23924240.0</v>
       </c>
       <c r="S33" s="1">
-        <v>9000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="T33" s="1">
-        <v>10720663.0</v>
+        <v>6383416.0</v>
       </c>
       <c r="U33" s="6">
-        <v>9398808.75</v>
+        <v>5981060.0</v>
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="1">
-        <v>76988.0875</v>
+        <v>42810.6</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="1">
-        <v>72649.9935</v>
+        <v>46040.904</v>
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>37595235.0</v>
+        <v>23924240.0</v>
       </c>
       <c r="AB33" s="1">
         <v>0</v>
@@ -3555,17 +3528,17 @@
       </c>
       <c r="AF33" s="2"/>
       <c r="AG33" s="1">
-        <v>-115638.081</v>
+        <v>654987.973</v>
       </c>
       <c r="AH33" s="1">
-        <v>-7583879.5832</v>
+        <v>1530389.8056</v>
       </c>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="1">
-        <v>0</v>
+        <v>726839.3</v>
       </c>
       <c r="AK33" s="1">
-        <v>0</v>
+        <v>3634196.5</v>
       </c>
       <c r="AL33" s="1">
         <v>0.0</v>
@@ -3582,7 +3555,7 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>0</v>
+        <v>799522.9</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
@@ -3611,32 +3584,32 @@
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="6">
-        <v>41354760.0</v>
+        <v>26316665.0</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
-        <v>41354760.0</v>
+        <v>26316665.0</v>
       </c>
       <c r="S34" s="1">
-        <v>9000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="T34" s="1">
-        <v>10720663.0</v>
+        <v>6383416.0</v>
       </c>
       <c r="U34" s="6">
-        <v>10338690.0</v>
+        <v>6579166.25</v>
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="1">
-        <v>86386.9</v>
+        <v>48791.6625</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="1">
-        <v>80544.996</v>
+        <v>51064.9965</v>
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>41354760.0</v>
+        <v>26316665.0</v>
       </c>
       <c r="AB34" s="1">
         <v>0</v>
@@ -3650,17 +3623,17 @@
       </c>
       <c r="AF34" s="2"/>
       <c r="AG34" s="1">
-        <v>-132931.896</v>
+        <v>716666.368</v>
       </c>
       <c r="AH34" s="1">
-        <v>-7716811.4792</v>
+        <v>2247056.1736</v>
       </c>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="1">
-        <v>0</v>
+        <v>799522.9</v>
       </c>
       <c r="AK34" s="1">
-        <v>0</v>
+        <v>3997614.5</v>
       </c>
       <c r="AL34" s="1">
         <v>0.0</v>
@@ -3677,7 +3650,7 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>0</v>
+        <v>879475.3</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
@@ -3706,32 +3679,32 @@
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="6">
-        <v>45490236.0</v>
+        <v>28948332.0</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
-        <v>45490236.0</v>
+        <v>28948332.0</v>
       </c>
       <c r="S35" s="1">
-        <v>9000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="T35" s="1">
-        <v>10720663.0</v>
+        <v>6383416.0</v>
       </c>
       <c r="U35" s="6">
-        <v>11372559.0</v>
+        <v>7237083.0</v>
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="1">
-        <v>96725.59</v>
+        <v>55370.83</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="1">
-        <v>89229.4956</v>
+        <v>56591.4972</v>
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>45490236.0</v>
+        <v>28948332.0</v>
       </c>
       <c r="AB35" s="1">
         <v>0</v>
@@ -3745,17 +3718,17 @@
       </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="1">
-        <v>-151955.0856</v>
+        <v>784513.3048</v>
       </c>
       <c r="AH35" s="1">
-        <v>-7868766.5648</v>
+        <v>3031569.4784</v>
       </c>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="1">
-        <v>0</v>
+        <v>879475.3</v>
       </c>
       <c r="AK35" s="1">
-        <v>0</v>
+        <v>4397376.5</v>
       </c>
       <c r="AL35" s="1">
         <v>0.0</v>
@@ -3772,7 +3745,7 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>0</v>
+        <v>967422.5</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
@@ -3801,32 +3774,32 @@
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="6">
-        <v>50039259.0</v>
+        <v>31843165.0</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
-        <v>50039259.0</v>
+        <v>31843165.0</v>
       </c>
       <c r="S36" s="1">
-        <v>9000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="T36" s="1">
-        <v>10720663.0</v>
+        <v>6383416.0</v>
       </c>
       <c r="U36" s="6">
-        <v>12509814.75</v>
+        <v>7960791.25</v>
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="1">
-        <v>108098.1475</v>
+        <v>62607.9125</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="1">
-        <v>98782.4439</v>
+        <v>62670.6465</v>
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>50039259.0</v>
+        <v>31843165.0</v>
       </c>
       <c r="AB36" s="1">
         <v>0</v>
@@ -3840,17 +3813,17 @@
       </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="1">
-        <v>-172880.5914</v>
+        <v>859144.1362</v>
       </c>
       <c r="AH36" s="1">
-        <v>-8041647.1562</v>
+        <v>3890713.6146</v>
       </c>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="1">
-        <v>0</v>
+        <v>967422.5</v>
       </c>
       <c r="AK36" s="1">
-        <v>0</v>
+        <v>4837112.5</v>
       </c>
       <c r="AL36" s="1">
         <v>0.0</v>
@@ -3867,7 +3840,7 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>0</v>
+        <v>1064165.3</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
@@ -3896,32 +3869,32 @@
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>55043184.0</v>
+        <v>35027481.0</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>55043184.0</v>
+        <v>35027481.0</v>
       </c>
       <c r="S37" s="1">
-        <v>9000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="T37" s="1">
-        <v>10720663.0</v>
+        <v>6383416.0</v>
       </c>
       <c r="U37" s="6">
-        <v>13760796.0</v>
+        <v>8756870.25</v>
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="1">
-        <v>120607.96</v>
+        <v>70568.7025</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="1">
-        <v>109290.6864</v>
+        <v>69357.7101</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>55043184.0</v>
+        <v>35027481.0</v>
       </c>
       <c r="AB37" s="1">
         <v>0</v>
@@ -3935,17 +3908,17 @@
       </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="1">
-        <v>-195898.6464</v>
+        <v>941238.4512</v>
       </c>
       <c r="AH37" s="1">
-        <v>-8237545.8026</v>
+        <v>4831952.0658</v>
       </c>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="1">
-        <v>0</v>
+        <v>1064165.3</v>
       </c>
       <c r="AK37" s="1">
-        <v>0</v>
+        <v>5320826.5</v>
       </c>
       <c r="AL37" s="1">
         <v>0.0</v>
@@ -3962,7 +3935,7 @@
         <v>48</v>
       </c>
       <c r="C38" s="5">
-        <v>0</v>
+        <v>1170581.5</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="5">
@@ -3991,32 +3964,32 @@
       </c>
       <c r="O38" s="16"/>
       <c r="P38" s="5">
-        <v>60547503.0</v>
+        <v>38530229.0</v>
       </c>
       <c r="Q38" s="16"/>
       <c r="R38" s="5">
-        <v>60547503.0</v>
+        <v>38530229.0</v>
       </c>
       <c r="S38" s="5">
-        <v>9000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="T38" s="5">
-        <v>10720663.0</v>
+        <v>6383416.0</v>
       </c>
       <c r="U38" s="5">
-        <v>15136875.75</v>
+        <v>9632557.25</v>
       </c>
       <c r="V38" s="16"/>
       <c r="W38" s="5">
-        <v>134368.7575</v>
+        <v>79325.5725</v>
       </c>
       <c r="X38" s="16"/>
       <c r="Y38" s="5">
-        <v>120849.7563</v>
+        <v>76713.4809</v>
       </c>
       <c r="Z38" s="16"/>
       <c r="AA38" s="5">
-        <v>60547503.0</v>
+        <v>38530229.0</v>
       </c>
       <c r="AB38" s="5">
         <v>0</v>
@@ -4030,17 +4003,17 @@
       </c>
       <c r="AF38" s="16"/>
       <c r="AG38" s="5">
-        <v>-221218.5138</v>
+        <v>1031542.4954</v>
       </c>
       <c r="AH38" s="5">
-        <v>-8458764.3164</v>
+        <v>5863494.5612</v>
       </c>
       <c r="AI38" s="16"/>
       <c r="AJ38" s="5">
-        <v>0</v>
+        <v>1170581.5</v>
       </c>
       <c r="AK38" s="5">
-        <v>0</v>
+        <v>5852907.5</v>
       </c>
       <c r="AL38" s="5">
         <v>0.0</v>
@@ -5808,7 +5781,7 @@
   <cols>
     <col min="1" max="1" width="22.28" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="22.28" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -5838,11 +5811,11 @@
     <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="31" max="31" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="32" max="32" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="33" max="33" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="34" max="34" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="35" max="35" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="36" max="36" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="37" max="37" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="37" max="37" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="38" max="38" width="11.711" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -6769,95 +6742,49 @@
         <v>0.0</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="1">
-        <v>150000.0</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K18" s="1">
-        <v>150000.0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1500000.0</v>
-      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R18" s="1">
-        <v>1500000.0</v>
-      </c>
-      <c r="S18" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T18" s="1">
-        <v>1500000.0</v>
-      </c>
-      <c r="U18" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V18" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W18" s="1">
-        <v>0</v>
-      </c>
-      <c r="X18" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>0</v>
-      </c>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
       <c r="AD18" s="2"/>
-      <c r="AE18" s="1">
-        <v>0</v>
-      </c>
+      <c r="AE18" s="1"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="1">
-        <v>-154200.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH18" s="1">
-        <v>-154200.0</v>
-      </c>
-      <c r="AI18" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI18" s="2"/>
       <c r="AJ18" s="1">
-        <v>-150000.0</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="1">
-        <v>-750000.0</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="1">
-        <v>2850000.0</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="1"/>
-      <c r="AN18" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>49</v>
-      </c>
+      <c r="AN18" s="2"/>
+      <c r="AO18"/>
     </row>
     <row r="19" spans="1:41">
       <c r="A19" s="7">
@@ -6866,8 +6793,12 @@
       <c r="B19" s="8">
         <v>29</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="C19" s="8">
+        <v>191400.0</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.1</v>
+      </c>
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
       <c r="G19" s="8">
@@ -6875,7 +6806,7 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="8">
-        <v>150000.0</v>
+        <v>244118.0</v>
       </c>
       <c r="J19" s="9">
         <v>0.1</v>
@@ -6884,30 +6815,34 @@
         <v>150000.0</v>
       </c>
       <c r="L19" s="8">
-        <v>0.0</v>
+        <v>94118.0</v>
       </c>
       <c r="M19" s="8">
-        <v>1500000.0</v>
-      </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="9"/>
+        <v>1405882.0</v>
+      </c>
+      <c r="N19" s="8">
+        <v>33000.0</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0.22</v>
+      </c>
       <c r="P19" s="8">
-        <v>3300000.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="Q19" s="9">
         <v>0.1</v>
       </c>
       <c r="R19" s="8">
-        <v>1800000.0</v>
+        <v>1594118.0</v>
       </c>
       <c r="S19" s="8">
         <v>3000000.0</v>
       </c>
       <c r="T19" s="8">
-        <v>1650000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U19" s="8">
-        <v>825000.0</v>
+        <v>750000.0</v>
       </c>
       <c r="V19" s="9">
         <v>0.25</v>
@@ -6919,13 +6854,13 @@
         <v>0.01</v>
       </c>
       <c r="Y19" s="8">
-        <v>4830.0</v>
+        <v>4200.0</v>
       </c>
       <c r="Z19" s="9">
         <v>0.003</v>
       </c>
       <c r="AA19" s="8">
-        <v>3300000.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="AB19" s="8">
         <v>0</v>
@@ -6939,25 +6874,27 @@
       </c>
       <c r="AF19" s="9"/>
       <c r="AG19" s="8">
-        <v>-154830.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH19" s="8">
-        <v>-309030.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI19" s="9">
-        <v>0.45454545454545</v>
+        <v>0.46862733333333</v>
       </c>
       <c r="AJ19" s="8">
-        <v>-150000.0</v>
+        <v>-52718.0</v>
       </c>
       <c r="AK19" s="8">
-        <v>-750000.0</v>
+        <v>-263590.0</v>
       </c>
       <c r="AL19" s="8">
-        <v>-150000.0</v>
+        <v>2850000.0</v>
       </c>
       <c r="AM19" s="8"/>
-      <c r="AN19" s="9"/>
+      <c r="AN19" s="9">
+        <v>0.89</v>
+      </c>
       <c r="AO19" s="7" t="s">
         <v>49</v>
       </c>
@@ -6969,8 +6906,12 @@
       <c r="B20" s="1">
         <v>30</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="2"/>
+      <c r="C20" s="4">
+        <v>210540.0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.1</v>
+      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="2"/>
       <c r="G20" s="1">
@@ -6978,39 +6919,43 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="1">
-        <v>150000.0</v>
+        <v>244118.0</v>
       </c>
       <c r="J20" s="2">
         <v>0.1</v>
       </c>
       <c r="K20" s="1">
-        <v>150000.0</v>
+        <v>140588.0</v>
       </c>
       <c r="L20" s="1">
-        <v>0.0</v>
+        <v>103530.0</v>
       </c>
       <c r="M20" s="1">
-        <v>1500000.0</v>
-      </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="2"/>
+        <v>1302352.0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>30929.36</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P20" s="6">
-        <v>3630000.0</v>
+        <v>3300000.0</v>
       </c>
       <c r="Q20" s="2">
         <v>0.1</v>
       </c>
       <c r="R20" s="1">
-        <v>2130000.0</v>
+        <v>1997648.0</v>
       </c>
       <c r="S20" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T20" s="1">
-        <v>1800000.0</v>
+        <v>1744118.0</v>
       </c>
       <c r="U20" s="6">
-        <v>907500.0</v>
+        <v>825000.0</v>
       </c>
       <c r="V20" s="2">
         <v>0.25</v>
@@ -7022,13 +6967,13 @@
         <v>0.01</v>
       </c>
       <c r="Y20" s="1">
-        <v>5523.0</v>
+        <v>4830.0</v>
       </c>
       <c r="Z20" s="2">
         <v>0.003</v>
       </c>
       <c r="AA20" s="1">
-        <v>3630000.0</v>
+        <v>3300000.0</v>
       </c>
       <c r="AB20" s="1">
         <v>0</v>
@@ -7042,25 +6987,27 @@
       </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="1">
-        <v>-155523.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH20" s="1">
-        <v>-464553.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI20" s="2">
-        <v>0.41322314049587</v>
+        <v>0.39465212121212</v>
       </c>
       <c r="AJ20" s="1">
-        <v>-150000.0</v>
+        <v>-33578.0</v>
       </c>
       <c r="AK20" s="1">
-        <v>-750000.0</v>
+        <v>-167890.0</v>
       </c>
       <c r="AL20" s="1">
-        <v>-150000.0</v>
+        <v>-140588.0</v>
       </c>
       <c r="AM20" s="1"/>
-      <c r="AN20" s="2"/>
+      <c r="AN20" s="2">
+        <v>0.66</v>
+      </c>
       <c r="AO20" t="s">
         <v>50</v>
       </c>
@@ -7072,8 +7019,12 @@
       <c r="B21" s="1">
         <v>31</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="4">
+        <v>231594.0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.1</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="2"/>
       <c r="G21" s="1">
@@ -7081,39 +7032,43 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="1">
-        <v>150000.0</v>
+        <v>244118.0</v>
       </c>
       <c r="J21" s="2">
         <v>0.1</v>
       </c>
       <c r="K21" s="1">
-        <v>150000.0</v>
+        <v>130235.0</v>
       </c>
       <c r="L21" s="1">
-        <v>0.0</v>
+        <v>113883.0</v>
       </c>
       <c r="M21" s="1">
-        <v>1500000.0</v>
-      </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="2"/>
+        <v>1188469.0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>28651.7</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P21" s="6">
-        <v>3993000.0</v>
+        <v>3630000.0</v>
       </c>
       <c r="Q21" s="2">
         <v>0.1</v>
       </c>
       <c r="R21" s="1">
-        <v>2493000.0</v>
+        <v>2441531.0</v>
       </c>
       <c r="S21" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T21" s="1">
-        <v>1950000.0</v>
+        <v>1988236.0</v>
       </c>
       <c r="U21" s="6">
-        <v>998250.0</v>
+        <v>907500.0</v>
       </c>
       <c r="V21" s="2">
         <v>0.25</v>
@@ -7125,13 +7080,13 @@
         <v>0.01</v>
       </c>
       <c r="Y21" s="1">
-        <v>6285.3</v>
+        <v>5523.0</v>
       </c>
       <c r="Z21" s="2">
         <v>0.003</v>
       </c>
       <c r="AA21" s="1">
-        <v>3993000.0</v>
+        <v>3630000.0</v>
       </c>
       <c r="AB21" s="1">
         <v>0</v>
@@ -7145,25 +7100,27 @@
       </c>
       <c r="AF21" s="2"/>
       <c r="AG21" s="1">
-        <v>-156285.3</v>
+        <v>0.0</v>
       </c>
       <c r="AH21" s="1">
-        <v>-620838.3</v>
+        <v>0.0</v>
       </c>
       <c r="AI21" s="2">
-        <v>0.37565740045079</v>
+        <v>0.32740192837466</v>
       </c>
       <c r="AJ21" s="1">
-        <v>-150000.0</v>
+        <v>-12524.0</v>
       </c>
       <c r="AK21" s="1">
-        <v>-750000.0</v>
+        <v>-62620.0</v>
       </c>
       <c r="AL21" s="1">
-        <v>-150000.0</v>
+        <v>-130235.0</v>
       </c>
       <c r="AM21" s="1"/>
-      <c r="AN21" s="2"/>
+      <c r="AN21" s="2">
+        <v>0.56</v>
+      </c>
       <c r="AO21" t="s">
         <v>51</v>
       </c>
@@ -7175,8 +7132,12 @@
       <c r="B22" s="1">
         <v>32</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="2"/>
+      <c r="C22" s="4">
+        <v>254753.4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.1</v>
+      </c>
       <c r="E22" s="5"/>
       <c r="F22" s="2"/>
       <c r="G22" s="1">
@@ -7184,39 +7145,43 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="1">
-        <v>150000.0</v>
+        <v>244118.0</v>
       </c>
       <c r="J22" s="2">
         <v>0.1</v>
       </c>
       <c r="K22" s="1">
-        <v>150000.0</v>
+        <v>118847.0</v>
       </c>
       <c r="L22" s="1">
-        <v>0.0</v>
+        <v>125271.0</v>
       </c>
       <c r="M22" s="1">
-        <v>1500000.0</v>
-      </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="2"/>
+        <v>1063198.0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>26146.34</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P22" s="6">
-        <v>4392300.0</v>
+        <v>3993000.0</v>
       </c>
       <c r="Q22" s="2">
         <v>0.1</v>
       </c>
       <c r="R22" s="1">
-        <v>2892300.0</v>
+        <v>2929802.0</v>
       </c>
       <c r="S22" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T22" s="1">
-        <v>2100000.0</v>
+        <v>2232354.0</v>
       </c>
       <c r="U22" s="6">
-        <v>1098075.0</v>
+        <v>998250.0</v>
       </c>
       <c r="V22" s="2">
         <v>0.25</v>
@@ -7228,13 +7193,13 @@
         <v>0.01</v>
       </c>
       <c r="Y22" s="1">
-        <v>7123.83</v>
+        <v>6285.3</v>
       </c>
       <c r="Z22" s="2">
         <v>0.003</v>
       </c>
       <c r="AA22" s="1">
-        <v>4392300.0</v>
+        <v>3993000.0</v>
       </c>
       <c r="AB22" s="1">
         <v>0</v>
@@ -7248,25 +7213,27 @@
       </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="1">
-        <v>-157123.83</v>
+        <v>0</v>
       </c>
       <c r="AH22" s="1">
-        <v>-777962.13</v>
+        <v>0.0</v>
       </c>
       <c r="AI22" s="2">
-        <v>0.34150672768254</v>
+        <v>0.26626546456299</v>
       </c>
       <c r="AJ22" s="1">
-        <v>-150000.0</v>
+        <v>10635.4</v>
       </c>
       <c r="AK22" s="1">
-        <v>-750000.0</v>
+        <v>53177.0</v>
       </c>
       <c r="AL22" s="1">
-        <v>-150000.0</v>
+        <v>-118847.0</v>
       </c>
       <c r="AM22" s="1"/>
-      <c r="AN22" s="2"/>
+      <c r="AN22" s="2">
+        <v>0.46</v>
+      </c>
       <c r="AO22" t="s">
         <v>52</v>
       </c>
@@ -7278,8 +7245,12 @@
       <c r="B23" s="1">
         <v>33</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="2"/>
+      <c r="C23" s="4">
+        <v>280228.3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.1</v>
+      </c>
       <c r="E23" s="5"/>
       <c r="F23" s="2"/>
       <c r="G23" s="1">
@@ -7287,39 +7258,43 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="1">
-        <v>395696.0</v>
+        <v>211480.0</v>
       </c>
       <c r="J23" s="2">
         <v>0.1</v>
       </c>
       <c r="K23" s="1">
-        <v>150000.0</v>
+        <v>92105.0</v>
       </c>
       <c r="L23" s="1">
-        <v>245696.0</v>
+        <v>119375.0</v>
       </c>
       <c r="M23" s="1">
-        <v>1254304.0</v>
-      </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="2"/>
+        <v>801675.0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>20263.1</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P23" s="6">
-        <v>4831530.0</v>
+        <v>4392300.0</v>
       </c>
       <c r="Q23" s="2">
         <v>0.1</v>
       </c>
       <c r="R23" s="1">
-        <v>3577226.0</v>
+        <v>3590625.0</v>
       </c>
       <c r="S23" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T23" s="1">
-        <v>2495696.0</v>
+        <v>2443834.0</v>
       </c>
       <c r="U23" s="6">
-        <v>1207882.5</v>
+        <v>1098075.0</v>
       </c>
       <c r="V23" s="2">
         <v>0.25</v>
@@ -7331,13 +7306,13 @@
         <v>0.01</v>
       </c>
       <c r="Y23" s="1">
-        <v>8046.213</v>
+        <v>7123.83</v>
       </c>
       <c r="Z23" s="2">
         <v>0.003</v>
       </c>
       <c r="AA23" s="1">
-        <v>4831530.0</v>
+        <v>4392300.0</v>
       </c>
       <c r="AB23" s="1">
         <v>0</v>
@@ -7351,25 +7326,27 @@
       </c>
       <c r="AF23" s="2"/>
       <c r="AG23" s="1">
-        <v>-403742.213</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="1">
-        <v>-1181704.343</v>
+        <v>0.0</v>
       </c>
       <c r="AI23" s="2">
-        <v>0.25960803306613</v>
+        <v>0.18251827060993</v>
       </c>
       <c r="AJ23" s="1">
-        <v>-395696.0</v>
+        <v>68748.3</v>
       </c>
       <c r="AK23" s="1">
-        <v>-1978480.0</v>
+        <v>343741.5</v>
       </c>
       <c r="AL23" s="1">
-        <v>-150000.0</v>
+        <v>-92105.0</v>
       </c>
       <c r="AM23" s="1"/>
-      <c r="AN23" s="2"/>
+      <c r="AN23" s="2">
+        <v>0.32</v>
+      </c>
       <c r="AO23" t="s">
         <v>53</v>
       </c>
@@ -7381,8 +7358,12 @@
       <c r="B24" s="1">
         <v>34</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="2"/>
+      <c r="C24" s="4">
+        <v>308250.8</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.1</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="2"/>
       <c r="G24" s="1">
@@ -7390,39 +7371,43 @@
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="1">
-        <v>395696.0</v>
+        <v>160584.0</v>
       </c>
       <c r="J24" s="2">
         <v>0.1</v>
       </c>
       <c r="K24" s="1">
-        <v>125430.0</v>
+        <v>60874.0</v>
       </c>
       <c r="L24" s="1">
-        <v>270266.0</v>
+        <v>99710.0</v>
       </c>
       <c r="M24" s="1">
-        <v>984038.0</v>
-      </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="2"/>
+        <v>509029.0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>13392.28</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P24" s="6">
-        <v>5314683.0</v>
+        <v>4831530.0</v>
       </c>
       <c r="Q24" s="2">
         <v>0.1</v>
       </c>
       <c r="R24" s="1">
-        <v>4330645.0</v>
+        <v>4322501.0</v>
       </c>
       <c r="S24" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T24" s="1">
-        <v>2891392.0</v>
+        <v>2604418.0</v>
       </c>
       <c r="U24" s="6">
-        <v>1328670.75</v>
+        <v>1207882.5</v>
       </c>
       <c r="V24" s="2">
         <v>0.25</v>
@@ -7434,13 +7419,13 @@
         <v>0.01</v>
       </c>
       <c r="Y24" s="1">
-        <v>9060.8343</v>
+        <v>8046.213</v>
       </c>
       <c r="Z24" s="2">
         <v>0.003</v>
       </c>
       <c r="AA24" s="1">
-        <v>5314683.0</v>
+        <v>4831530.0</v>
       </c>
       <c r="AB24" s="1">
         <v>0</v>
@@ -7454,25 +7439,27 @@
       </c>
       <c r="AF24" s="2"/>
       <c r="AG24" s="1">
-        <v>-404756.8343</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="1">
-        <v>-1586461.1773</v>
+        <v>0.0</v>
       </c>
       <c r="AI24" s="2">
-        <v>0.18515459906075</v>
+        <v>0.10535565338516</v>
       </c>
       <c r="AJ24" s="1">
-        <v>-395696.0</v>
+        <v>147666.8</v>
       </c>
       <c r="AK24" s="1">
-        <v>-1978480.0</v>
+        <v>738334.0</v>
       </c>
       <c r="AL24" s="1">
-        <v>-125430.0</v>
+        <v>-60874.0</v>
       </c>
       <c r="AM24" s="1"/>
-      <c r="AN24" s="2"/>
+      <c r="AN24" s="2">
+        <v>0.19</v>
+      </c>
       <c r="AO24" t="s">
         <v>54</v>
       </c>
@@ -7484,8 +7471,12 @@
       <c r="B25" s="1">
         <v>35</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="2"/>
+      <c r="C25" s="4">
+        <v>339076.1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.1</v>
+      </c>
       <c r="E25" s="5"/>
       <c r="F25" s="2"/>
       <c r="G25" s="1">
@@ -7493,39 +7484,43 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="1">
-        <v>395696.0</v>
+        <v>81936.0</v>
       </c>
       <c r="J25" s="2">
         <v>0.1</v>
       </c>
       <c r="K25" s="1">
-        <v>98404.0</v>
+        <v>25973.0</v>
       </c>
       <c r="L25" s="1">
-        <v>297292.0</v>
+        <v>55964.0</v>
       </c>
       <c r="M25" s="1">
-        <v>686746.0</v>
-      </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="2"/>
+        <v>203763.0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>5714.06</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P25" s="6">
-        <v>5846151.0</v>
+        <v>5314683.0</v>
       </c>
       <c r="Q25" s="2">
         <v>0.1</v>
       </c>
       <c r="R25" s="1">
-        <v>5159405.0</v>
+        <v>5110920.0</v>
       </c>
       <c r="S25" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T25" s="1">
-        <v>3287088.0</v>
+        <v>2686354.0</v>
       </c>
       <c r="U25" s="6">
-        <v>1461537.75</v>
+        <v>1328670.75</v>
       </c>
       <c r="V25" s="2">
         <v>0.25</v>
@@ -7537,13 +7532,13 @@
         <v>0.01</v>
       </c>
       <c r="Y25" s="1">
-        <v>10176.9171</v>
+        <v>9060.8343</v>
       </c>
       <c r="Z25" s="2">
         <v>0.003</v>
       </c>
       <c r="AA25" s="1">
-        <v>5846151.0</v>
+        <v>5314683.0</v>
       </c>
       <c r="AB25" s="1">
         <v>0</v>
@@ -7557,25 +7552,27 @@
       </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="1">
-        <v>-405872.9171</v>
+        <v>105876.0</v>
       </c>
       <c r="AH25" s="1">
-        <v>-1992334.0944</v>
+        <v>105876.0</v>
       </c>
       <c r="AI25" s="2">
-        <v>0.11746976771554</v>
+        <v>0.038339633803183</v>
       </c>
       <c r="AJ25" s="1">
-        <v>-395696.0</v>
+        <v>257140.1</v>
       </c>
       <c r="AK25" s="1">
-        <v>-1978480.0</v>
+        <v>1285700.5</v>
       </c>
       <c r="AL25" s="1">
-        <v>-98404.0</v>
+        <v>-25973.0</v>
       </c>
       <c r="AM25" s="1"/>
-      <c r="AN25" s="2"/>
+      <c r="AN25" s="2">
+        <v>0.07</v>
+      </c>
       <c r="AO25" t="s">
         <v>55</v>
       </c>
@@ -7587,48 +7584,42 @@
       <c r="B26" s="1">
         <v>36</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="2"/>
+      <c r="C26" s="4">
+        <v>372983.6</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.1</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="2"/>
       <c r="G26" s="1">
         <v>0.0</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="1">
-        <v>395696.0</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K26" s="1">
-        <v>68675.0</v>
-      </c>
-      <c r="L26" s="1">
-        <v>327022.0</v>
-      </c>
-      <c r="M26" s="1">
-        <v>359724.0</v>
-      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
-        <v>6430766.0</v>
+        <v>5846151.0</v>
       </c>
       <c r="Q26" s="2">
         <v>0.1</v>
       </c>
       <c r="R26" s="1">
-        <v>6071042.0</v>
+        <v>5846151.0</v>
       </c>
       <c r="S26" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T26" s="1">
-        <v>3682784.0</v>
+        <v>2686354.0</v>
       </c>
       <c r="U26" s="6">
-        <v>1607691.5</v>
+        <v>1461537.75</v>
       </c>
       <c r="V26" s="2">
         <v>0.25</v>
@@ -7640,13 +7631,13 @@
         <v>0.01</v>
       </c>
       <c r="Y26" s="1">
-        <v>11404.6086</v>
+        <v>10176.9171</v>
       </c>
       <c r="Z26" s="2">
         <v>0.003</v>
       </c>
       <c r="AA26" s="1">
-        <v>6430766.0</v>
+        <v>5846151.0</v>
       </c>
       <c r="AB26" s="1">
         <v>0</v>
@@ -7660,22 +7651,20 @@
       </c>
       <c r="AF26" s="2"/>
       <c r="AG26" s="1">
-        <v>-407100.6086</v>
+        <v>362807.0</v>
       </c>
       <c r="AH26" s="1">
-        <v>-2399434.703</v>
-      </c>
-      <c r="AI26" s="2">
-        <v>0.05593797068654</v>
-      </c>
+        <v>468683.0</v>
+      </c>
+      <c r="AI26" s="2"/>
       <c r="AJ26" s="1">
-        <v>-395696.0</v>
+        <v>372983.6</v>
       </c>
       <c r="AK26" s="1">
-        <v>-1978480.0</v>
+        <v>1864918.0</v>
       </c>
       <c r="AL26" s="1">
-        <v>-68675.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM26" s="1"/>
       <c r="AN26" s="2"/>
@@ -7690,66 +7679,60 @@
       <c r="B27" s="1">
         <v>37</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="2"/>
+      <c r="C27" s="4">
+        <v>410282.4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.1</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="2"/>
       <c r="G27" s="1">
         <v>0.0</v>
       </c>
       <c r="H27" s="2"/>
-      <c r="I27" s="1">
-        <v>395696.0</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K27" s="1">
-        <v>35972.0</v>
-      </c>
-      <c r="L27" s="1">
-        <v>359724.0</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
-        <v>7073843.0</v>
+        <v>6430766.0</v>
       </c>
       <c r="Q27" s="2">
         <v>0.1</v>
       </c>
       <c r="R27" s="1">
-        <v>7073843.0</v>
+        <v>6430766.0</v>
       </c>
       <c r="S27" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T27" s="1">
-        <v>4078480.0</v>
+        <v>2686354.0</v>
       </c>
       <c r="U27" s="6">
-        <v>1768460.75</v>
+        <v>1607691.5</v>
       </c>
       <c r="V27" s="2">
         <v>0.25</v>
       </c>
       <c r="W27" s="1">
-        <v>684.6075</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2">
         <v>0.01</v>
       </c>
       <c r="Y27" s="1">
-        <v>12755.0703</v>
+        <v>11404.6086</v>
       </c>
       <c r="Z27" s="2">
         <v>0.003</v>
       </c>
       <c r="AA27" s="1">
-        <v>7073843.0</v>
+        <v>6430766.0</v>
       </c>
       <c r="AB27" s="1">
         <v>0</v>
@@ -7763,20 +7746,20 @@
       </c>
       <c r="AF27" s="2"/>
       <c r="AG27" s="1">
-        <v>-409135.6778</v>
+        <v>398878.0</v>
       </c>
       <c r="AH27" s="1">
-        <v>-2808570.3808</v>
+        <v>867561.0</v>
       </c>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="1">
-        <v>-395696.0</v>
+        <v>410282.4</v>
       </c>
       <c r="AK27" s="1">
-        <v>-1978480.0</v>
+        <v>2051412.0</v>
       </c>
       <c r="AL27" s="1">
-        <v>-35972.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM27" s="1"/>
       <c r="AN27" s="2"/>
@@ -7791,8 +7774,12 @@
       <c r="B28" s="1">
         <v>38</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="2"/>
+      <c r="C28" s="4">
+        <v>451310.2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.1</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="2"/>
       <c r="G28" s="1">
@@ -7807,40 +7794,40 @@
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
-        <v>7781227.0</v>
+        <v>7073843.0</v>
       </c>
       <c r="Q28" s="2">
         <v>0.1</v>
       </c>
       <c r="R28" s="1">
-        <v>7781227.0</v>
+        <v>7073843.0</v>
       </c>
       <c r="S28" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T28" s="1">
-        <v>4078480.0</v>
+        <v>2686354.0</v>
       </c>
       <c r="U28" s="6">
-        <v>1945306.75</v>
+        <v>1768460.75</v>
       </c>
       <c r="V28" s="2">
         <v>0.25</v>
       </c>
       <c r="W28" s="1">
-        <v>2453.0675</v>
+        <v>684.6075</v>
       </c>
       <c r="X28" s="2">
         <v>0.01</v>
       </c>
       <c r="Y28" s="1">
-        <v>14240.5767</v>
+        <v>12755.0703</v>
       </c>
       <c r="Z28" s="2">
         <v>0.003</v>
       </c>
       <c r="AA28" s="1">
-        <v>7781227.0</v>
+        <v>7073843.0</v>
       </c>
       <c r="AB28" s="1">
         <v>0</v>
@@ -7854,17 +7841,17 @@
       </c>
       <c r="AF28" s="2"/>
       <c r="AG28" s="1">
-        <v>-16693.6442</v>
+        <v>437871.0</v>
       </c>
       <c r="AH28" s="1">
-        <v>-2825264.025</v>
+        <v>1305432.0</v>
       </c>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="1">
-        <v>0</v>
+        <v>451310.2</v>
       </c>
       <c r="AK28" s="1">
-        <v>0</v>
+        <v>2256551.0</v>
       </c>
       <c r="AL28" s="1">
         <v>0.0</v>
@@ -7882,8 +7869,12 @@
       <c r="B29" s="1">
         <v>39</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="2"/>
+      <c r="C29" s="4">
+        <v>496441.0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.1</v>
+      </c>
       <c r="E29" s="5"/>
       <c r="F29" s="2"/>
       <c r="G29" s="1">
@@ -7898,40 +7889,40 @@
       <c r="N29" s="1"/>
       <c r="O29" s="2"/>
       <c r="P29" s="6">
-        <v>8559350.0</v>
+        <v>7781227.0</v>
       </c>
       <c r="Q29" s="2">
         <v>0.1</v>
       </c>
       <c r="R29" s="1">
-        <v>8559350.0</v>
+        <v>7781227.0</v>
       </c>
       <c r="S29" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T29" s="1">
-        <v>4078480.0</v>
+        <v>2686354.0</v>
       </c>
       <c r="U29" s="6">
-        <v>2139837.5</v>
+        <v>1945306.75</v>
       </c>
       <c r="V29" s="2">
         <v>0.25</v>
       </c>
       <c r="W29" s="1">
-        <v>4398.375</v>
+        <v>2453.0675</v>
       </c>
       <c r="X29" s="2">
         <v>0.01</v>
       </c>
       <c r="Y29" s="1">
-        <v>15874.635</v>
+        <v>14240.5767</v>
       </c>
       <c r="Z29" s="2">
         <v>0.003</v>
       </c>
       <c r="AA29" s="1">
-        <v>8559350.0</v>
+        <v>7781227.0</v>
       </c>
       <c r="AB29" s="1">
         <v>0</v>
@@ -7945,17 +7936,17 @@
       </c>
       <c r="AF29" s="2"/>
       <c r="AG29" s="1">
-        <v>-20273.01</v>
+        <v>479747.0</v>
       </c>
       <c r="AH29" s="1">
-        <v>-2845537.035</v>
+        <v>1785179.0</v>
       </c>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="1">
-        <v>0</v>
+        <v>496441.0</v>
       </c>
       <c r="AK29" s="1">
-        <v>0</v>
+        <v>2482205.0</v>
       </c>
       <c r="AL29" s="1">
         <v>0.0</v>
@@ -7973,8 +7964,12 @@
       <c r="B30" s="1">
         <v>40</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="2"/>
+      <c r="C30" s="4">
+        <v>546085.1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.1</v>
+      </c>
       <c r="E30" s="5"/>
       <c r="F30" s="2"/>
       <c r="G30" s="1">
@@ -7989,40 +7984,40 @@
       <c r="N30" s="1"/>
       <c r="O30" s="2"/>
       <c r="P30" s="6">
-        <v>9415285.0</v>
+        <v>8559350.0</v>
       </c>
       <c r="Q30" s="2">
         <v>0.1</v>
       </c>
       <c r="R30" s="1">
-        <v>9415285.0</v>
+        <v>8559350.0</v>
       </c>
       <c r="S30" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T30" s="1">
-        <v>4078480.0</v>
+        <v>2686354.0</v>
       </c>
       <c r="U30" s="6">
-        <v>2353821.25</v>
+        <v>2139837.5</v>
       </c>
       <c r="V30" s="2">
         <v>0.25</v>
       </c>
       <c r="W30" s="1">
-        <v>6538.2125</v>
+        <v>4398.375</v>
       </c>
       <c r="X30" s="2">
         <v>0.01</v>
       </c>
       <c r="Y30" s="1">
-        <v>17672.0985</v>
+        <v>15874.635</v>
       </c>
       <c r="Z30" s="2">
         <v>0.003</v>
       </c>
       <c r="AA30" s="1">
-        <v>9415285.0</v>
+        <v>8559350.0</v>
       </c>
       <c r="AB30" s="1">
         <v>0</v>
@@ -8036,17 +8031,17 @@
       </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="1">
-        <v>-24210.311</v>
+        <v>525812.0</v>
       </c>
       <c r="AH30" s="1">
-        <v>-2869747.346</v>
+        <v>2310991.0</v>
       </c>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="1">
-        <v>0</v>
+        <v>546085.1</v>
       </c>
       <c r="AK30" s="1">
-        <v>0</v>
+        <v>2730425.5</v>
       </c>
       <c r="AL30" s="1">
         <v>0.0</v>
@@ -8064,8 +8059,12 @@
       <c r="B31" s="1">
         <v>41</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="2"/>
+      <c r="C31" s="4">
+        <v>600693.5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.1</v>
+      </c>
       <c r="E31" s="5"/>
       <c r="F31" s="2"/>
       <c r="G31" s="1">
@@ -8080,40 +8079,40 @@
       <c r="N31" s="1"/>
       <c r="O31" s="2"/>
       <c r="P31" s="6">
-        <v>10356814.0</v>
+        <v>9415285.0</v>
       </c>
       <c r="Q31" s="2">
         <v>0.1</v>
       </c>
       <c r="R31" s="1">
-        <v>10356814.0</v>
+        <v>9415285.0</v>
       </c>
       <c r="S31" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T31" s="1">
-        <v>4078480.0</v>
+        <v>2686354.0</v>
       </c>
       <c r="U31" s="6">
-        <v>2589203.5</v>
+        <v>2353821.25</v>
       </c>
       <c r="V31" s="2">
         <v>0.25</v>
       </c>
       <c r="W31" s="1">
-        <v>8892.035</v>
+        <v>6538.2125</v>
       </c>
       <c r="X31" s="2">
         <v>0.01</v>
       </c>
       <c r="Y31" s="1">
-        <v>19649.3094</v>
+        <v>17672.0985</v>
       </c>
       <c r="Z31" s="2">
         <v>0.003</v>
       </c>
       <c r="AA31" s="1">
-        <v>10356814.0</v>
+        <v>9415285.0</v>
       </c>
       <c r="AB31" s="1">
         <v>0</v>
@@ -8127,17 +8126,17 @@
       </c>
       <c r="AF31" s="2"/>
       <c r="AG31" s="1">
-        <v>-28541.3444</v>
+        <v>576483.0</v>
       </c>
       <c r="AH31" s="1">
-        <v>-2898288.6904</v>
+        <v>2887474.0</v>
       </c>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="1">
-        <v>0</v>
+        <v>600693.5</v>
       </c>
       <c r="AK31" s="1">
-        <v>0</v>
+        <v>3003467.5</v>
       </c>
       <c r="AL31" s="1">
         <v>0.0</v>
@@ -8155,8 +8154,12 @@
       <c r="B32" s="1">
         <v>42</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="2"/>
+      <c r="C32" s="4">
+        <v>660763.4</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.1</v>
+      </c>
       <c r="E32" s="5"/>
       <c r="F32" s="2"/>
       <c r="G32" s="1">
@@ -8171,40 +8174,40 @@
       <c r="N32" s="1"/>
       <c r="O32" s="2"/>
       <c r="P32" s="6">
-        <v>11392495.0</v>
+        <v>10356814.0</v>
       </c>
       <c r="Q32" s="2">
         <v>0.1</v>
       </c>
       <c r="R32" s="1">
-        <v>11392495.0</v>
+        <v>10356814.0</v>
       </c>
       <c r="S32" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T32" s="1">
-        <v>4078480.0</v>
+        <v>2686354.0</v>
       </c>
       <c r="U32" s="6">
-        <v>2848123.75</v>
+        <v>2589203.5</v>
       </c>
       <c r="V32" s="2">
         <v>0.25</v>
       </c>
       <c r="W32" s="1">
-        <v>11481.2375</v>
+        <v>8892.035</v>
       </c>
       <c r="X32" s="2">
         <v>0.01</v>
       </c>
       <c r="Y32" s="1">
-        <v>21824.2395</v>
+        <v>19649.3094</v>
       </c>
       <c r="Z32" s="2">
         <v>0.003</v>
       </c>
       <c r="AA32" s="1">
-        <v>11392495.0</v>
+        <v>10356814.0</v>
       </c>
       <c r="AB32" s="1">
         <v>0</v>
@@ -8218,17 +8221,17 @@
       </c>
       <c r="AF32" s="2"/>
       <c r="AG32" s="1">
-        <v>-33305.477</v>
+        <v>632222.0</v>
       </c>
       <c r="AH32" s="1">
-        <v>-2931594.1674</v>
+        <v>3519696.0</v>
       </c>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="1">
-        <v>0</v>
+        <v>660763.4</v>
       </c>
       <c r="AK32" s="1">
-        <v>0</v>
+        <v>3303817.0</v>
       </c>
       <c r="AL32" s="1">
         <v>0.0</v>
@@ -8246,8 +8249,12 @@
       <c r="B33" s="1">
         <v>43</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="2"/>
+      <c r="C33" s="4">
+        <v>726839.3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.1</v>
+      </c>
       <c r="E33" s="5"/>
       <c r="F33" s="2"/>
       <c r="G33" s="1">
@@ -8262,40 +8269,40 @@
       <c r="N33" s="1"/>
       <c r="O33" s="2"/>
       <c r="P33" s="6">
-        <v>12531745.0</v>
+        <v>11392495.0</v>
       </c>
       <c r="Q33" s="2">
         <v>0.1</v>
       </c>
       <c r="R33" s="1">
-        <v>12531745.0</v>
+        <v>11392495.0</v>
       </c>
       <c r="S33" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T33" s="1">
-        <v>4078480.0</v>
+        <v>2686354.0</v>
       </c>
       <c r="U33" s="6">
-        <v>3132936.25</v>
+        <v>2848123.75</v>
       </c>
       <c r="V33" s="2">
         <v>0.25</v>
       </c>
       <c r="W33" s="1">
-        <v>14329.3625</v>
+        <v>11481.2375</v>
       </c>
       <c r="X33" s="2">
         <v>0.01</v>
       </c>
       <c r="Y33" s="1">
-        <v>24216.6645</v>
+        <v>21824.2395</v>
       </c>
       <c r="Z33" s="2">
         <v>0.003</v>
       </c>
       <c r="AA33" s="1">
-        <v>12531745.0</v>
+        <v>11392495.0</v>
       </c>
       <c r="AB33" s="1">
         <v>0</v>
@@ -8309,17 +8316,17 @@
       </c>
       <c r="AF33" s="2"/>
       <c r="AG33" s="1">
-        <v>-38546.027</v>
+        <v>693534.0</v>
       </c>
       <c r="AH33" s="1">
-        <v>-2970140.1944</v>
+        <v>4213230.0</v>
       </c>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="1">
-        <v>0</v>
+        <v>726839.3</v>
       </c>
       <c r="AK33" s="1">
-        <v>0</v>
+        <v>3634196.5</v>
       </c>
       <c r="AL33" s="1">
         <v>0.0</v>
@@ -8337,8 +8344,12 @@
       <c r="B34" s="1">
         <v>44</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="2"/>
+      <c r="C34" s="4">
+        <v>799522.9</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.1</v>
+      </c>
       <c r="E34" s="5"/>
       <c r="F34" s="2"/>
       <c r="G34" s="1">
@@ -8353,40 +8364,40 @@
       <c r="N34" s="1"/>
       <c r="O34" s="2"/>
       <c r="P34" s="6">
-        <v>13784920.0</v>
+        <v>12531745.0</v>
       </c>
       <c r="Q34" s="2">
         <v>0.1</v>
       </c>
       <c r="R34" s="1">
-        <v>13784920.0</v>
+        <v>12531745.0</v>
       </c>
       <c r="S34" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T34" s="1">
-        <v>4078480.0</v>
+        <v>2686354.0</v>
       </c>
       <c r="U34" s="6">
-        <v>3446230.0</v>
+        <v>3132936.25</v>
       </c>
       <c r="V34" s="2">
         <v>0.25</v>
       </c>
       <c r="W34" s="1">
-        <v>17462.3</v>
+        <v>14329.3625</v>
       </c>
       <c r="X34" s="2">
         <v>0.01</v>
       </c>
       <c r="Y34" s="1">
-        <v>26848.332</v>
+        <v>24216.6645</v>
       </c>
       <c r="Z34" s="2">
         <v>0.003</v>
       </c>
       <c r="AA34" s="1">
-        <v>13784920.0</v>
+        <v>12531745.0</v>
       </c>
       <c r="AB34" s="1">
         <v>0</v>
@@ -8400,17 +8411,17 @@
       </c>
       <c r="AF34" s="2"/>
       <c r="AG34" s="1">
-        <v>-44310.632</v>
+        <v>760977.0</v>
       </c>
       <c r="AH34" s="1">
-        <v>-3014450.8264</v>
+        <v>4974207.0</v>
       </c>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="1">
-        <v>0</v>
+        <v>799522.9</v>
       </c>
       <c r="AK34" s="1">
-        <v>0</v>
+        <v>3997614.5</v>
       </c>
       <c r="AL34" s="1">
         <v>0.0</v>
@@ -8428,8 +8439,12 @@
       <c r="B35" s="1">
         <v>45</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="2"/>
+      <c r="C35" s="4">
+        <v>879475.3</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.1</v>
+      </c>
       <c r="E35" s="5"/>
       <c r="F35" s="2"/>
       <c r="G35" s="1">
@@ -8444,40 +8459,40 @@
       <c r="N35" s="1"/>
       <c r="O35" s="2"/>
       <c r="P35" s="6">
-        <v>15163412.0</v>
+        <v>13784920.0</v>
       </c>
       <c r="Q35" s="2">
         <v>0.1</v>
       </c>
       <c r="R35" s="1">
-        <v>15163412.0</v>
+        <v>13784920.0</v>
       </c>
       <c r="S35" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T35" s="1">
-        <v>4078480.0</v>
+        <v>2686354.0</v>
       </c>
       <c r="U35" s="6">
-        <v>3790853.0</v>
+        <v>3446230.0</v>
       </c>
       <c r="V35" s="2">
         <v>0.25</v>
       </c>
       <c r="W35" s="1">
-        <v>20908.53</v>
+        <v>17462.3</v>
       </c>
       <c r="X35" s="2">
         <v>0.01</v>
       </c>
       <c r="Y35" s="1">
-        <v>29743.1652</v>
+        <v>26848.332</v>
       </c>
       <c r="Z35" s="2">
         <v>0.003</v>
       </c>
       <c r="AA35" s="1">
-        <v>15163412.0</v>
+        <v>13784920.0</v>
       </c>
       <c r="AB35" s="1">
         <v>0</v>
@@ -8491,17 +8506,17 @@
       </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="1">
-        <v>-50651.6952</v>
+        <v>835165.0</v>
       </c>
       <c r="AH35" s="1">
-        <v>-3065102.5216</v>
+        <v>5809372.0</v>
       </c>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="1">
-        <v>0</v>
+        <v>879475.3</v>
       </c>
       <c r="AK35" s="1">
-        <v>0</v>
+        <v>4397376.5</v>
       </c>
       <c r="AL35" s="1">
         <v>0.0</v>
@@ -8519,8 +8534,12 @@
       <c r="B36" s="1">
         <v>46</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="2"/>
+      <c r="C36" s="4">
+        <v>967422.5</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.1</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="2"/>
       <c r="G36" s="1">
@@ -8535,40 +8554,40 @@
       <c r="N36" s="1"/>
       <c r="O36" s="2"/>
       <c r="P36" s="6">
-        <v>16679753.0</v>
+        <v>15163412.0</v>
       </c>
       <c r="Q36" s="2">
         <v>0.1</v>
       </c>
       <c r="R36" s="1">
-        <v>16679753.0</v>
+        <v>15163412.0</v>
       </c>
       <c r="S36" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T36" s="1">
-        <v>4078480.0</v>
+        <v>2686354.0</v>
       </c>
       <c r="U36" s="6">
-        <v>4169938.25</v>
+        <v>3790853.0</v>
       </c>
       <c r="V36" s="2">
         <v>0.25</v>
       </c>
       <c r="W36" s="1">
-        <v>24699.3825</v>
+        <v>20908.53</v>
       </c>
       <c r="X36" s="2">
         <v>0.01</v>
       </c>
       <c r="Y36" s="1">
-        <v>32927.4813</v>
+        <v>29743.1652</v>
       </c>
       <c r="Z36" s="2">
         <v>0.003</v>
       </c>
       <c r="AA36" s="1">
-        <v>16679753.0</v>
+        <v>15163412.0</v>
       </c>
       <c r="AB36" s="1">
         <v>0</v>
@@ -8582,17 +8601,17 @@
       </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="1">
-        <v>-57626.8638</v>
+        <v>916771.0</v>
       </c>
       <c r="AH36" s="1">
-        <v>-3122729.3854</v>
+        <v>6726143.0</v>
       </c>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="1">
-        <v>0</v>
+        <v>967422.5</v>
       </c>
       <c r="AK36" s="1">
-        <v>0</v>
+        <v>4837112.5</v>
       </c>
       <c r="AL36" s="1">
         <v>0.0</v>
@@ -8610,8 +8629,12 @@
       <c r="B37" s="1">
         <v>47</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="2"/>
+      <c r="C37" s="4">
+        <v>1064165.3</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.1</v>
+      </c>
       <c r="E37" s="5"/>
       <c r="F37" s="2"/>
       <c r="G37" s="1">
@@ -8626,40 +8649,40 @@
       <c r="N37" s="1"/>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>18347728.0</v>
+        <v>16679753.0</v>
       </c>
       <c r="Q37" s="2">
         <v>0.1</v>
       </c>
       <c r="R37" s="1">
-        <v>18347728.0</v>
+        <v>16679753.0</v>
       </c>
       <c r="S37" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T37" s="1">
-        <v>4078480.0</v>
+        <v>2686354.0</v>
       </c>
       <c r="U37" s="6">
-        <v>4586932.0</v>
+        <v>4169938.25</v>
       </c>
       <c r="V37" s="2">
         <v>0.25</v>
       </c>
       <c r="W37" s="1">
-        <v>28869.32</v>
+        <v>24699.3825</v>
       </c>
       <c r="X37" s="2">
         <v>0.01</v>
       </c>
       <c r="Y37" s="1">
-        <v>36430.2288</v>
+        <v>32927.4813</v>
       </c>
       <c r="Z37" s="2">
         <v>0.003</v>
       </c>
       <c r="AA37" s="1">
-        <v>18347728.0</v>
+        <v>16679753.0</v>
       </c>
       <c r="AB37" s="1">
         <v>0</v>
@@ -8673,17 +8696,17 @@
       </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="1">
-        <v>-65299.5488</v>
+        <v>1006538.0</v>
       </c>
       <c r="AH37" s="1">
-        <v>-3188028.9342</v>
+        <v>7732681.0</v>
       </c>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="1">
-        <v>0</v>
+        <v>1064165.3</v>
       </c>
       <c r="AK37" s="1">
-        <v>0</v>
+        <v>5320826.5</v>
       </c>
       <c r="AL37" s="1">
         <v>0.0</v>
@@ -8701,8 +8724,12 @@
       <c r="B38" s="5">
         <v>48</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="16"/>
+      <c r="C38" s="5">
+        <v>1170581.5</v>
+      </c>
+      <c r="D38" s="16">
+        <v>0.1</v>
+      </c>
       <c r="E38" s="5"/>
       <c r="F38" s="16"/>
       <c r="G38" s="5">
@@ -8717,40 +8744,40 @@
       <c r="N38" s="5"/>
       <c r="O38" s="16"/>
       <c r="P38" s="5">
-        <v>20182501.0</v>
+        <v>18347728.0</v>
       </c>
       <c r="Q38" s="16">
         <v>0.1</v>
       </c>
       <c r="R38" s="5">
-        <v>20182501.0</v>
+        <v>18347728.0</v>
       </c>
       <c r="S38" s="5">
         <v>3000000.0</v>
       </c>
       <c r="T38" s="5">
-        <v>4078480.0</v>
+        <v>2686354.0</v>
       </c>
       <c r="U38" s="5">
-        <v>5045625.25</v>
+        <v>4586932.0</v>
       </c>
       <c r="V38" s="16">
         <v>0.25</v>
       </c>
       <c r="W38" s="5">
-        <v>33456.2525</v>
+        <v>28869.32</v>
       </c>
       <c r="X38" s="16">
         <v>0.01</v>
       </c>
       <c r="Y38" s="5">
-        <v>40283.2521</v>
+        <v>36430.2288</v>
       </c>
       <c r="Z38" s="16">
         <v>0.003</v>
       </c>
       <c r="AA38" s="5">
-        <v>20182501.0</v>
+        <v>18347728.0</v>
       </c>
       <c r="AB38" s="5">
         <v>0</v>
@@ -8764,17 +8791,17 @@
       </c>
       <c r="AF38" s="16"/>
       <c r="AG38" s="5">
-        <v>-73739.5046</v>
+        <v>1105282.0</v>
       </c>
       <c r="AH38" s="5">
-        <v>-3261768.4388</v>
+        <v>8837963.0</v>
       </c>
       <c r="AI38" s="16"/>
       <c r="AJ38" s="5">
-        <v>0</v>
+        <v>1170581.5</v>
       </c>
       <c r="AK38" s="5">
-        <v>0</v>
+        <v>5852907.5</v>
       </c>
       <c r="AL38" s="5">
         <v>0.0</v>
@@ -10530,4732 +10557,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:AO80"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A38" sqref="A38:AO38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="19.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="19.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="89.55" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="28" max="28" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="36" max="36" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="37" max="37" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="38" max="38" width="11.711" bestFit="true" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:41">
-      <c r="A1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41">
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO5" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41">
-      <c r="A6">
-        <v>2011</v>
-      </c>
-      <c r="B6" s="1">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6"/>
-    </row>
-    <row r="7" spans="1:41">
-      <c r="A7">
-        <v>2012</v>
-      </c>
-      <c r="B7" s="1">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="2"/>
-      <c r="AO7"/>
-    </row>
-    <row r="8" spans="1:41">
-      <c r="A8">
-        <v>2013</v>
-      </c>
-      <c r="B8" s="1">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="2"/>
-      <c r="AO8"/>
-    </row>
-    <row r="9" spans="1:41">
-      <c r="A9">
-        <v>2014</v>
-      </c>
-      <c r="B9" s="1">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="2"/>
-      <c r="AO9"/>
-    </row>
-    <row r="10" spans="1:41">
-      <c r="A10">
-        <v>2015</v>
-      </c>
-      <c r="B10" s="1">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="2"/>
-      <c r="AO10"/>
-    </row>
-    <row r="11" spans="1:41">
-      <c r="A11">
-        <v>2016</v>
-      </c>
-      <c r="B11" s="1">
-        <v>21</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="2"/>
-      <c r="AO11"/>
-    </row>
-    <row r="12" spans="1:41">
-      <c r="A12">
-        <v>2017</v>
-      </c>
-      <c r="B12" s="1">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AH12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="2"/>
-      <c r="AO12"/>
-    </row>
-    <row r="13" spans="1:41">
-      <c r="A13">
-        <v>2018</v>
-      </c>
-      <c r="B13" s="1">
-        <v>23</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="2"/>
-      <c r="AO13"/>
-    </row>
-    <row r="14" spans="1:41">
-      <c r="A14">
-        <v>2019</v>
-      </c>
-      <c r="B14" s="1">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="2"/>
-      <c r="AO14"/>
-    </row>
-    <row r="15" spans="1:41">
-      <c r="A15">
-        <v>2020</v>
-      </c>
-      <c r="B15" s="1">
-        <v>25</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="2"/>
-      <c r="AO15"/>
-    </row>
-    <row r="16" spans="1:41">
-      <c r="A16">
-        <v>2021</v>
-      </c>
-      <c r="B16" s="1">
-        <v>26</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="2"/>
-      <c r="AO16"/>
-    </row>
-    <row r="17" spans="1:41">
-      <c r="A17">
-        <v>2022</v>
-      </c>
-      <c r="B17" s="1">
-        <v>27</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="2"/>
-      <c r="AO17"/>
-    </row>
-    <row r="18" spans="1:41">
-      <c r="A18">
-        <v>2023</v>
-      </c>
-      <c r="B18" s="1">
-        <v>28</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="1">
-        <v>244118.0</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K18" s="1">
-        <v>150000.0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>154118.0</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1345882.0</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R18" s="1">
-        <v>1654118.0</v>
-      </c>
-      <c r="S18" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T18" s="1">
-        <v>1500000.0</v>
-      </c>
-      <c r="U18" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V18" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W18" s="1">
-        <v>0</v>
-      </c>
-      <c r="X18" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="1">
-        <v>-248318.0</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>-248318.0</v>
-      </c>
-      <c r="AI18" s="2">
-        <v>0.44862733333333</v>
-      </c>
-      <c r="AJ18" s="1">
-        <v>-244118.0</v>
-      </c>
-      <c r="AK18" s="1">
-        <v>-1220590.0</v>
-      </c>
-      <c r="AL18" s="1">
-        <v>2850000.0</v>
-      </c>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41">
-      <c r="A19" s="7">
-        <v>2024</v>
-      </c>
-      <c r="B19" s="8">
-        <v>29</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="8">
-        <v>233700.0</v>
-      </c>
-      <c r="J19" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="K19" s="8">
-        <v>134588.0</v>
-      </c>
-      <c r="L19" s="8">
-        <v>159111.0</v>
-      </c>
-      <c r="M19" s="8">
-        <v>1186770.0</v>
-      </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="8">
-        <v>3300000.0</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="R19" s="8">
-        <v>2113230.0</v>
-      </c>
-      <c r="S19" s="8">
-        <v>3000000.0</v>
-      </c>
-      <c r="T19" s="8">
-        <v>1733700.0</v>
-      </c>
-      <c r="U19" s="8">
-        <v>825000.0</v>
-      </c>
-      <c r="V19" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="W19" s="8">
-        <v>0</v>
-      </c>
-      <c r="X19" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="Y19" s="8">
-        <v>4830.0</v>
-      </c>
-      <c r="Z19" s="9">
-        <v>0.003</v>
-      </c>
-      <c r="AA19" s="8">
-        <v>3300000.0</v>
-      </c>
-      <c r="AB19" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="8">
-        <v>-238530.0</v>
-      </c>
-      <c r="AH19" s="8">
-        <v>-486848.0</v>
-      </c>
-      <c r="AI19" s="9">
-        <v>0.35962727272727</v>
-      </c>
-      <c r="AJ19" s="8">
-        <v>-233700.0</v>
-      </c>
-      <c r="AK19" s="8">
-        <v>-1168500.0</v>
-      </c>
-      <c r="AL19" s="8">
-        <v>-134588.0</v>
-      </c>
-      <c r="AM19" s="8"/>
-      <c r="AN19" s="9"/>
-      <c r="AO19" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41">
-      <c r="A20">
-        <v>2025</v>
-      </c>
-      <c r="B20" s="1">
-        <v>30</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="1">
-        <v>222453.0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K20" s="1">
-        <v>118677.0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>163776.0</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1022994.0</v>
-      </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="6">
-        <v>3630000.0</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R20" s="1">
-        <v>2607006.0</v>
-      </c>
-      <c r="S20" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T20" s="1">
-        <v>1956153.0</v>
-      </c>
-      <c r="U20" s="6">
-        <v>907500.0</v>
-      </c>
-      <c r="V20" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W20" s="1">
-        <v>0</v>
-      </c>
-      <c r="X20" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>5523.0</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>3630000.0</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="1">
-        <v>-227976.0</v>
-      </c>
-      <c r="AH20" s="1">
-        <v>-714824.0</v>
-      </c>
-      <c r="AI20" s="2">
-        <v>0.28181652892562</v>
-      </c>
-      <c r="AJ20" s="1">
-        <v>-222453.0</v>
-      </c>
-      <c r="AK20" s="1">
-        <v>-1112265.0</v>
-      </c>
-      <c r="AL20" s="1">
-        <v>-118677.0</v>
-      </c>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="2"/>
-      <c r="AO20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41">
-      <c r="A21">
-        <v>2026</v>
-      </c>
-      <c r="B21" s="1">
-        <v>31</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="1">
-        <v>210129.0</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K21" s="1">
-        <v>102299.0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>167829.0</v>
-      </c>
-      <c r="M21" s="1">
-        <v>855165.0</v>
-      </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="6">
-        <v>3993000.0</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R21" s="1">
-        <v>3137835.0</v>
-      </c>
-      <c r="S21" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T21" s="1">
-        <v>2166282.0</v>
-      </c>
-      <c r="U21" s="6">
-        <v>998250.0</v>
-      </c>
-      <c r="V21" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W21" s="1">
-        <v>0</v>
-      </c>
-      <c r="X21" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>6285.3</v>
-      </c>
-      <c r="Z21" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>3993000.0</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="2"/>
-      <c r="AG21" s="1">
-        <v>-216414.3</v>
-      </c>
-      <c r="AH21" s="1">
-        <v>-931238.3</v>
-      </c>
-      <c r="AI21" s="2">
-        <v>0.214166040571</v>
-      </c>
-      <c r="AJ21" s="1">
-        <v>-210129.0</v>
-      </c>
-      <c r="AK21" s="1">
-        <v>-1050645.0</v>
-      </c>
-      <c r="AL21" s="1">
-        <v>-102299.0</v>
-      </c>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="2"/>
-      <c r="AO21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41">
-      <c r="A22">
-        <v>2027</v>
-      </c>
-      <c r="B22" s="1">
-        <v>32</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="1">
-        <v>196352.0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K22" s="1">
-        <v>85517.0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>170836.0</v>
-      </c>
-      <c r="M22" s="1">
-        <v>684329.0</v>
-      </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="6">
-        <v>4392300.0</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R22" s="1">
-        <v>3707971.0</v>
-      </c>
-      <c r="S22" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T22" s="1">
-        <v>2362634.0</v>
-      </c>
-      <c r="U22" s="6">
-        <v>1098075.0</v>
-      </c>
-      <c r="V22" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W22" s="1">
-        <v>0</v>
-      </c>
-      <c r="X22" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>7123.83</v>
-      </c>
-      <c r="Z22" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>4392300.0</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="1">
-        <v>-203475.83</v>
-      </c>
-      <c r="AH22" s="1">
-        <v>-1134714.13</v>
-      </c>
-      <c r="AI22" s="2">
-        <v>0.15580197163217</v>
-      </c>
-      <c r="AJ22" s="1">
-        <v>-196352.0</v>
-      </c>
-      <c r="AK22" s="1">
-        <v>-981760.0</v>
-      </c>
-      <c r="AL22" s="1">
-        <v>-85517.0</v>
-      </c>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="2"/>
-      <c r="AO22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:41">
-      <c r="A23">
-        <v>2028</v>
-      </c>
-      <c r="B23" s="1">
-        <v>33</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="1">
-        <v>180524.0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K23" s="1">
-        <v>68433.0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>172091.0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>512238.0</v>
-      </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="6">
-        <v>4831530.0</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R23" s="1">
-        <v>4319292.0</v>
-      </c>
-      <c r="S23" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T23" s="1">
-        <v>2543158.0</v>
-      </c>
-      <c r="U23" s="6">
-        <v>1207882.5</v>
-      </c>
-      <c r="V23" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W23" s="1">
-        <v>0</v>
-      </c>
-      <c r="X23" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>8046.213</v>
-      </c>
-      <c r="Z23" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>4831530.0</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="1">
-        <v>-188570.213</v>
-      </c>
-      <c r="AH23" s="1">
-        <v>-1323284.343</v>
-      </c>
-      <c r="AI23" s="2">
-        <v>0.10601983222706</v>
-      </c>
-      <c r="AJ23" s="1">
-        <v>-180524.0</v>
-      </c>
-      <c r="AK23" s="1">
-        <v>-902620.0</v>
-      </c>
-      <c r="AL23" s="1">
-        <v>-68433.0</v>
-      </c>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="2"/>
-      <c r="AO23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:41">
-      <c r="A24">
-        <v>2029</v>
-      </c>
-      <c r="B24" s="1">
-        <v>34</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="1">
-        <v>161596.0</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K24" s="1">
-        <v>51224.0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>170372.0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>341866.0</v>
-      </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="6">
-        <v>5314683.0</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R24" s="1">
-        <v>4972817.0</v>
-      </c>
-      <c r="S24" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T24" s="1">
-        <v>2704754.0</v>
-      </c>
-      <c r="U24" s="6">
-        <v>1328670.75</v>
-      </c>
-      <c r="V24" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W24" s="1">
-        <v>0</v>
-      </c>
-      <c r="X24" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>9060.8343</v>
-      </c>
-      <c r="Z24" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>5314683.0</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="1">
-        <v>-170656.8343</v>
-      </c>
-      <c r="AH24" s="1">
-        <v>-1493941.1773</v>
-      </c>
-      <c r="AI24" s="2">
-        <v>0.064324814857255</v>
-      </c>
-      <c r="AJ24" s="1">
-        <v>-161596.0</v>
-      </c>
-      <c r="AK24" s="1">
-        <v>-807980.0</v>
-      </c>
-      <c r="AL24" s="1">
-        <v>-51224.0</v>
-      </c>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="2"/>
-      <c r="AO24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:41">
-      <c r="A25">
-        <v>2030</v>
-      </c>
-      <c r="B25" s="1">
-        <v>35</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="1">
-        <v>137469.0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K25" s="1">
-        <v>34187.0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>163283.0</v>
-      </c>
-      <c r="M25" s="1">
-        <v>178583.0</v>
-      </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="6">
-        <v>5846151.0</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R25" s="1">
-        <v>5667568.0</v>
-      </c>
-      <c r="S25" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T25" s="1">
-        <v>2842223.0</v>
-      </c>
-      <c r="U25" s="6">
-        <v>1461537.75</v>
-      </c>
-      <c r="V25" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W25" s="1">
-        <v>0</v>
-      </c>
-      <c r="X25" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>10176.9171</v>
-      </c>
-      <c r="Z25" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>5846151.0</v>
-      </c>
-      <c r="AB25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="2"/>
-      <c r="AG25" s="1">
-        <v>-147645.9171</v>
-      </c>
-      <c r="AH25" s="1">
-        <v>-1641587.0944</v>
-      </c>
-      <c r="AI25" s="2">
-        <v>0.030547106976881</v>
-      </c>
-      <c r="AJ25" s="1">
-        <v>-137469.0</v>
-      </c>
-      <c r="AK25" s="1">
-        <v>-687345.0</v>
-      </c>
-      <c r="AL25" s="1">
-        <v>-34187.0</v>
-      </c>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="2"/>
-      <c r="AO25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:41">
-      <c r="A26">
-        <v>2031</v>
-      </c>
-      <c r="B26" s="1">
-        <v>36</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="1">
-        <v>102898.0</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K26" s="1">
-        <v>17858.0</v>
-      </c>
-      <c r="L26" s="1">
-        <v>145040.0</v>
-      </c>
-      <c r="M26" s="1">
-        <v>33543.0</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="6">
-        <v>6430766.0</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R26" s="1">
-        <v>6397223.0</v>
-      </c>
-      <c r="S26" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T26" s="1">
-        <v>2945121.0</v>
-      </c>
-      <c r="U26" s="6">
-        <v>1607691.5</v>
-      </c>
-      <c r="V26" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W26" s="1">
-        <v>0</v>
-      </c>
-      <c r="X26" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>11404.6086</v>
-      </c>
-      <c r="Z26" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>6430766.0</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="1">
-        <v>-114302.6086</v>
-      </c>
-      <c r="AH26" s="1">
-        <v>-1755889.703</v>
-      </c>
-      <c r="AI26" s="2">
-        <v>0.0052160193668997</v>
-      </c>
-      <c r="AJ26" s="1">
-        <v>-102898.0</v>
-      </c>
-      <c r="AK26" s="1">
-        <v>-514490.0</v>
-      </c>
-      <c r="AL26" s="1">
-        <v>-17858.0</v>
-      </c>
-      <c r="AM26" s="1"/>
-      <c r="AN26" s="2"/>
-      <c r="AO26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:41">
-      <c r="A27">
-        <v>2032</v>
-      </c>
-      <c r="B27" s="1">
-        <v>37</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="6">
-        <v>7073843.0</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R27" s="1">
-        <v>7073843.0</v>
-      </c>
-      <c r="S27" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T27" s="1">
-        <v>2945121.0</v>
-      </c>
-      <c r="U27" s="6">
-        <v>1768460.75</v>
-      </c>
-      <c r="V27" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W27" s="1">
-        <v>684.6075</v>
-      </c>
-      <c r="X27" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>12755.0703</v>
-      </c>
-      <c r="Z27" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>7073843.0</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="2"/>
-      <c r="AG27" s="1">
-        <v>-13439.6778</v>
-      </c>
-      <c r="AH27" s="1">
-        <v>-1769329.3808</v>
-      </c>
-      <c r="AI27" s="2"/>
-      <c r="AJ27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AM27" s="1"/>
-      <c r="AN27" s="2"/>
-      <c r="AO27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:41">
-      <c r="A28">
-        <v>2033</v>
-      </c>
-      <c r="B28" s="1">
-        <v>38</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="6">
-        <v>7781227.0</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R28" s="1">
-        <v>7781227.0</v>
-      </c>
-      <c r="S28" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T28" s="1">
-        <v>2945121.0</v>
-      </c>
-      <c r="U28" s="6">
-        <v>1945306.75</v>
-      </c>
-      <c r="V28" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W28" s="1">
-        <v>2453.0675</v>
-      </c>
-      <c r="X28" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>14240.5767</v>
-      </c>
-      <c r="Z28" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>7781227.0</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="1">
-        <v>-16693.6442</v>
-      </c>
-      <c r="AH28" s="1">
-        <v>-1786023.025</v>
-      </c>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AM28" s="1"/>
-      <c r="AN28" s="2"/>
-      <c r="AO28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:41">
-      <c r="A29">
-        <v>2034</v>
-      </c>
-      <c r="B29" s="1">
-        <v>39</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="6">
-        <v>8559350.0</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R29" s="1">
-        <v>8559350.0</v>
-      </c>
-      <c r="S29" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T29" s="1">
-        <v>2945121.0</v>
-      </c>
-      <c r="U29" s="6">
-        <v>2139837.5</v>
-      </c>
-      <c r="V29" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W29" s="1">
-        <v>4398.375</v>
-      </c>
-      <c r="X29" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y29" s="1">
-        <v>15874.635</v>
-      </c>
-      <c r="Z29" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA29" s="1">
-        <v>8559350.0</v>
-      </c>
-      <c r="AB29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="1">
-        <v>-20273.01</v>
-      </c>
-      <c r="AH29" s="1">
-        <v>-1806296.035</v>
-      </c>
-      <c r="AI29" s="2"/>
-      <c r="AJ29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AM29" s="1"/>
-      <c r="AN29" s="2"/>
-      <c r="AO29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:41">
-      <c r="A30">
-        <v>2035</v>
-      </c>
-      <c r="B30" s="1">
-        <v>40</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="6">
-        <v>9415285.0</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R30" s="1">
-        <v>9415285.0</v>
-      </c>
-      <c r="S30" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T30" s="1">
-        <v>2945121.0</v>
-      </c>
-      <c r="U30" s="6">
-        <v>2353821.25</v>
-      </c>
-      <c r="V30" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W30" s="1">
-        <v>6538.2125</v>
-      </c>
-      <c r="X30" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y30" s="1">
-        <v>17672.0985</v>
-      </c>
-      <c r="Z30" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA30" s="1">
-        <v>9415285.0</v>
-      </c>
-      <c r="AB30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="1">
-        <v>-24210.311</v>
-      </c>
-      <c r="AH30" s="1">
-        <v>-1830506.346</v>
-      </c>
-      <c r="AI30" s="2"/>
-      <c r="AJ30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AM30" s="1"/>
-      <c r="AN30" s="2"/>
-      <c r="AO30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:41">
-      <c r="A31">
-        <v>2036</v>
-      </c>
-      <c r="B31" s="1">
-        <v>41</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="6">
-        <v>10356814.0</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R31" s="1">
-        <v>10356814.0</v>
-      </c>
-      <c r="S31" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T31" s="1">
-        <v>2945121.0</v>
-      </c>
-      <c r="U31" s="6">
-        <v>2589203.5</v>
-      </c>
-      <c r="V31" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W31" s="1">
-        <v>8892.035</v>
-      </c>
-      <c r="X31" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y31" s="1">
-        <v>19649.3094</v>
-      </c>
-      <c r="Z31" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA31" s="1">
-        <v>10356814.0</v>
-      </c>
-      <c r="AB31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="1">
-        <v>-28541.3444</v>
-      </c>
-      <c r="AH31" s="1">
-        <v>-1859047.6904</v>
-      </c>
-      <c r="AI31" s="2"/>
-      <c r="AJ31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AM31" s="1"/>
-      <c r="AN31" s="2"/>
-      <c r="AO31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:41">
-      <c r="A32">
-        <v>2037</v>
-      </c>
-      <c r="B32" s="1">
-        <v>42</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="6">
-        <v>11392495.0</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R32" s="1">
-        <v>11392495.0</v>
-      </c>
-      <c r="S32" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T32" s="1">
-        <v>2945121.0</v>
-      </c>
-      <c r="U32" s="6">
-        <v>2848123.75</v>
-      </c>
-      <c r="V32" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W32" s="1">
-        <v>11481.2375</v>
-      </c>
-      <c r="X32" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y32" s="1">
-        <v>21824.2395</v>
-      </c>
-      <c r="Z32" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA32" s="1">
-        <v>11392495.0</v>
-      </c>
-      <c r="AB32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="1">
-        <v>-33305.477</v>
-      </c>
-      <c r="AH32" s="1">
-        <v>-1892353.1674</v>
-      </c>
-      <c r="AI32" s="2"/>
-      <c r="AJ32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AM32" s="1"/>
-      <c r="AN32" s="2"/>
-      <c r="AO32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:41">
-      <c r="A33">
-        <v>2038</v>
-      </c>
-      <c r="B33" s="1">
-        <v>43</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="6">
-        <v>12531745.0</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R33" s="1">
-        <v>12531745.0</v>
-      </c>
-      <c r="S33" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T33" s="1">
-        <v>2945121.0</v>
-      </c>
-      <c r="U33" s="6">
-        <v>3132936.25</v>
-      </c>
-      <c r="V33" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W33" s="1">
-        <v>14329.3625</v>
-      </c>
-      <c r="X33" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y33" s="1">
-        <v>24216.6645</v>
-      </c>
-      <c r="Z33" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA33" s="1">
-        <v>12531745.0</v>
-      </c>
-      <c r="AB33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="1">
-        <v>-38546.027</v>
-      </c>
-      <c r="AH33" s="1">
-        <v>-1930899.1944</v>
-      </c>
-      <c r="AI33" s="2"/>
-      <c r="AJ33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AM33" s="1"/>
-      <c r="AN33" s="2"/>
-      <c r="AO33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:41">
-      <c r="A34">
-        <v>2039</v>
-      </c>
-      <c r="B34" s="1">
-        <v>44</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="6">
-        <v>13784920.0</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R34" s="1">
-        <v>13784920.0</v>
-      </c>
-      <c r="S34" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T34" s="1">
-        <v>2945121.0</v>
-      </c>
-      <c r="U34" s="6">
-        <v>3446230.0</v>
-      </c>
-      <c r="V34" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W34" s="1">
-        <v>17462.3</v>
-      </c>
-      <c r="X34" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y34" s="1">
-        <v>26848.332</v>
-      </c>
-      <c r="Z34" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA34" s="1">
-        <v>13784920.0</v>
-      </c>
-      <c r="AB34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="1">
-        <v>-44310.632</v>
-      </c>
-      <c r="AH34" s="1">
-        <v>-1975209.8264</v>
-      </c>
-      <c r="AI34" s="2"/>
-      <c r="AJ34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AM34" s="1"/>
-      <c r="AN34" s="2"/>
-      <c r="AO34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:41">
-      <c r="A35">
-        <v>2040</v>
-      </c>
-      <c r="B35" s="1">
-        <v>45</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="6">
-        <v>15163412.0</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R35" s="1">
-        <v>15163412.0</v>
-      </c>
-      <c r="S35" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T35" s="1">
-        <v>2945121.0</v>
-      </c>
-      <c r="U35" s="6">
-        <v>3790853.0</v>
-      </c>
-      <c r="V35" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W35" s="1">
-        <v>20908.53</v>
-      </c>
-      <c r="X35" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y35" s="1">
-        <v>29743.1652</v>
-      </c>
-      <c r="Z35" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA35" s="1">
-        <v>15163412.0</v>
-      </c>
-      <c r="AB35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="2"/>
-      <c r="AG35" s="1">
-        <v>-50651.6952</v>
-      </c>
-      <c r="AH35" s="1">
-        <v>-2025861.5216</v>
-      </c>
-      <c r="AI35" s="2"/>
-      <c r="AJ35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AM35" s="1"/>
-      <c r="AN35" s="2"/>
-      <c r="AO35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:41">
-      <c r="A36">
-        <v>2041</v>
-      </c>
-      <c r="B36" s="1">
-        <v>46</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="6">
-        <v>16679753.0</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R36" s="1">
-        <v>16679753.0</v>
-      </c>
-      <c r="S36" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T36" s="1">
-        <v>2945121.0</v>
-      </c>
-      <c r="U36" s="6">
-        <v>4169938.25</v>
-      </c>
-      <c r="V36" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W36" s="1">
-        <v>24699.3825</v>
-      </c>
-      <c r="X36" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y36" s="1">
-        <v>32927.4813</v>
-      </c>
-      <c r="Z36" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA36" s="1">
-        <v>16679753.0</v>
-      </c>
-      <c r="AB36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="2"/>
-      <c r="AG36" s="1">
-        <v>-57626.8638</v>
-      </c>
-      <c r="AH36" s="1">
-        <v>-2083488.3854</v>
-      </c>
-      <c r="AI36" s="2"/>
-      <c r="AJ36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AM36" s="1"/>
-      <c r="AN36" s="2"/>
-      <c r="AO36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:41">
-      <c r="A37">
-        <v>2042</v>
-      </c>
-      <c r="B37" s="1">
-        <v>47</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="6">
-        <v>18347728.0</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R37" s="1">
-        <v>18347728.0</v>
-      </c>
-      <c r="S37" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T37" s="1">
-        <v>2945121.0</v>
-      </c>
-      <c r="U37" s="6">
-        <v>4586932.0</v>
-      </c>
-      <c r="V37" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W37" s="1">
-        <v>28869.32</v>
-      </c>
-      <c r="X37" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y37" s="1">
-        <v>36430.2288</v>
-      </c>
-      <c r="Z37" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA37" s="1">
-        <v>18347728.0</v>
-      </c>
-      <c r="AB37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="2"/>
-      <c r="AG37" s="1">
-        <v>-65299.5488</v>
-      </c>
-      <c r="AH37" s="1">
-        <v>-2148787.9342</v>
-      </c>
-      <c r="AI37" s="2"/>
-      <c r="AJ37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AM37" s="1"/>
-      <c r="AN37" s="2"/>
-      <c r="AO37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:41">
-      <c r="A38" s="15">
-        <v>2043</v>
-      </c>
-      <c r="B38" s="5">
-        <v>48</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="5">
-        <v>20182501.0</v>
-      </c>
-      <c r="Q38" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="R38" s="5">
-        <v>20182501.0</v>
-      </c>
-      <c r="S38" s="5">
-        <v>3000000.0</v>
-      </c>
-      <c r="T38" s="5">
-        <v>2945121.0</v>
-      </c>
-      <c r="U38" s="5">
-        <v>5045625.25</v>
-      </c>
-      <c r="V38" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="W38" s="5">
-        <v>33456.2525</v>
-      </c>
-      <c r="X38" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="Y38" s="5">
-        <v>40283.2521</v>
-      </c>
-      <c r="Z38" s="16">
-        <v>0.003</v>
-      </c>
-      <c r="AA38" s="5">
-        <v>20182501.0</v>
-      </c>
-      <c r="AB38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="16"/>
-      <c r="AE38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="16"/>
-      <c r="AG38" s="5">
-        <v>-73739.5046</v>
-      </c>
-      <c r="AH38" s="5">
-        <v>-2222527.4388</v>
-      </c>
-      <c r="AI38" s="16"/>
-      <c r="AJ38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AM38" s="5"/>
-      <c r="AN38" s="16"/>
-      <c r="AO38" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:41">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="2"/>
-      <c r="AG39" s="1"/>
-      <c r="AH39" s="1"/>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="1"/>
-      <c r="AK39" s="1"/>
-      <c r="AL39" s="1"/>
-      <c r="AM39" s="1"/>
-      <c r="AN39" s="2"/>
-    </row>
-    <row r="40" spans="1:41">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="12"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="12"/>
-      <c r="AA40" s="11"/>
-      <c r="AB40" s="11"/>
-      <c r="AC40" s="11"/>
-      <c r="AD40" s="12"/>
-      <c r="AE40" s="11"/>
-      <c r="AF40" s="12"/>
-      <c r="AG40" s="11"/>
-      <c r="AH40" s="11"/>
-      <c r="AI40" s="12"/>
-      <c r="AJ40" s="11"/>
-      <c r="AK40" s="11"/>
-      <c r="AL40" s="11"/>
-      <c r="AM40" s="11"/>
-      <c r="AN40" s="12"/>
-      <c r="AO40" s="10"/>
-    </row>
-    <row r="41" spans="1:41">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="2"/>
-      <c r="AE41" s="1"/>
-      <c r="AF41" s="2"/>
-      <c r="AG41" s="1"/>
-      <c r="AH41" s="1"/>
-      <c r="AI41" s="2"/>
-      <c r="AJ41" s="1"/>
-      <c r="AK41" s="1"/>
-      <c r="AL41" s="1"/>
-      <c r="AM41" s="1"/>
-      <c r="AN41" s="2"/>
-    </row>
-    <row r="42" spans="1:41">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="1"/>
-      <c r="AB42" s="1"/>
-      <c r="AC42" s="1"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="1"/>
-      <c r="AF42" s="2"/>
-      <c r="AG42" s="1"/>
-      <c r="AH42" s="1"/>
-      <c r="AI42" s="2"/>
-      <c r="AJ42" s="1"/>
-      <c r="AK42" s="1"/>
-      <c r="AL42" s="1"/>
-      <c r="AM42" s="1"/>
-      <c r="AN42" s="2"/>
-    </row>
-    <row r="43" spans="1:41">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
-      <c r="AD43" s="2"/>
-      <c r="AE43" s="1"/>
-      <c r="AF43" s="2"/>
-      <c r="AG43" s="1"/>
-      <c r="AH43" s="1"/>
-      <c r="AI43" s="2"/>
-      <c r="AJ43" s="1"/>
-      <c r="AK43" s="1"/>
-      <c r="AL43" s="1"/>
-      <c r="AM43" s="1"/>
-      <c r="AN43" s="2"/>
-    </row>
-    <row r="44" spans="1:41">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="1"/>
-      <c r="AB44" s="1"/>
-      <c r="AC44" s="1"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="1"/>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="1"/>
-      <c r="AH44" s="1"/>
-      <c r="AI44" s="2"/>
-      <c r="AJ44" s="1"/>
-      <c r="AK44" s="1"/>
-      <c r="AL44" s="1"/>
-      <c r="AM44" s="1"/>
-      <c r="AN44" s="2"/>
-    </row>
-    <row r="45" spans="1:41">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="1"/>
-      <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
-      <c r="AD45" s="2"/>
-      <c r="AE45" s="1"/>
-      <c r="AF45" s="2"/>
-      <c r="AG45" s="1"/>
-      <c r="AH45" s="1"/>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="1"/>
-      <c r="AK45" s="1"/>
-      <c r="AL45" s="1"/>
-      <c r="AM45" s="1"/>
-      <c r="AN45" s="2"/>
-    </row>
-    <row r="46" spans="1:41">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="1"/>
-      <c r="AB46" s="1"/>
-      <c r="AC46" s="1"/>
-      <c r="AD46" s="2"/>
-      <c r="AE46" s="1"/>
-      <c r="AF46" s="2"/>
-      <c r="AG46" s="1"/>
-      <c r="AH46" s="1"/>
-      <c r="AI46" s="2"/>
-      <c r="AJ46" s="1"/>
-      <c r="AK46" s="1"/>
-      <c r="AL46" s="1"/>
-      <c r="AM46" s="1"/>
-      <c r="AN46" s="2"/>
-    </row>
-    <row r="47" spans="1:41">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="1"/>
-      <c r="AB47" s="1"/>
-      <c r="AC47" s="1"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="1"/>
-      <c r="AF47" s="2"/>
-      <c r="AG47" s="1"/>
-      <c r="AH47" s="1"/>
-      <c r="AI47" s="2"/>
-      <c r="AJ47" s="1"/>
-      <c r="AK47" s="1"/>
-      <c r="AL47" s="1"/>
-      <c r="AM47" s="1"/>
-      <c r="AN47" s="2"/>
-    </row>
-    <row r="48" spans="1:41">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="1"/>
-      <c r="AB48" s="1"/>
-      <c r="AC48" s="1"/>
-      <c r="AD48" s="2"/>
-      <c r="AE48" s="1"/>
-      <c r="AF48" s="2"/>
-      <c r="AG48" s="1"/>
-      <c r="AH48" s="1"/>
-      <c r="AI48" s="2"/>
-      <c r="AJ48" s="1"/>
-      <c r="AK48" s="1"/>
-      <c r="AL48" s="1"/>
-      <c r="AM48" s="1"/>
-      <c r="AN48" s="2"/>
-    </row>
-    <row r="49" spans="1:41">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="1"/>
-      <c r="AF49" s="2"/>
-      <c r="AG49" s="1"/>
-      <c r="AH49" s="1"/>
-      <c r="AI49" s="2"/>
-      <c r="AJ49" s="1"/>
-      <c r="AK49" s="1"/>
-      <c r="AL49" s="1"/>
-      <c r="AM49" s="1"/>
-      <c r="AN49" s="2"/>
-    </row>
-    <row r="50" spans="1:41">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="2"/>
-      <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
-      <c r="AD50" s="2"/>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="2"/>
-      <c r="AG50" s="1"/>
-      <c r="AH50" s="1"/>
-      <c r="AI50" s="2"/>
-      <c r="AJ50" s="1"/>
-      <c r="AK50" s="1"/>
-      <c r="AL50" s="1"/>
-      <c r="AM50" s="1"/>
-      <c r="AN50" s="2"/>
-    </row>
-    <row r="51" spans="1:41">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="1"/>
-      <c r="AB51" s="1"/>
-      <c r="AC51" s="1"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="1"/>
-      <c r="AF51" s="2"/>
-      <c r="AG51" s="1"/>
-      <c r="AH51" s="1"/>
-      <c r="AI51" s="2"/>
-      <c r="AJ51" s="1"/>
-      <c r="AK51" s="1"/>
-      <c r="AL51" s="1"/>
-      <c r="AM51" s="1"/>
-      <c r="AN51" s="2"/>
-    </row>
-    <row r="52" spans="1:41">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="2"/>
-      <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
-      <c r="AD52" s="2"/>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="2"/>
-      <c r="AG52" s="1"/>
-      <c r="AH52" s="1"/>
-      <c r="AI52" s="2"/>
-      <c r="AJ52" s="1"/>
-      <c r="AK52" s="1"/>
-      <c r="AL52" s="1"/>
-      <c r="AM52" s="1"/>
-      <c r="AN52" s="2"/>
-    </row>
-    <row r="53" spans="1:41">
-      <c r="A53" s="3"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="13"/>
-      <c r="V53" s="14"/>
-      <c r="W53" s="13"/>
-      <c r="X53" s="14"/>
-      <c r="Y53" s="13"/>
-      <c r="Z53" s="14"/>
-      <c r="AA53" s="13"/>
-      <c r="AB53" s="13"/>
-      <c r="AC53" s="13"/>
-      <c r="AD53" s="14"/>
-      <c r="AE53" s="13"/>
-      <c r="AF53" s="14"/>
-      <c r="AG53" s="13"/>
-      <c r="AH53" s="13"/>
-      <c r="AI53" s="14"/>
-      <c r="AJ53" s="13"/>
-      <c r="AK53" s="13"/>
-      <c r="AL53" s="13"/>
-      <c r="AM53" s="13"/>
-      <c r="AN53" s="14"/>
-      <c r="AO53" s="3"/>
-    </row>
-    <row r="54" spans="1:41">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="2"/>
-      <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
-      <c r="AD54" s="2"/>
-      <c r="AE54" s="1"/>
-      <c r="AF54" s="2"/>
-      <c r="AG54" s="1"/>
-      <c r="AH54" s="1"/>
-      <c r="AI54" s="2"/>
-      <c r="AJ54" s="1"/>
-      <c r="AK54" s="1"/>
-      <c r="AL54" s="1"/>
-      <c r="AM54" s="1"/>
-      <c r="AN54" s="2"/>
-    </row>
-    <row r="55" spans="1:41">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="2"/>
-      <c r="AA55" s="1"/>
-      <c r="AB55" s="1"/>
-      <c r="AC55" s="1"/>
-      <c r="AD55" s="2"/>
-      <c r="AE55" s="1"/>
-      <c r="AF55" s="2"/>
-      <c r="AG55" s="1"/>
-      <c r="AH55" s="1"/>
-      <c r="AI55" s="2"/>
-      <c r="AJ55" s="1"/>
-      <c r="AK55" s="1"/>
-      <c r="AL55" s="1"/>
-      <c r="AM55" s="1"/>
-      <c r="AN55" s="2"/>
-    </row>
-    <row r="56" spans="1:41">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="2"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="2"/>
-      <c r="AA56" s="1"/>
-      <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
-      <c r="AD56" s="2"/>
-      <c r="AE56" s="1"/>
-      <c r="AF56" s="2"/>
-      <c r="AG56" s="1"/>
-      <c r="AH56" s="1"/>
-      <c r="AI56" s="2"/>
-      <c r="AJ56" s="1"/>
-      <c r="AK56" s="1"/>
-      <c r="AL56" s="1"/>
-      <c r="AM56" s="1"/>
-      <c r="AN56" s="2"/>
-    </row>
-    <row r="57" spans="1:41">
-      <c r="A57" s="3"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="13"/>
-      <c r="V57" s="14"/>
-      <c r="W57" s="13"/>
-      <c r="X57" s="14"/>
-      <c r="Y57" s="13"/>
-      <c r="Z57" s="14"/>
-      <c r="AA57" s="13"/>
-      <c r="AB57" s="13"/>
-      <c r="AC57" s="13"/>
-      <c r="AD57" s="14"/>
-      <c r="AE57" s="13"/>
-      <c r="AF57" s="14"/>
-      <c r="AG57" s="13"/>
-      <c r="AH57" s="13"/>
-      <c r="AI57" s="14"/>
-      <c r="AJ57" s="13"/>
-      <c r="AK57" s="13"/>
-      <c r="AL57" s="13"/>
-      <c r="AM57" s="13"/>
-      <c r="AN57" s="14"/>
-      <c r="AO57" s="3"/>
-    </row>
-    <row r="58" spans="1:41">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="1"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="2"/>
-      <c r="AA58" s="1"/>
-      <c r="AB58" s="1"/>
-      <c r="AC58" s="1"/>
-      <c r="AD58" s="2"/>
-      <c r="AE58" s="1"/>
-      <c r="AF58" s="2"/>
-      <c r="AG58" s="1"/>
-      <c r="AH58" s="1"/>
-      <c r="AI58" s="2"/>
-      <c r="AJ58" s="1"/>
-      <c r="AK58" s="1"/>
-      <c r="AL58" s="1"/>
-      <c r="AM58" s="1"/>
-      <c r="AN58" s="2"/>
-    </row>
-    <row r="59" spans="1:41">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="2"/>
-      <c r="W59" s="1"/>
-      <c r="X59" s="2"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="2"/>
-      <c r="AA59" s="1"/>
-      <c r="AB59" s="1"/>
-      <c r="AC59" s="1"/>
-      <c r="AD59" s="2"/>
-      <c r="AE59" s="1"/>
-      <c r="AF59" s="2"/>
-      <c r="AG59" s="1"/>
-      <c r="AH59" s="1"/>
-      <c r="AI59" s="2"/>
-      <c r="AJ59" s="1"/>
-      <c r="AK59" s="1"/>
-      <c r="AL59" s="1"/>
-      <c r="AM59" s="1"/>
-      <c r="AN59" s="2"/>
-    </row>
-    <row r="60" spans="1:41">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="2"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="2"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="2"/>
-      <c r="AA60" s="1"/>
-      <c r="AB60" s="1"/>
-      <c r="AC60" s="1"/>
-      <c r="AD60" s="2"/>
-      <c r="AE60" s="1"/>
-      <c r="AF60" s="2"/>
-      <c r="AG60" s="1"/>
-      <c r="AH60" s="1"/>
-      <c r="AI60" s="2"/>
-      <c r="AJ60" s="1"/>
-      <c r="AK60" s="1"/>
-      <c r="AL60" s="1"/>
-      <c r="AM60" s="1"/>
-      <c r="AN60" s="2"/>
-    </row>
-    <row r="61" spans="1:41">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="2"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="2"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="2"/>
-      <c r="AA61" s="1"/>
-      <c r="AB61" s="1"/>
-      <c r="AC61" s="1"/>
-      <c r="AD61" s="2"/>
-      <c r="AE61" s="1"/>
-      <c r="AF61" s="2"/>
-      <c r="AG61" s="1"/>
-      <c r="AH61" s="1"/>
-      <c r="AI61" s="2"/>
-      <c r="AJ61" s="1"/>
-      <c r="AK61" s="1"/>
-      <c r="AL61" s="1"/>
-      <c r="AM61" s="1"/>
-      <c r="AN61" s="2"/>
-    </row>
-    <row r="62" spans="1:41">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="2"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="2"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="2"/>
-      <c r="AA62" s="1"/>
-      <c r="AB62" s="1"/>
-      <c r="AC62" s="1"/>
-      <c r="AD62" s="2"/>
-      <c r="AE62" s="1"/>
-      <c r="AF62" s="2"/>
-      <c r="AG62" s="1"/>
-      <c r="AH62" s="1"/>
-      <c r="AI62" s="2"/>
-      <c r="AJ62" s="1"/>
-      <c r="AK62" s="1"/>
-      <c r="AL62" s="1"/>
-      <c r="AM62" s="1"/>
-      <c r="AN62" s="2"/>
-    </row>
-    <row r="63" spans="1:41">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="2"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="2"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="2"/>
-      <c r="AA63" s="1"/>
-      <c r="AB63" s="1"/>
-      <c r="AC63" s="1"/>
-      <c r="AD63" s="2"/>
-      <c r="AE63" s="1"/>
-      <c r="AF63" s="2"/>
-      <c r="AG63" s="1"/>
-      <c r="AH63" s="1"/>
-      <c r="AI63" s="2"/>
-      <c r="AJ63" s="1"/>
-      <c r="AK63" s="1"/>
-      <c r="AL63" s="1"/>
-      <c r="AM63" s="1"/>
-      <c r="AN63" s="2"/>
-    </row>
-    <row r="64" spans="1:41">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
-      <c r="V64" s="2"/>
-      <c r="W64" s="1"/>
-      <c r="X64" s="2"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="2"/>
-      <c r="AA64" s="1"/>
-      <c r="AB64" s="1"/>
-      <c r="AC64" s="1"/>
-      <c r="AD64" s="2"/>
-      <c r="AE64" s="1"/>
-      <c r="AF64" s="2"/>
-      <c r="AG64" s="1"/>
-      <c r="AH64" s="1"/>
-      <c r="AI64" s="2"/>
-      <c r="AJ64" s="1"/>
-      <c r="AK64" s="1"/>
-      <c r="AL64" s="1"/>
-      <c r="AM64" s="1"/>
-      <c r="AN64" s="2"/>
-    </row>
-    <row r="65" spans="1:41">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="1"/>
-      <c r="X65" s="2"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="2"/>
-      <c r="AA65" s="1"/>
-      <c r="AB65" s="1"/>
-      <c r="AC65" s="1"/>
-      <c r="AD65" s="2"/>
-      <c r="AE65" s="1"/>
-      <c r="AF65" s="2"/>
-      <c r="AG65" s="1"/>
-      <c r="AH65" s="1"/>
-      <c r="AI65" s="2"/>
-      <c r="AJ65" s="1"/>
-      <c r="AK65" s="1"/>
-      <c r="AL65" s="1"/>
-      <c r="AM65" s="1"/>
-      <c r="AN65" s="2"/>
-    </row>
-    <row r="66" spans="1:41">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="2"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="2"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="2"/>
-      <c r="AA66" s="1"/>
-      <c r="AB66" s="1"/>
-      <c r="AC66" s="1"/>
-      <c r="AD66" s="2"/>
-      <c r="AE66" s="1"/>
-      <c r="AF66" s="2"/>
-      <c r="AG66" s="1"/>
-      <c r="AH66" s="1"/>
-      <c r="AI66" s="2"/>
-      <c r="AJ66" s="1"/>
-      <c r="AK66" s="1"/>
-      <c r="AL66" s="1"/>
-      <c r="AM66" s="1"/>
-      <c r="AN66" s="2"/>
-    </row>
-    <row r="67" spans="1:41">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="2"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="2"/>
-      <c r="AA67" s="1"/>
-      <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
-      <c r="AD67" s="2"/>
-      <c r="AE67" s="1"/>
-      <c r="AF67" s="2"/>
-      <c r="AG67" s="1"/>
-      <c r="AH67" s="1"/>
-      <c r="AI67" s="2"/>
-      <c r="AJ67" s="1"/>
-      <c r="AK67" s="1"/>
-      <c r="AL67" s="1"/>
-      <c r="AM67" s="1"/>
-      <c r="AN67" s="2"/>
-    </row>
-    <row r="68" spans="1:41">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="2"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="2"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="2"/>
-      <c r="AA68" s="1"/>
-      <c r="AB68" s="1"/>
-      <c r="AC68" s="1"/>
-      <c r="AD68" s="2"/>
-      <c r="AE68" s="1"/>
-      <c r="AF68" s="2"/>
-      <c r="AG68" s="1"/>
-      <c r="AH68" s="1"/>
-      <c r="AI68" s="2"/>
-      <c r="AJ68" s="1"/>
-      <c r="AK68" s="1"/>
-      <c r="AL68" s="1"/>
-      <c r="AM68" s="1"/>
-      <c r="AN68" s="2"/>
-    </row>
-    <row r="69" spans="1:41">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="2"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="2"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="2"/>
-      <c r="AA69" s="1"/>
-      <c r="AB69" s="1"/>
-      <c r="AC69" s="1"/>
-      <c r="AD69" s="2"/>
-      <c r="AE69" s="1"/>
-      <c r="AF69" s="2"/>
-      <c r="AG69" s="1"/>
-      <c r="AH69" s="1"/>
-      <c r="AI69" s="2"/>
-      <c r="AJ69" s="1"/>
-      <c r="AK69" s="1"/>
-      <c r="AL69" s="1"/>
-      <c r="AM69" s="1"/>
-      <c r="AN69" s="2"/>
-    </row>
-    <row r="70" spans="1:41">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="V70" s="2"/>
-      <c r="W70" s="1"/>
-      <c r="X70" s="2"/>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="2"/>
-      <c r="AA70" s="1"/>
-      <c r="AB70" s="1"/>
-      <c r="AC70" s="1"/>
-      <c r="AD70" s="2"/>
-      <c r="AE70" s="1"/>
-      <c r="AF70" s="2"/>
-      <c r="AG70" s="1"/>
-      <c r="AH70" s="1"/>
-      <c r="AI70" s="2"/>
-      <c r="AJ70" s="1"/>
-      <c r="AK70" s="1"/>
-      <c r="AL70" s="1"/>
-      <c r="AM70" s="1"/>
-      <c r="AN70" s="2"/>
-    </row>
-    <row r="71" spans="1:41">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="2"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="2"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="2"/>
-      <c r="AE71" s="1"/>
-      <c r="AF71" s="2"/>
-      <c r="AG71" s="1"/>
-      <c r="AH71" s="1"/>
-      <c r="AI71" s="2"/>
-      <c r="AJ71" s="1"/>
-      <c r="AK71" s="1"/>
-      <c r="AL71" s="1"/>
-      <c r="AM71" s="1"/>
-      <c r="AN71" s="2"/>
-    </row>
-    <row r="72" spans="1:41">
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="V72" s="2"/>
-      <c r="W72" s="1"/>
-      <c r="X72" s="2"/>
-      <c r="Y72" s="1"/>
-      <c r="Z72" s="2"/>
-      <c r="AA72" s="1"/>
-      <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
-      <c r="AD72" s="2"/>
-      <c r="AE72" s="1"/>
-      <c r="AF72" s="2"/>
-      <c r="AG72" s="1"/>
-      <c r="AH72" s="1"/>
-      <c r="AI72" s="2"/>
-      <c r="AJ72" s="1"/>
-      <c r="AK72" s="1"/>
-      <c r="AL72" s="1"/>
-      <c r="AM72" s="1"/>
-      <c r="AN72" s="2"/>
-    </row>
-    <row r="73" spans="1:41">
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
-      <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="V73" s="2"/>
-      <c r="W73" s="1"/>
-      <c r="X73" s="2"/>
-      <c r="Y73" s="1"/>
-      <c r="Z73" s="2"/>
-      <c r="AA73" s="1"/>
-      <c r="AB73" s="1"/>
-      <c r="AC73" s="1"/>
-      <c r="AD73" s="2"/>
-      <c r="AE73" s="1"/>
-      <c r="AF73" s="2"/>
-      <c r="AG73" s="1"/>
-      <c r="AH73" s="1"/>
-      <c r="AI73" s="2"/>
-      <c r="AJ73" s="1"/>
-      <c r="AK73" s="1"/>
-      <c r="AL73" s="1"/>
-      <c r="AM73" s="1"/>
-      <c r="AN73" s="2"/>
-    </row>
-    <row r="74" spans="1:41">
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="2"/>
-      <c r="W74" s="1"/>
-      <c r="X74" s="2"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="2"/>
-      <c r="AA74" s="1"/>
-      <c r="AB74" s="1"/>
-      <c r="AC74" s="1"/>
-      <c r="AD74" s="2"/>
-      <c r="AE74" s="1"/>
-      <c r="AF74" s="2"/>
-      <c r="AG74" s="1"/>
-      <c r="AH74" s="1"/>
-      <c r="AI74" s="2"/>
-      <c r="AJ74" s="1"/>
-      <c r="AK74" s="1"/>
-      <c r="AL74" s="1"/>
-      <c r="AM74" s="1"/>
-      <c r="AN74" s="2"/>
-    </row>
-    <row r="75" spans="1:41">
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1"/>
-      <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="1"/>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="1"/>
-      <c r="Z75" s="2"/>
-      <c r="AA75" s="1"/>
-      <c r="AB75" s="1"/>
-      <c r="AC75" s="1"/>
-      <c r="AD75" s="2"/>
-      <c r="AE75" s="1"/>
-      <c r="AF75" s="2"/>
-      <c r="AG75" s="1"/>
-      <c r="AH75" s="1"/>
-      <c r="AI75" s="2"/>
-      <c r="AJ75" s="1"/>
-      <c r="AK75" s="1"/>
-      <c r="AL75" s="1"/>
-      <c r="AM75" s="1"/>
-      <c r="AN75" s="2"/>
-    </row>
-    <row r="76" spans="1:41">
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
-      <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="1"/>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="1"/>
-      <c r="Z76" s="2"/>
-      <c r="AA76" s="1"/>
-      <c r="AB76" s="1"/>
-      <c r="AC76" s="1"/>
-      <c r="AD76" s="2"/>
-      <c r="AE76" s="1"/>
-      <c r="AF76" s="2"/>
-      <c r="AG76" s="1"/>
-      <c r="AH76" s="1"/>
-      <c r="AI76" s="2"/>
-      <c r="AJ76" s="1"/>
-      <c r="AK76" s="1"/>
-      <c r="AL76" s="1"/>
-      <c r="AM76" s="1"/>
-      <c r="AN76" s="2"/>
-    </row>
-    <row r="77" spans="1:41">
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="1"/>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="1"/>
-      <c r="Z77" s="2"/>
-      <c r="AA77" s="1"/>
-      <c r="AB77" s="1"/>
-      <c r="AC77" s="1"/>
-      <c r="AD77" s="2"/>
-      <c r="AE77" s="1"/>
-      <c r="AF77" s="2"/>
-      <c r="AG77" s="1"/>
-      <c r="AH77" s="1"/>
-      <c r="AI77" s="2"/>
-      <c r="AJ77" s="1"/>
-      <c r="AK77" s="1"/>
-      <c r="AL77" s="1"/>
-      <c r="AM77" s="1"/>
-      <c r="AN77" s="2"/>
-    </row>
-    <row r="78" spans="1:41">
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="2"/>
-      <c r="Y78" s="1"/>
-      <c r="Z78" s="2"/>
-      <c r="AA78" s="1"/>
-      <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
-      <c r="AD78" s="2"/>
-      <c r="AE78" s="1"/>
-      <c r="AF78" s="2"/>
-      <c r="AG78" s="1"/>
-      <c r="AH78" s="1"/>
-      <c r="AI78" s="2"/>
-      <c r="AJ78" s="1"/>
-      <c r="AK78" s="1"/>
-      <c r="AL78" s="1"/>
-      <c r="AM78" s="1"/>
-      <c r="AN78" s="2"/>
-    </row>
-    <row r="79" spans="1:41">
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
-      <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="1"/>
-      <c r="Z79" s="2"/>
-      <c r="AA79" s="1"/>
-      <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
-      <c r="AD79" s="2"/>
-      <c r="AE79" s="1"/>
-      <c r="AF79" s="2"/>
-      <c r="AG79" s="1"/>
-      <c r="AH79" s="1"/>
-      <c r="AI79" s="2"/>
-      <c r="AJ79" s="1"/>
-      <c r="AK79" s="1"/>
-      <c r="AL79" s="1"/>
-      <c r="AM79" s="1"/>
-      <c r="AN79" s="2"/>
-    </row>
-    <row r="80" spans="1:41">
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
-      <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="2"/>
-      <c r="W80" s="1"/>
-      <c r="X80" s="2"/>
-      <c r="Y80" s="1"/>
-      <c r="Z80" s="2"/>
-      <c r="AA80" s="1"/>
-      <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
-      <c r="AD80" s="2"/>
-      <c r="AE80" s="1"/>
-      <c r="AF80" s="2"/>
-      <c r="AG80" s="1"/>
-      <c r="AH80" s="1"/>
-      <c r="AI80" s="2"/>
-      <c r="AJ80" s="1"/>
-      <c r="AK80" s="1"/>
-      <c r="AL80" s="1"/>
-      <c r="AM80" s="1"/>
-      <c r="AN80" s="2"/>
-    </row>
-  </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15310,7 +10611,7 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:41">
@@ -15318,7 +10619,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -15342,7 +10643,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -16246,8 +11547,12 @@
       <c r="M18" s="1">
         <v>1405882.0</v>
       </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="2"/>
+      <c r="N18" s="1">
+        <v>33000.0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P18" s="6">
         <v>3000000.0</v>
       </c>
@@ -16318,7 +11623,7 @@
         <v>0.95</v>
       </c>
       <c r="AO18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -16351,8 +11656,12 @@
       <c r="M19" s="8">
         <v>1302352.0</v>
       </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="9"/>
+      <c r="N19" s="8">
+        <v>30929.36</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0.22</v>
+      </c>
       <c r="P19" s="8">
         <v>3300000.0</v>
       </c>
@@ -16421,7 +11730,7 @@
       <c r="AM19" s="8"/>
       <c r="AN19" s="9"/>
       <c r="AO19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -16454,8 +11763,12 @@
       <c r="M20" s="1">
         <v>1188469.0</v>
       </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="2"/>
+      <c r="N20" s="1">
+        <v>28651.7</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P20" s="6">
         <v>3630000.0</v>
       </c>
@@ -16524,7 +11837,7 @@
       <c r="AM20" s="1"/>
       <c r="AN20" s="2"/>
       <c r="AO20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -16557,8 +11870,12 @@
       <c r="M21" s="1">
         <v>1063198.0</v>
       </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="2"/>
+      <c r="N21" s="1">
+        <v>26146.34</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P21" s="6">
         <v>3993000.0</v>
       </c>
@@ -16627,7 +11944,7 @@
       <c r="AM21" s="1"/>
       <c r="AN21" s="2"/>
       <c r="AO21" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:41">
@@ -16660,8 +11977,12 @@
       <c r="M22" s="1">
         <v>925400.0</v>
       </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="2"/>
+      <c r="N22" s="1">
+        <v>23390.4</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P22" s="6">
         <v>4392300.0</v>
       </c>
@@ -16730,7 +12051,7 @@
       <c r="AM22" s="1"/>
       <c r="AN22" s="2"/>
       <c r="AO22" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:41">
@@ -16763,8 +12084,12 @@
       <c r="M23" s="1">
         <v>773822.0</v>
       </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="2"/>
+      <c r="N23" s="1">
+        <v>20358.8</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P23" s="6">
         <v>4831530.0</v>
       </c>
@@ -16833,7 +12158,7 @@
       <c r="AM23" s="1"/>
       <c r="AN23" s="2"/>
       <c r="AO23" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -16866,8 +12191,12 @@
       <c r="M24" s="1">
         <v>607086.0</v>
       </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="2"/>
+      <c r="N24" s="1">
+        <v>17024.04</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P24" s="6">
         <v>5314683.0</v>
       </c>
@@ -16936,7 +12265,7 @@
       <c r="AM24" s="1"/>
       <c r="AN24" s="2"/>
       <c r="AO24" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -16969,8 +12298,12 @@
       <c r="M25" s="1">
         <v>423676.0</v>
       </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="2"/>
+      <c r="N25" s="1">
+        <v>13355.98</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P25" s="6">
         <v>5846151.0</v>
       </c>
@@ -17039,7 +12372,7 @@
       <c r="AM25" s="1"/>
       <c r="AN25" s="2"/>
       <c r="AO25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:41">
@@ -17072,8 +12405,12 @@
       <c r="M26" s="1">
         <v>221926.0</v>
       </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="2"/>
+      <c r="N26" s="1">
+        <v>9320.96</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P26" s="6">
         <v>6430766.0</v>
       </c>
@@ -17142,7 +12479,7 @@
       <c r="AM26" s="1"/>
       <c r="AN26" s="2"/>
       <c r="AO26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:41">
@@ -17175,8 +12512,12 @@
       <c r="M27" s="1">
         <v>0.0</v>
       </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="2"/>
+      <c r="N27" s="1">
+        <v>4882.46</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P27" s="6">
         <v>7073843.0</v>
       </c>
@@ -17243,7 +12584,7 @@
       <c r="AM27" s="1"/>
       <c r="AN27" s="2"/>
       <c r="AO27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:41">
@@ -17334,7 +12675,7 @@
       <c r="AM28" s="1"/>
       <c r="AN28" s="2"/>
       <c r="AO28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:41">
@@ -17425,7 +12766,7 @@
       <c r="AM29" s="1"/>
       <c r="AN29" s="2"/>
       <c r="AO29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:41">
@@ -17516,7 +12857,7 @@
       <c r="AM30" s="1"/>
       <c r="AN30" s="2"/>
       <c r="AO30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:41">
@@ -17607,7 +12948,7 @@
       <c r="AM31" s="1"/>
       <c r="AN31" s="2"/>
       <c r="AO31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:41">
@@ -17698,7 +13039,7 @@
       <c r="AM32" s="1"/>
       <c r="AN32" s="2"/>
       <c r="AO32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:41">
@@ -17789,7 +13130,7 @@
       <c r="AM33" s="1"/>
       <c r="AN33" s="2"/>
       <c r="AO33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:41">
@@ -17880,7 +13221,7 @@
       <c r="AM34" s="1"/>
       <c r="AN34" s="2"/>
       <c r="AO34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:41">
@@ -17971,7 +13312,7 @@
       <c r="AM35" s="1"/>
       <c r="AN35" s="2"/>
       <c r="AO35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:41">
@@ -18062,7 +13403,7 @@
       <c r="AM36" s="1"/>
       <c r="AN36" s="2"/>
       <c r="AO36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:41">
@@ -18153,7 +13494,7 @@
       <c r="AM37" s="1"/>
       <c r="AN37" s="2"/>
       <c r="AO37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:41">
@@ -18244,7 +13585,7 @@
       <c r="AM38" s="5"/>
       <c r="AN38" s="16"/>
       <c r="AO38" s="15" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:41">
@@ -19991,7 +15332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20009,7 +15350,7 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/tests/Feature/config/mortgage_tenpercent.xlsx
+++ b/tests/Feature/config/mortgage_tenpercent.xlsx
@@ -2198,10 +2198,10 @@
       </c>
       <c r="AF19" s="9"/>
       <c r="AG19" s="8">
-        <v>-248948.0</v>
+        <v>-305866.0</v>
       </c>
       <c r="AH19" s="8">
-        <v>-497266.0</v>
+        <v>-554184.0</v>
       </c>
       <c r="AI19" s="9"/>
       <c r="AJ19" s="8">
@@ -2293,10 +2293,10 @@
       </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="1">
-        <v>-249641.0</v>
+        <v>-288049.0</v>
       </c>
       <c r="AH20" s="1">
-        <v>-746907.0</v>
+        <v>-842233.0</v>
       </c>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="1">
@@ -2388,10 +2388,10 @@
       </c>
       <c r="AF21" s="2"/>
       <c r="AG21" s="1">
-        <v>-250403.3</v>
+        <v>-268450.3</v>
       </c>
       <c r="AH21" s="1">
-        <v>-997310.3</v>
+        <v>-1110683.3</v>
       </c>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="1">
@@ -2483,10 +2483,10 @@
       </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="1">
-        <v>-251241.83</v>
+        <v>-246891.83</v>
       </c>
       <c r="AH22" s="1">
-        <v>-1248552.13</v>
+        <v>-1357575.13</v>
       </c>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="1">
@@ -2578,10 +2578,10 @@
       </c>
       <c r="AF23" s="2"/>
       <c r="AG23" s="1">
-        <v>-252164.213</v>
+        <v>-190540.213</v>
       </c>
       <c r="AH23" s="1">
-        <v>-1500716.343</v>
+        <v>-1548115.343</v>
       </c>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="1">
@@ -2673,10 +2673,10 @@
       </c>
       <c r="AF24" s="2"/>
       <c r="AG24" s="1">
-        <v>-253178.8343</v>
+        <v>-113557.8343</v>
       </c>
       <c r="AH24" s="1">
-        <v>-1753895.1773</v>
+        <v>-1661673.1773</v>
       </c>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="1">
@@ -2768,10 +2768,10 @@
       </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="1">
-        <v>-148418.9171</v>
+        <v>-6215.9171</v>
       </c>
       <c r="AH25" s="1">
-        <v>-1902314.0944</v>
+        <v>-1667889.0944</v>
       </c>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="1">
@@ -2866,7 +2866,7 @@
         <v>107284.3914</v>
       </c>
       <c r="AH26" s="1">
-        <v>-1795029.703</v>
+        <v>-1560604.703</v>
       </c>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="1">
@@ -2961,7 +2961,7 @@
         <v>141320.3222</v>
       </c>
       <c r="AH27" s="1">
-        <v>-1653709.3808</v>
+        <v>-1419284.3808</v>
       </c>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="1">
@@ -3056,7 +3056,7 @@
         <v>421177.3558</v>
       </c>
       <c r="AH28" s="1">
-        <v>-1232532.025</v>
+        <v>-998107.025</v>
       </c>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="1">
@@ -3151,7 +3151,7 @@
         <v>459473.99</v>
       </c>
       <c r="AH29" s="1">
-        <v>-773058.035</v>
+        <v>-538633.035</v>
       </c>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="1">
@@ -3246,7 +3246,7 @@
         <v>501601.689</v>
       </c>
       <c r="AH30" s="1">
-        <v>-271456.346</v>
+        <v>-37031.346</v>
       </c>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="1">
@@ -3341,7 +3341,7 @@
         <v>547941.6556</v>
       </c>
       <c r="AH31" s="1">
-        <v>276485.3096</v>
+        <v>510910.3096</v>
       </c>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="1">
@@ -3436,7 +3436,7 @@
         <v>598916.523</v>
       </c>
       <c r="AH32" s="1">
-        <v>875401.8326</v>
+        <v>1109826.8326</v>
       </c>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="1">
@@ -3531,7 +3531,7 @@
         <v>654987.973</v>
       </c>
       <c r="AH33" s="1">
-        <v>1530389.8056</v>
+        <v>1764814.8056</v>
       </c>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="1">
@@ -3626,7 +3626,7 @@
         <v>716666.368</v>
       </c>
       <c r="AH34" s="1">
-        <v>2247056.1736</v>
+        <v>2481481.1736</v>
       </c>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="1">
@@ -3721,7 +3721,7 @@
         <v>784513.3048</v>
       </c>
       <c r="AH35" s="1">
-        <v>3031569.4784</v>
+        <v>3265994.4784</v>
       </c>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="1">
@@ -3816,7 +3816,7 @@
         <v>859144.1362</v>
       </c>
       <c r="AH36" s="1">
-        <v>3890713.6146</v>
+        <v>4125138.6146</v>
       </c>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="1">
@@ -3911,7 +3911,7 @@
         <v>941238.4512</v>
       </c>
       <c r="AH37" s="1">
-        <v>4831952.0658</v>
+        <v>5066377.0658</v>
       </c>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="1">
@@ -4006,7 +4006,7 @@
         <v>1031542.4954</v>
       </c>
       <c r="AH38" s="5">
-        <v>5863494.5612</v>
+        <v>6097919.5612</v>
       </c>
       <c r="AI38" s="16"/>
       <c r="AJ38" s="5">
@@ -6874,10 +6874,10 @@
       </c>
       <c r="AF19" s="9"/>
       <c r="AG19" s="8">
-        <v>0.0</v>
+        <v>-56918</v>
       </c>
       <c r="AH19" s="8">
-        <v>0.0</v>
+        <v>-56918.0</v>
       </c>
       <c r="AI19" s="9">
         <v>0.46862733333333</v>
@@ -6987,10 +6987,10 @@
       </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="1">
-        <v>0.0</v>
+        <v>-38408</v>
       </c>
       <c r="AH20" s="1">
-        <v>0.0</v>
+        <v>-95326.0</v>
       </c>
       <c r="AI20" s="2">
         <v>0.39465212121212</v>
@@ -7100,10 +7100,10 @@
       </c>
       <c r="AF21" s="2"/>
       <c r="AG21" s="1">
-        <v>0.0</v>
+        <v>-18047</v>
       </c>
       <c r="AH21" s="1">
-        <v>0.0</v>
+        <v>-113373.0</v>
       </c>
       <c r="AI21" s="2">
         <v>0.32740192837466</v>
@@ -7213,10 +7213,10 @@
       </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="1">
-        <v>0</v>
+        <v>4350</v>
       </c>
       <c r="AH22" s="1">
-        <v>0.0</v>
+        <v>-109023.0</v>
       </c>
       <c r="AI22" s="2">
         <v>0.26626546456299</v>
@@ -7326,10 +7326,10 @@
       </c>
       <c r="AF23" s="2"/>
       <c r="AG23" s="1">
-        <v>0</v>
+        <v>61624</v>
       </c>
       <c r="AH23" s="1">
-        <v>0.0</v>
+        <v>-47399.0</v>
       </c>
       <c r="AI23" s="2">
         <v>0.18251827060993</v>
@@ -7439,10 +7439,10 @@
       </c>
       <c r="AF24" s="2"/>
       <c r="AG24" s="1">
-        <v>0</v>
+        <v>139621</v>
       </c>
       <c r="AH24" s="1">
-        <v>0.0</v>
+        <v>92222.0</v>
       </c>
       <c r="AI24" s="2">
         <v>0.10535565338516</v>
@@ -7552,10 +7552,10 @@
       </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="1">
-        <v>105876.0</v>
+        <v>248079</v>
       </c>
       <c r="AH25" s="1">
-        <v>105876.0</v>
+        <v>340301.0</v>
       </c>
       <c r="AI25" s="2">
         <v>0.038339633803183</v>
@@ -7651,10 +7651,10 @@
       </c>
       <c r="AF26" s="2"/>
       <c r="AG26" s="1">
-        <v>362807.0</v>
+        <v>362807</v>
       </c>
       <c r="AH26" s="1">
-        <v>468683.0</v>
+        <v>703108.0</v>
       </c>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="1">
@@ -7746,10 +7746,10 @@
       </c>
       <c r="AF27" s="2"/>
       <c r="AG27" s="1">
-        <v>398878.0</v>
+        <v>398878</v>
       </c>
       <c r="AH27" s="1">
-        <v>867561.0</v>
+        <v>1101986.0</v>
       </c>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="1">
@@ -7841,10 +7841,10 @@
       </c>
       <c r="AF28" s="2"/>
       <c r="AG28" s="1">
-        <v>437871.0</v>
+        <v>437871</v>
       </c>
       <c r="AH28" s="1">
-        <v>1305432.0</v>
+        <v>1539857.0</v>
       </c>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="1">
@@ -7936,10 +7936,10 @@
       </c>
       <c r="AF29" s="2"/>
       <c r="AG29" s="1">
-        <v>479747.0</v>
+        <v>479747</v>
       </c>
       <c r="AH29" s="1">
-        <v>1785179.0</v>
+        <v>2019604.0</v>
       </c>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="1">
@@ -8031,10 +8031,10 @@
       </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="1">
-        <v>525812.0</v>
+        <v>525812</v>
       </c>
       <c r="AH30" s="1">
-        <v>2310991.0</v>
+        <v>2545416.0</v>
       </c>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="1">
@@ -8126,10 +8126,10 @@
       </c>
       <c r="AF31" s="2"/>
       <c r="AG31" s="1">
-        <v>576483.0</v>
+        <v>576483</v>
       </c>
       <c r="AH31" s="1">
-        <v>2887474.0</v>
+        <v>3121899.0</v>
       </c>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="1">
@@ -8221,10 +8221,10 @@
       </c>
       <c r="AF32" s="2"/>
       <c r="AG32" s="1">
-        <v>632222.0</v>
+        <v>632222</v>
       </c>
       <c r="AH32" s="1">
-        <v>3519696.0</v>
+        <v>3754121.0</v>
       </c>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="1">
@@ -8316,10 +8316,10 @@
       </c>
       <c r="AF33" s="2"/>
       <c r="AG33" s="1">
-        <v>693534.0</v>
+        <v>693534</v>
       </c>
       <c r="AH33" s="1">
-        <v>4213230.0</v>
+        <v>4447655.0</v>
       </c>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="1">
@@ -8411,10 +8411,10 @@
       </c>
       <c r="AF34" s="2"/>
       <c r="AG34" s="1">
-        <v>760977.0</v>
+        <v>760977</v>
       </c>
       <c r="AH34" s="1">
-        <v>4974207.0</v>
+        <v>5208632.0</v>
       </c>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="1">
@@ -8506,10 +8506,10 @@
       </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="1">
-        <v>835165.0</v>
+        <v>835165</v>
       </c>
       <c r="AH35" s="1">
-        <v>5809372.0</v>
+        <v>6043797.0</v>
       </c>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="1">
@@ -8601,10 +8601,10 @@
       </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="1">
-        <v>916771.0</v>
+        <v>916771</v>
       </c>
       <c r="AH36" s="1">
-        <v>6726143.0</v>
+        <v>6960568.0</v>
       </c>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="1">
@@ -8696,10 +8696,10 @@
       </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="1">
-        <v>1006538.0</v>
+        <v>1006538</v>
       </c>
       <c r="AH37" s="1">
-        <v>7732681.0</v>
+        <v>7967106.0</v>
       </c>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="1">
@@ -8791,10 +8791,10 @@
       </c>
       <c r="AF38" s="16"/>
       <c r="AG38" s="5">
-        <v>1105282.0</v>
+        <v>1105282</v>
       </c>
       <c r="AH38" s="5">
-        <v>8837963.0</v>
+        <v>9072388.0</v>
       </c>
       <c r="AI38" s="16"/>
       <c r="AJ38" s="5">
